--- a/Release Planning/Release3_ planning.xlsx
+++ b/Release Planning/Release3_ planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8268945A-BAF2-4F44-9E9C-78D9C7AA3214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7994E-33D5-4307-A863-6627AB823768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>WP</t>
   </si>
@@ -122,6 +122,10 @@
     <t xml:space="preserve">Review UI Design for Supplier Delete product </t>
   </si>
   <si>
+    <t>System 
+Design</t>
+  </si>
+  <si>
     <t>Create System Design for Registration page</t>
   </si>
   <si>
@@ -185,10 +189,29 @@
     <t xml:space="preserve">Review System Design for Supplier Delete product </t>
   </si>
   <si>
+    <t>Release 2
+Comments</t>
+  </si>
+  <si>
+    <t>Review Client SRS, TC and RTM</t>
+  </si>
+  <si>
+    <t>Review Supplier SRS, TC and RTM</t>
+  </si>
+  <si>
+    <t>Review Registration SRS, TC and RTM</t>
+  </si>
+  <si>
+    <t>Review login SRS, TC and RTM</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Overall release % of work Status</t>
   </si>
   <si>
-    <t>Total Tasks 33</t>
+    <t>Total Tasks 45</t>
   </si>
   <si>
     <t xml:space="preserve">Tasks in % </t>
@@ -222,10 +245,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>System
-Design</t>
   </si>
   <si>
     <t>Release 4
@@ -236,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,8 +333,21 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +396,20 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -524,11 +568,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,6 +674,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,17 +695,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,35 +724,93 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,23 +1030,23 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G1012"/>
+  <dimension ref="A1:G1019"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B47"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,13 +1062,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -914,11 +1081,11 @@
         <v>4</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -929,11 +1096,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -942,11 +1109,11 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -955,11 +1122,11 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -968,11 +1135,11 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -981,11 +1148,11 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -994,24 +1161,26 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1020,24 +1189,26 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1046,11 +1217,11 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1059,11 +1230,11 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1072,11 +1243,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1087,11 +1258,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1100,11 +1271,11 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1115,24 +1286,26 @@
         <v>1</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1141,24 +1314,26 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1167,8 +1342,8 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1176,15 +1351,15 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="57"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
-        <v>67</v>
+      <c r="A23" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
@@ -1193,15 +1368,15 @@
         <v>4</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="36"/>
+      <c r="F23" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
@@ -1210,158 +1385,162 @@
         <v>4</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="36"/>
+      <c r="F24" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>8</v>
@@ -1370,26 +1549,26 @@
         <v>1</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -1398,60 +1577,64 @@
         <v>1</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
@@ -1459,3946 +1642,4037 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38" t="s">
+      <c r="F43" s="39"/>
+      <c r="G43" s="37"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="37"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="45"/>
+      <c r="B46" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="45"/>
+      <c r="B47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-    </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-    </row>
-    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="26"/>
+      <c r="D47" s="20">
+        <v>1</v>
+      </c>
+      <c r="E47" s="66">
+        <v>1</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="59"/>
+    </row>
+    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="37"/>
+    </row>
+    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+    </row>
+    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="37"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="43">
+        <v>3</v>
+      </c>
+      <c r="E51" s="69"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="61"/>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
+    </row>
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-    </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-    </row>
-    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-    </row>
-    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-    </row>
-    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-    </row>
-    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="37"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="51"/>
+      <c r="C56" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="55"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="52"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="77"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="79"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
     </row>
     <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
     </row>
     <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
     </row>
     <row r="87" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
     </row>
     <row r="90" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
     </row>
     <row r="99" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
     </row>
     <row r="102" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
     </row>
     <row r="103" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
     </row>
     <row r="105" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
     </row>
     <row r="107" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
     </row>
     <row r="113" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
     </row>
     <row r="114" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
     </row>
     <row r="117" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
     </row>
     <row r="119" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
     </row>
     <row r="122" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
     </row>
     <row r="124" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
     </row>
     <row r="125" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
     </row>
     <row r="127" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
     </row>
     <row r="128" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
     </row>
     <row r="136" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
     </row>
     <row r="137" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
     </row>
     <row r="138" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
     </row>
     <row r="139" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
     </row>
     <row r="140" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
     </row>
     <row r="141" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
     </row>
     <row r="142" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
     </row>
     <row r="143" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
     </row>
     <row r="144" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
     </row>
     <row r="145" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
     </row>
     <row r="146" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
     </row>
     <row r="147" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
     </row>
     <row r="148" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
     </row>
     <row r="149" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
     </row>
     <row r="150" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
     </row>
     <row r="151" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
     </row>
     <row r="152" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
     </row>
     <row r="153" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
     </row>
     <row r="154" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
     </row>
     <row r="155" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
     </row>
     <row r="156" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
     </row>
     <row r="157" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
     </row>
     <row r="158" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
     </row>
     <row r="159" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
     </row>
     <row r="160" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
     </row>
     <row r="161" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
     </row>
     <row r="162" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
     </row>
     <row r="163" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
     </row>
     <row r="164" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
     </row>
     <row r="165" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
     </row>
     <row r="166" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="28"/>
     </row>
     <row r="167" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="28"/>
     </row>
     <row r="168" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
     </row>
     <row r="170" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
     </row>
     <row r="171" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
     </row>
     <row r="172" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
     </row>
     <row r="175" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
     </row>
     <row r="177" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
     </row>
     <row r="178" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
     </row>
     <row r="179" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
     </row>
     <row r="180" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
     </row>
     <row r="181" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
     </row>
     <row r="182" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
     </row>
     <row r="183" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
     </row>
     <row r="184" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
     </row>
     <row r="185" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
     </row>
     <row r="186" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
     </row>
     <row r="187" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
     </row>
     <row r="188" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
     </row>
     <row r="189" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
     </row>
     <row r="190" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
     </row>
     <row r="191" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
     </row>
     <row r="192" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
     </row>
     <row r="193" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
     </row>
     <row r="194" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
     </row>
     <row r="195" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
     </row>
     <row r="196" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
     </row>
     <row r="197" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28"/>
     </row>
     <row r="198" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
     </row>
     <row r="199" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
     </row>
     <row r="200" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="28"/>
     </row>
     <row r="201" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="28"/>
     </row>
     <row r="202" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
     </row>
     <row r="203" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
     </row>
     <row r="204" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
     </row>
     <row r="205" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
     </row>
     <row r="206" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F206" s="27"/>
-      <c r="G206" s="27"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="28"/>
     </row>
     <row r="207" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F207" s="27"/>
-      <c r="G207" s="27"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28"/>
     </row>
     <row r="208" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="28"/>
     </row>
     <row r="209" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F209" s="27"/>
-      <c r="G209" s="27"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="28"/>
     </row>
     <row r="210" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="28"/>
     </row>
     <row r="211" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F211" s="27"/>
-      <c r="G211" s="27"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="28"/>
     </row>
     <row r="212" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F212" s="27"/>
-      <c r="G212" s="27"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="28"/>
     </row>
     <row r="213" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F213" s="27"/>
-      <c r="G213" s="27"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
     </row>
     <row r="214" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F214" s="27"/>
-      <c r="G214" s="27"/>
+      <c r="F214" s="28"/>
+      <c r="G214" s="28"/>
     </row>
     <row r="215" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F215" s="27"/>
-      <c r="G215" s="27"/>
+      <c r="F215" s="28"/>
+      <c r="G215" s="28"/>
     </row>
     <row r="216" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F216" s="27"/>
-      <c r="G216" s="27"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="28"/>
     </row>
     <row r="217" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F217" s="27"/>
-      <c r="G217" s="27"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="28"/>
     </row>
     <row r="218" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F218" s="27"/>
-      <c r="G218" s="27"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="28"/>
     </row>
     <row r="219" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F219" s="27"/>
-      <c r="G219" s="27"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="28"/>
     </row>
     <row r="220" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F220" s="27"/>
-      <c r="G220" s="27"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="28"/>
     </row>
     <row r="221" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F221" s="27"/>
-      <c r="G221" s="27"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
     </row>
     <row r="222" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F222" s="27"/>
-      <c r="G222" s="27"/>
+      <c r="F222" s="28"/>
+      <c r="G222" s="28"/>
     </row>
     <row r="223" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F223" s="27"/>
-      <c r="G223" s="27"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28"/>
     </row>
     <row r="224" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F224" s="27"/>
-      <c r="G224" s="27"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="28"/>
     </row>
     <row r="225" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F225" s="27"/>
-      <c r="G225" s="27"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="28"/>
     </row>
     <row r="226" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F226" s="27"/>
-      <c r="G226" s="27"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="28"/>
     </row>
     <row r="227" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
+      <c r="F227" s="28"/>
+      <c r="G227" s="28"/>
     </row>
     <row r="228" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="28"/>
     </row>
     <row r="229" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="28"/>
     </row>
     <row r="230" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28"/>
     </row>
     <row r="231" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F231" s="27"/>
-      <c r="G231" s="27"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
     </row>
     <row r="232" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="28"/>
     </row>
     <row r="233" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="28"/>
     </row>
     <row r="234" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F234" s="27"/>
-      <c r="G234" s="27"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
     </row>
     <row r="235" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F235" s="27"/>
-      <c r="G235" s="27"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="28"/>
     </row>
     <row r="236" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F236" s="27"/>
-      <c r="G236" s="27"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="28"/>
     </row>
     <row r="237" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F237" s="27"/>
-      <c r="G237" s="27"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
     </row>
     <row r="238" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F238" s="27"/>
-      <c r="G238" s="27"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="28"/>
     </row>
     <row r="239" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F239" s="27"/>
-      <c r="G239" s="27"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28"/>
     </row>
     <row r="240" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F240" s="27"/>
-      <c r="G240" s="27"/>
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
     </row>
     <row r="241" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F241" s="27"/>
-      <c r="G241" s="27"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="28"/>
     </row>
     <row r="242" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F242" s="27"/>
-      <c r="G242" s="27"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="28"/>
     </row>
     <row r="243" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F243" s="27"/>
-      <c r="G243" s="27"/>
+      <c r="F243" s="28"/>
+      <c r="G243" s="28"/>
     </row>
     <row r="244" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F244" s="27"/>
-      <c r="G244" s="27"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28"/>
     </row>
     <row r="245" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F245" s="27"/>
-      <c r="G245" s="27"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="28"/>
     </row>
     <row r="246" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F246" s="27"/>
-      <c r="G246" s="27"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="28"/>
     </row>
     <row r="247" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F247" s="27"/>
-      <c r="G247" s="27"/>
+      <c r="F247" s="28"/>
+      <c r="G247" s="28"/>
     </row>
     <row r="248" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F248" s="27"/>
-      <c r="G248" s="27"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="28"/>
     </row>
     <row r="249" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F249" s="27"/>
-      <c r="G249" s="27"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="28"/>
     </row>
     <row r="250" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F250" s="27"/>
-      <c r="G250" s="27"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="28"/>
     </row>
     <row r="251" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F251" s="27"/>
-      <c r="G251" s="27"/>
+      <c r="F251" s="28"/>
+      <c r="G251" s="28"/>
     </row>
     <row r="252" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F252" s="27"/>
-      <c r="G252" s="27"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="28"/>
     </row>
     <row r="253" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F253" s="27"/>
-      <c r="G253" s="27"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="28"/>
     </row>
     <row r="254" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F254" s="27"/>
-      <c r="G254" s="27"/>
+      <c r="F254" s="28"/>
+      <c r="G254" s="28"/>
     </row>
     <row r="255" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F255" s="27"/>
-      <c r="G255" s="27"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="28"/>
     </row>
     <row r="256" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F256" s="27"/>
-      <c r="G256" s="27"/>
+      <c r="F256" s="28"/>
+      <c r="G256" s="28"/>
     </row>
     <row r="257" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F257" s="27"/>
-      <c r="G257" s="27"/>
+      <c r="F257" s="28"/>
+      <c r="G257" s="28"/>
     </row>
     <row r="258" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F258" s="27"/>
-      <c r="G258" s="27"/>
+      <c r="F258" s="28"/>
+      <c r="G258" s="28"/>
     </row>
     <row r="259" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F259" s="27"/>
-      <c r="G259" s="27"/>
+      <c r="F259" s="28"/>
+      <c r="G259" s="28"/>
     </row>
     <row r="260" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F260" s="27"/>
-      <c r="G260" s="27"/>
+      <c r="F260" s="28"/>
+      <c r="G260" s="28"/>
     </row>
     <row r="261" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F261" s="27"/>
-      <c r="G261" s="27"/>
+      <c r="F261" s="28"/>
+      <c r="G261" s="28"/>
     </row>
     <row r="262" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F262" s="27"/>
-      <c r="G262" s="27"/>
+      <c r="F262" s="28"/>
+      <c r="G262" s="28"/>
     </row>
     <row r="263" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F263" s="27"/>
-      <c r="G263" s="27"/>
+      <c r="F263" s="28"/>
+      <c r="G263" s="28"/>
     </row>
     <row r="264" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F264" s="27"/>
-      <c r="G264" s="27"/>
+      <c r="F264" s="28"/>
+      <c r="G264" s="28"/>
     </row>
     <row r="265" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F265" s="27"/>
-      <c r="G265" s="27"/>
+      <c r="F265" s="28"/>
+      <c r="G265" s="28"/>
     </row>
     <row r="266" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F266" s="27"/>
-      <c r="G266" s="27"/>
+      <c r="F266" s="28"/>
+      <c r="G266" s="28"/>
     </row>
     <row r="267" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F267" s="27"/>
-      <c r="G267" s="27"/>
+      <c r="F267" s="28"/>
+      <c r="G267" s="28"/>
     </row>
     <row r="268" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F268" s="27"/>
-      <c r="G268" s="27"/>
+      <c r="F268" s="28"/>
+      <c r="G268" s="28"/>
     </row>
     <row r="269" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F269" s="27"/>
-      <c r="G269" s="27"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="28"/>
     </row>
     <row r="270" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F270" s="27"/>
-      <c r="G270" s="27"/>
+      <c r="F270" s="28"/>
+      <c r="G270" s="28"/>
     </row>
     <row r="271" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F271" s="27"/>
-      <c r="G271" s="27"/>
+      <c r="F271" s="28"/>
+      <c r="G271" s="28"/>
     </row>
     <row r="272" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F272" s="27"/>
-      <c r="G272" s="27"/>
+      <c r="F272" s="28"/>
+      <c r="G272" s="28"/>
     </row>
     <row r="273" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F273" s="27"/>
-      <c r="G273" s="27"/>
+      <c r="F273" s="28"/>
+      <c r="G273" s="28"/>
     </row>
     <row r="274" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F274" s="27"/>
-      <c r="G274" s="27"/>
+      <c r="F274" s="28"/>
+      <c r="G274" s="28"/>
     </row>
     <row r="275" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F275" s="27"/>
-      <c r="G275" s="27"/>
+      <c r="F275" s="28"/>
+      <c r="G275" s="28"/>
     </row>
     <row r="276" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F276" s="27"/>
-      <c r="G276" s="27"/>
+      <c r="F276" s="28"/>
+      <c r="G276" s="28"/>
     </row>
     <row r="277" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F277" s="27"/>
-      <c r="G277" s="27"/>
+      <c r="F277" s="28"/>
+      <c r="G277" s="28"/>
     </row>
     <row r="278" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F278" s="27"/>
-      <c r="G278" s="27"/>
+      <c r="F278" s="28"/>
+      <c r="G278" s="28"/>
     </row>
     <row r="279" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F279" s="27"/>
-      <c r="G279" s="27"/>
+      <c r="F279" s="28"/>
+      <c r="G279" s="28"/>
     </row>
     <row r="280" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F280" s="27"/>
-      <c r="G280" s="27"/>
+      <c r="F280" s="28"/>
+      <c r="G280" s="28"/>
     </row>
     <row r="281" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F281" s="27"/>
-      <c r="G281" s="27"/>
+      <c r="F281" s="28"/>
+      <c r="G281" s="28"/>
     </row>
     <row r="282" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F282" s="27"/>
-      <c r="G282" s="27"/>
+      <c r="F282" s="28"/>
+      <c r="G282" s="28"/>
     </row>
     <row r="283" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F283" s="27"/>
-      <c r="G283" s="27"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="28"/>
     </row>
     <row r="284" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F284" s="27"/>
-      <c r="G284" s="27"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="28"/>
     </row>
     <row r="285" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F285" s="27"/>
-      <c r="G285" s="27"/>
+      <c r="F285" s="28"/>
+      <c r="G285" s="28"/>
     </row>
     <row r="286" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F286" s="27"/>
-      <c r="G286" s="27"/>
+      <c r="F286" s="28"/>
+      <c r="G286" s="28"/>
     </row>
     <row r="287" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F287" s="27"/>
-      <c r="G287" s="27"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="28"/>
     </row>
     <row r="288" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F288" s="27"/>
-      <c r="G288" s="27"/>
+      <c r="F288" s="28"/>
+      <c r="G288" s="28"/>
     </row>
     <row r="289" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F289" s="27"/>
-      <c r="G289" s="27"/>
+      <c r="F289" s="28"/>
+      <c r="G289" s="28"/>
     </row>
     <row r="290" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F290" s="27"/>
-      <c r="G290" s="27"/>
+      <c r="F290" s="28"/>
+      <c r="G290" s="28"/>
     </row>
     <row r="291" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F291" s="27"/>
-      <c r="G291" s="27"/>
+      <c r="F291" s="28"/>
+      <c r="G291" s="28"/>
     </row>
     <row r="292" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F292" s="27"/>
-      <c r="G292" s="27"/>
+      <c r="F292" s="28"/>
+      <c r="G292" s="28"/>
     </row>
     <row r="293" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F293" s="27"/>
-      <c r="G293" s="27"/>
+      <c r="F293" s="28"/>
+      <c r="G293" s="28"/>
     </row>
     <row r="294" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F294" s="27"/>
-      <c r="G294" s="27"/>
+      <c r="F294" s="28"/>
+      <c r="G294" s="28"/>
     </row>
     <row r="295" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F295" s="27"/>
-      <c r="G295" s="27"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="28"/>
     </row>
     <row r="296" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F296" s="27"/>
-      <c r="G296" s="27"/>
+      <c r="F296" s="28"/>
+      <c r="G296" s="28"/>
     </row>
     <row r="297" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F297" s="27"/>
-      <c r="G297" s="27"/>
+      <c r="F297" s="28"/>
+      <c r="G297" s="28"/>
     </row>
     <row r="298" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F298" s="27"/>
-      <c r="G298" s="27"/>
+      <c r="F298" s="28"/>
+      <c r="G298" s="28"/>
     </row>
     <row r="299" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F299" s="27"/>
-      <c r="G299" s="27"/>
+      <c r="F299" s="28"/>
+      <c r="G299" s="28"/>
     </row>
     <row r="300" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F300" s="27"/>
-      <c r="G300" s="27"/>
+      <c r="F300" s="28"/>
+      <c r="G300" s="28"/>
     </row>
     <row r="301" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F301" s="27"/>
-      <c r="G301" s="27"/>
+      <c r="F301" s="28"/>
+      <c r="G301" s="28"/>
     </row>
     <row r="302" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F302" s="27"/>
-      <c r="G302" s="27"/>
+      <c r="F302" s="28"/>
+      <c r="G302" s="28"/>
     </row>
     <row r="303" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F303" s="27"/>
-      <c r="G303" s="27"/>
+      <c r="F303" s="28"/>
+      <c r="G303" s="28"/>
     </row>
     <row r="304" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F304" s="27"/>
-      <c r="G304" s="27"/>
+      <c r="F304" s="28"/>
+      <c r="G304" s="28"/>
     </row>
     <row r="305" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F305" s="27"/>
-      <c r="G305" s="27"/>
+      <c r="F305" s="28"/>
+      <c r="G305" s="28"/>
     </row>
     <row r="306" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F306" s="27"/>
-      <c r="G306" s="27"/>
+      <c r="F306" s="28"/>
+      <c r="G306" s="28"/>
     </row>
     <row r="307" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F307" s="27"/>
-      <c r="G307" s="27"/>
+      <c r="F307" s="28"/>
+      <c r="G307" s="28"/>
     </row>
     <row r="308" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F308" s="27"/>
-      <c r="G308" s="27"/>
+      <c r="F308" s="28"/>
+      <c r="G308" s="28"/>
     </row>
     <row r="309" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F309" s="27"/>
-      <c r="G309" s="27"/>
+      <c r="F309" s="28"/>
+      <c r="G309" s="28"/>
     </row>
     <row r="310" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F310" s="27"/>
-      <c r="G310" s="27"/>
+      <c r="F310" s="28"/>
+      <c r="G310" s="28"/>
     </row>
     <row r="311" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F311" s="27"/>
-      <c r="G311" s="27"/>
+      <c r="F311" s="28"/>
+      <c r="G311" s="28"/>
     </row>
     <row r="312" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F312" s="27"/>
-      <c r="G312" s="27"/>
+      <c r="F312" s="28"/>
+      <c r="G312" s="28"/>
     </row>
     <row r="313" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F313" s="27"/>
-      <c r="G313" s="27"/>
+      <c r="F313" s="28"/>
+      <c r="G313" s="28"/>
     </row>
     <row r="314" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F314" s="27"/>
-      <c r="G314" s="27"/>
+      <c r="F314" s="28"/>
+      <c r="G314" s="28"/>
     </row>
     <row r="315" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F315" s="27"/>
-      <c r="G315" s="27"/>
+      <c r="F315" s="28"/>
+      <c r="G315" s="28"/>
     </row>
     <row r="316" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F316" s="27"/>
-      <c r="G316" s="27"/>
+      <c r="F316" s="28"/>
+      <c r="G316" s="28"/>
     </row>
     <row r="317" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F317" s="27"/>
-      <c r="G317" s="27"/>
+      <c r="F317" s="28"/>
+      <c r="G317" s="28"/>
     </row>
     <row r="318" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F318" s="27"/>
-      <c r="G318" s="27"/>
+      <c r="F318" s="28"/>
+      <c r="G318" s="28"/>
     </row>
     <row r="319" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F319" s="27"/>
-      <c r="G319" s="27"/>
+      <c r="F319" s="28"/>
+      <c r="G319" s="28"/>
     </row>
     <row r="320" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F320" s="27"/>
-      <c r="G320" s="27"/>
+      <c r="F320" s="28"/>
+      <c r="G320" s="28"/>
     </row>
     <row r="321" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F321" s="27"/>
-      <c r="G321" s="27"/>
+      <c r="F321" s="28"/>
+      <c r="G321" s="28"/>
     </row>
     <row r="322" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F322" s="27"/>
-      <c r="G322" s="27"/>
+      <c r="F322" s="28"/>
+      <c r="G322" s="28"/>
     </row>
     <row r="323" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F323" s="27"/>
-      <c r="G323" s="27"/>
+      <c r="F323" s="28"/>
+      <c r="G323" s="28"/>
     </row>
     <row r="324" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F324" s="27"/>
-      <c r="G324" s="27"/>
+      <c r="F324" s="28"/>
+      <c r="G324" s="28"/>
     </row>
     <row r="325" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F325" s="27"/>
-      <c r="G325" s="27"/>
+      <c r="F325" s="28"/>
+      <c r="G325" s="28"/>
     </row>
     <row r="326" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F326" s="27"/>
-      <c r="G326" s="27"/>
+      <c r="F326" s="28"/>
+      <c r="G326" s="28"/>
     </row>
     <row r="327" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F327" s="27"/>
-      <c r="G327" s="27"/>
+      <c r="F327" s="28"/>
+      <c r="G327" s="28"/>
     </row>
     <row r="328" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F328" s="27"/>
-      <c r="G328" s="27"/>
+      <c r="F328" s="28"/>
+      <c r="G328" s="28"/>
     </row>
     <row r="329" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F329" s="27"/>
-      <c r="G329" s="27"/>
+      <c r="F329" s="28"/>
+      <c r="G329" s="28"/>
     </row>
     <row r="330" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F330" s="27"/>
-      <c r="G330" s="27"/>
+      <c r="F330" s="28"/>
+      <c r="G330" s="28"/>
     </row>
     <row r="331" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F331" s="27"/>
-      <c r="G331" s="27"/>
+      <c r="F331" s="28"/>
+      <c r="G331" s="28"/>
     </row>
     <row r="332" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F332" s="27"/>
-      <c r="G332" s="27"/>
+      <c r="F332" s="28"/>
+      <c r="G332" s="28"/>
     </row>
     <row r="333" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F333" s="27"/>
-      <c r="G333" s="27"/>
+      <c r="F333" s="28"/>
+      <c r="G333" s="28"/>
     </row>
     <row r="334" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F334" s="27"/>
-      <c r="G334" s="27"/>
+      <c r="F334" s="28"/>
+      <c r="G334" s="28"/>
     </row>
     <row r="335" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F335" s="27"/>
-      <c r="G335" s="27"/>
+      <c r="F335" s="28"/>
+      <c r="G335" s="28"/>
     </row>
     <row r="336" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F336" s="27"/>
-      <c r="G336" s="27"/>
+      <c r="F336" s="28"/>
+      <c r="G336" s="28"/>
     </row>
     <row r="337" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F337" s="27"/>
-      <c r="G337" s="27"/>
+      <c r="F337" s="28"/>
+      <c r="G337" s="28"/>
     </row>
     <row r="338" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F338" s="27"/>
-      <c r="G338" s="27"/>
+      <c r="F338" s="28"/>
+      <c r="G338" s="28"/>
     </row>
     <row r="339" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F339" s="27"/>
-      <c r="G339" s="27"/>
+      <c r="F339" s="28"/>
+      <c r="G339" s="28"/>
     </row>
     <row r="340" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F340" s="27"/>
-      <c r="G340" s="27"/>
+      <c r="F340" s="28"/>
+      <c r="G340" s="28"/>
     </row>
     <row r="341" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F341" s="27"/>
-      <c r="G341" s="27"/>
+      <c r="F341" s="28"/>
+      <c r="G341" s="28"/>
     </row>
     <row r="342" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F342" s="27"/>
-      <c r="G342" s="27"/>
+      <c r="F342" s="28"/>
+      <c r="G342" s="28"/>
     </row>
     <row r="343" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F343" s="27"/>
-      <c r="G343" s="27"/>
+      <c r="F343" s="28"/>
+      <c r="G343" s="28"/>
     </row>
     <row r="344" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F344" s="27"/>
-      <c r="G344" s="27"/>
+      <c r="F344" s="28"/>
+      <c r="G344" s="28"/>
     </row>
     <row r="345" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F345" s="27"/>
-      <c r="G345" s="27"/>
+      <c r="F345" s="28"/>
+      <c r="G345" s="28"/>
     </row>
     <row r="346" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F346" s="27"/>
-      <c r="G346" s="27"/>
+      <c r="F346" s="28"/>
+      <c r="G346" s="28"/>
     </row>
     <row r="347" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F347" s="27"/>
-      <c r="G347" s="27"/>
+      <c r="F347" s="28"/>
+      <c r="G347" s="28"/>
     </row>
     <row r="348" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F348" s="27"/>
-      <c r="G348" s="27"/>
+      <c r="F348" s="28"/>
+      <c r="G348" s="28"/>
     </row>
     <row r="349" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F349" s="27"/>
-      <c r="G349" s="27"/>
+      <c r="F349" s="28"/>
+      <c r="G349" s="28"/>
     </row>
     <row r="350" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F350" s="27"/>
-      <c r="G350" s="27"/>
+      <c r="F350" s="28"/>
+      <c r="G350" s="28"/>
     </row>
     <row r="351" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F351" s="27"/>
-      <c r="G351" s="27"/>
+      <c r="F351" s="28"/>
+      <c r="G351" s="28"/>
     </row>
     <row r="352" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F352" s="27"/>
-      <c r="G352" s="27"/>
+      <c r="F352" s="28"/>
+      <c r="G352" s="28"/>
     </row>
     <row r="353" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F353" s="27"/>
-      <c r="G353" s="27"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="28"/>
     </row>
     <row r="354" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F354" s="27"/>
-      <c r="G354" s="27"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="28"/>
     </row>
     <row r="355" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F355" s="27"/>
-      <c r="G355" s="27"/>
+      <c r="F355" s="28"/>
+      <c r="G355" s="28"/>
     </row>
     <row r="356" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F356" s="27"/>
-      <c r="G356" s="27"/>
+      <c r="F356" s="28"/>
+      <c r="G356" s="28"/>
     </row>
     <row r="357" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F357" s="27"/>
-      <c r="G357" s="27"/>
+      <c r="F357" s="28"/>
+      <c r="G357" s="28"/>
     </row>
     <row r="358" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F358" s="27"/>
-      <c r="G358" s="27"/>
+      <c r="F358" s="28"/>
+      <c r="G358" s="28"/>
     </row>
     <row r="359" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F359" s="27"/>
-      <c r="G359" s="27"/>
+      <c r="F359" s="28"/>
+      <c r="G359" s="28"/>
     </row>
     <row r="360" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F360" s="27"/>
-      <c r="G360" s="27"/>
+      <c r="F360" s="28"/>
+      <c r="G360" s="28"/>
     </row>
     <row r="361" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F361" s="27"/>
-      <c r="G361" s="27"/>
+      <c r="F361" s="28"/>
+      <c r="G361" s="28"/>
     </row>
     <row r="362" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F362" s="27"/>
-      <c r="G362" s="27"/>
+      <c r="F362" s="28"/>
+      <c r="G362" s="28"/>
     </row>
     <row r="363" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F363" s="27"/>
-      <c r="G363" s="27"/>
+      <c r="F363" s="28"/>
+      <c r="G363" s="28"/>
     </row>
     <row r="364" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F364" s="27"/>
-      <c r="G364" s="27"/>
+      <c r="F364" s="28"/>
+      <c r="G364" s="28"/>
     </row>
     <row r="365" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F365" s="27"/>
-      <c r="G365" s="27"/>
+      <c r="F365" s="28"/>
+      <c r="G365" s="28"/>
     </row>
     <row r="366" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F366" s="27"/>
-      <c r="G366" s="27"/>
+      <c r="F366" s="28"/>
+      <c r="G366" s="28"/>
     </row>
     <row r="367" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F367" s="27"/>
-      <c r="G367" s="27"/>
+      <c r="F367" s="28"/>
+      <c r="G367" s="28"/>
     </row>
     <row r="368" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F368" s="27"/>
-      <c r="G368" s="27"/>
+      <c r="F368" s="28"/>
+      <c r="G368" s="28"/>
     </row>
     <row r="369" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F369" s="27"/>
-      <c r="G369" s="27"/>
+      <c r="F369" s="28"/>
+      <c r="G369" s="28"/>
     </row>
     <row r="370" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F370" s="27"/>
-      <c r="G370" s="27"/>
+      <c r="F370" s="28"/>
+      <c r="G370" s="28"/>
     </row>
     <row r="371" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F371" s="27"/>
-      <c r="G371" s="27"/>
+      <c r="F371" s="28"/>
+      <c r="G371" s="28"/>
     </row>
     <row r="372" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F372" s="27"/>
-      <c r="G372" s="27"/>
+      <c r="F372" s="28"/>
+      <c r="G372" s="28"/>
     </row>
     <row r="373" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F373" s="27"/>
-      <c r="G373" s="27"/>
+      <c r="F373" s="28"/>
+      <c r="G373" s="28"/>
     </row>
     <row r="374" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F374" s="27"/>
-      <c r="G374" s="27"/>
+      <c r="F374" s="28"/>
+      <c r="G374" s="28"/>
     </row>
     <row r="375" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F375" s="27"/>
-      <c r="G375" s="27"/>
+      <c r="F375" s="28"/>
+      <c r="G375" s="28"/>
     </row>
     <row r="376" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F376" s="27"/>
-      <c r="G376" s="27"/>
+      <c r="F376" s="28"/>
+      <c r="G376" s="28"/>
     </row>
     <row r="377" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F377" s="27"/>
-      <c r="G377" s="27"/>
+      <c r="F377" s="28"/>
+      <c r="G377" s="28"/>
     </row>
     <row r="378" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F378" s="27"/>
-      <c r="G378" s="27"/>
+      <c r="F378" s="28"/>
+      <c r="G378" s="28"/>
     </row>
     <row r="379" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F379" s="27"/>
-      <c r="G379" s="27"/>
+      <c r="F379" s="28"/>
+      <c r="G379" s="28"/>
     </row>
     <row r="380" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F380" s="27"/>
-      <c r="G380" s="27"/>
+      <c r="F380" s="28"/>
+      <c r="G380" s="28"/>
     </row>
     <row r="381" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F381" s="27"/>
-      <c r="G381" s="27"/>
+      <c r="F381" s="28"/>
+      <c r="G381" s="28"/>
     </row>
     <row r="382" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F382" s="27"/>
-      <c r="G382" s="27"/>
+      <c r="F382" s="28"/>
+      <c r="G382" s="28"/>
     </row>
     <row r="383" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F383" s="27"/>
-      <c r="G383" s="27"/>
+      <c r="F383" s="28"/>
+      <c r="G383" s="28"/>
     </row>
     <row r="384" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F384" s="27"/>
-      <c r="G384" s="27"/>
+      <c r="F384" s="28"/>
+      <c r="G384" s="28"/>
     </row>
     <row r="385" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F385" s="27"/>
-      <c r="G385" s="27"/>
+      <c r="F385" s="28"/>
+      <c r="G385" s="28"/>
     </row>
     <row r="386" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F386" s="27"/>
-      <c r="G386" s="27"/>
+      <c r="F386" s="28"/>
+      <c r="G386" s="28"/>
     </row>
     <row r="387" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F387" s="27"/>
-      <c r="G387" s="27"/>
+      <c r="F387" s="28"/>
+      <c r="G387" s="28"/>
     </row>
     <row r="388" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F388" s="27"/>
-      <c r="G388" s="27"/>
+      <c r="F388" s="28"/>
+      <c r="G388" s="28"/>
     </row>
     <row r="389" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F389" s="27"/>
-      <c r="G389" s="27"/>
+      <c r="F389" s="28"/>
+      <c r="G389" s="28"/>
     </row>
     <row r="390" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F390" s="27"/>
-      <c r="G390" s="27"/>
+      <c r="F390" s="28"/>
+      <c r="G390" s="28"/>
     </row>
     <row r="391" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F391" s="27"/>
-      <c r="G391" s="27"/>
+      <c r="F391" s="28"/>
+      <c r="G391" s="28"/>
     </row>
     <row r="392" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F392" s="27"/>
-      <c r="G392" s="27"/>
+      <c r="F392" s="28"/>
+      <c r="G392" s="28"/>
     </row>
     <row r="393" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F393" s="27"/>
-      <c r="G393" s="27"/>
+      <c r="F393" s="28"/>
+      <c r="G393" s="28"/>
     </row>
     <row r="394" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F394" s="27"/>
-      <c r="G394" s="27"/>
+      <c r="F394" s="28"/>
+      <c r="G394" s="28"/>
     </row>
     <row r="395" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F395" s="27"/>
-      <c r="G395" s="27"/>
+      <c r="F395" s="28"/>
+      <c r="G395" s="28"/>
     </row>
     <row r="396" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F396" s="27"/>
-      <c r="G396" s="27"/>
+      <c r="F396" s="28"/>
+      <c r="G396" s="28"/>
     </row>
     <row r="397" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F397" s="27"/>
-      <c r="G397" s="27"/>
+      <c r="F397" s="28"/>
+      <c r="G397" s="28"/>
     </row>
     <row r="398" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F398" s="27"/>
-      <c r="G398" s="27"/>
+      <c r="F398" s="28"/>
+      <c r="G398" s="28"/>
     </row>
     <row r="399" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F399" s="27"/>
-      <c r="G399" s="27"/>
+      <c r="F399" s="28"/>
+      <c r="G399" s="28"/>
     </row>
     <row r="400" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F400" s="27"/>
-      <c r="G400" s="27"/>
+      <c r="F400" s="28"/>
+      <c r="G400" s="28"/>
     </row>
     <row r="401" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F401" s="27"/>
-      <c r="G401" s="27"/>
+      <c r="F401" s="28"/>
+      <c r="G401" s="28"/>
     </row>
     <row r="402" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F402" s="27"/>
-      <c r="G402" s="27"/>
+      <c r="F402" s="28"/>
+      <c r="G402" s="28"/>
     </row>
     <row r="403" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F403" s="27"/>
-      <c r="G403" s="27"/>
+      <c r="F403" s="28"/>
+      <c r="G403" s="28"/>
     </row>
     <row r="404" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F404" s="27"/>
-      <c r="G404" s="27"/>
+      <c r="F404" s="28"/>
+      <c r="G404" s="28"/>
     </row>
     <row r="405" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F405" s="27"/>
-      <c r="G405" s="27"/>
+      <c r="F405" s="28"/>
+      <c r="G405" s="28"/>
     </row>
     <row r="406" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F406" s="27"/>
-      <c r="G406" s="27"/>
+      <c r="F406" s="28"/>
+      <c r="G406" s="28"/>
     </row>
     <row r="407" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F407" s="27"/>
-      <c r="G407" s="27"/>
+      <c r="F407" s="28"/>
+      <c r="G407" s="28"/>
     </row>
     <row r="408" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F408" s="27"/>
-      <c r="G408" s="27"/>
+      <c r="F408" s="28"/>
+      <c r="G408" s="28"/>
     </row>
     <row r="409" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F409" s="27"/>
-      <c r="G409" s="27"/>
+      <c r="F409" s="28"/>
+      <c r="G409" s="28"/>
     </row>
     <row r="410" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F410" s="27"/>
-      <c r="G410" s="27"/>
+      <c r="F410" s="28"/>
+      <c r="G410" s="28"/>
     </row>
     <row r="411" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F411" s="27"/>
-      <c r="G411" s="27"/>
+      <c r="F411" s="28"/>
+      <c r="G411" s="28"/>
     </row>
     <row r="412" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F412" s="27"/>
-      <c r="G412" s="27"/>
+      <c r="F412" s="28"/>
+      <c r="G412" s="28"/>
     </row>
     <row r="413" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F413" s="27"/>
-      <c r="G413" s="27"/>
+      <c r="F413" s="28"/>
+      <c r="G413" s="28"/>
     </row>
     <row r="414" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F414" s="27"/>
-      <c r="G414" s="27"/>
+      <c r="F414" s="28"/>
+      <c r="G414" s="28"/>
     </row>
     <row r="415" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F415" s="27"/>
-      <c r="G415" s="27"/>
+      <c r="F415" s="28"/>
+      <c r="G415" s="28"/>
     </row>
     <row r="416" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F416" s="27"/>
-      <c r="G416" s="27"/>
+      <c r="F416" s="28"/>
+      <c r="G416" s="28"/>
     </row>
     <row r="417" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F417" s="27"/>
-      <c r="G417" s="27"/>
+      <c r="F417" s="28"/>
+      <c r="G417" s="28"/>
     </row>
     <row r="418" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F418" s="27"/>
-      <c r="G418" s="27"/>
+      <c r="F418" s="28"/>
+      <c r="G418" s="28"/>
     </row>
     <row r="419" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F419" s="27"/>
-      <c r="G419" s="27"/>
+      <c r="F419" s="28"/>
+      <c r="G419" s="28"/>
     </row>
     <row r="420" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F420" s="27"/>
-      <c r="G420" s="27"/>
+      <c r="F420" s="28"/>
+      <c r="G420" s="28"/>
     </row>
     <row r="421" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F421" s="27"/>
-      <c r="G421" s="27"/>
+      <c r="F421" s="28"/>
+      <c r="G421" s="28"/>
     </row>
     <row r="422" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F422" s="27"/>
-      <c r="G422" s="27"/>
+      <c r="F422" s="28"/>
+      <c r="G422" s="28"/>
     </row>
     <row r="423" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F423" s="27"/>
-      <c r="G423" s="27"/>
+      <c r="F423" s="28"/>
+      <c r="G423" s="28"/>
     </row>
     <row r="424" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F424" s="27"/>
-      <c r="G424" s="27"/>
+      <c r="F424" s="28"/>
+      <c r="G424" s="28"/>
     </row>
     <row r="425" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F425" s="27"/>
-      <c r="G425" s="27"/>
+      <c r="F425" s="28"/>
+      <c r="G425" s="28"/>
     </row>
     <row r="426" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F426" s="27"/>
-      <c r="G426" s="27"/>
+      <c r="F426" s="28"/>
+      <c r="G426" s="28"/>
     </row>
     <row r="427" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F427" s="27"/>
-      <c r="G427" s="27"/>
+      <c r="F427" s="28"/>
+      <c r="G427" s="28"/>
     </row>
     <row r="428" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F428" s="27"/>
-      <c r="G428" s="27"/>
+      <c r="F428" s="28"/>
+      <c r="G428" s="28"/>
     </row>
     <row r="429" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F429" s="27"/>
-      <c r="G429" s="27"/>
+      <c r="F429" s="28"/>
+      <c r="G429" s="28"/>
     </row>
     <row r="430" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F430" s="27"/>
-      <c r="G430" s="27"/>
+      <c r="F430" s="28"/>
+      <c r="G430" s="28"/>
     </row>
     <row r="431" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F431" s="27"/>
-      <c r="G431" s="27"/>
+      <c r="F431" s="28"/>
+      <c r="G431" s="28"/>
     </row>
     <row r="432" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F432" s="27"/>
-      <c r="G432" s="27"/>
+      <c r="F432" s="28"/>
+      <c r="G432" s="28"/>
     </row>
     <row r="433" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F433" s="27"/>
-      <c r="G433" s="27"/>
+      <c r="F433" s="28"/>
+      <c r="G433" s="28"/>
     </row>
     <row r="434" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F434" s="27"/>
-      <c r="G434" s="27"/>
+      <c r="F434" s="28"/>
+      <c r="G434" s="28"/>
     </row>
     <row r="435" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F435" s="27"/>
-      <c r="G435" s="27"/>
+      <c r="F435" s="28"/>
+      <c r="G435" s="28"/>
     </row>
     <row r="436" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F436" s="27"/>
-      <c r="G436" s="27"/>
+      <c r="F436" s="28"/>
+      <c r="G436" s="28"/>
     </row>
     <row r="437" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F437" s="27"/>
-      <c r="G437" s="27"/>
+      <c r="F437" s="28"/>
+      <c r="G437" s="28"/>
     </row>
     <row r="438" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F438" s="27"/>
-      <c r="G438" s="27"/>
+      <c r="F438" s="28"/>
+      <c r="G438" s="28"/>
     </row>
     <row r="439" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F439" s="27"/>
-      <c r="G439" s="27"/>
+      <c r="F439" s="28"/>
+      <c r="G439" s="28"/>
     </row>
     <row r="440" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F440" s="27"/>
-      <c r="G440" s="27"/>
+      <c r="F440" s="28"/>
+      <c r="G440" s="28"/>
     </row>
     <row r="441" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F441" s="27"/>
-      <c r="G441" s="27"/>
+      <c r="F441" s="28"/>
+      <c r="G441" s="28"/>
     </row>
     <row r="442" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F442" s="27"/>
-      <c r="G442" s="27"/>
+      <c r="F442" s="28"/>
+      <c r="G442" s="28"/>
     </row>
     <row r="443" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F443" s="27"/>
-      <c r="G443" s="27"/>
+      <c r="F443" s="28"/>
+      <c r="G443" s="28"/>
     </row>
     <row r="444" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F444" s="27"/>
-      <c r="G444" s="27"/>
+      <c r="F444" s="28"/>
+      <c r="G444" s="28"/>
     </row>
     <row r="445" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F445" s="27"/>
-      <c r="G445" s="27"/>
+      <c r="F445" s="28"/>
+      <c r="G445" s="28"/>
     </row>
     <row r="446" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F446" s="27"/>
-      <c r="G446" s="27"/>
+      <c r="F446" s="28"/>
+      <c r="G446" s="28"/>
     </row>
     <row r="447" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F447" s="27"/>
-      <c r="G447" s="27"/>
+      <c r="F447" s="28"/>
+      <c r="G447" s="28"/>
     </row>
     <row r="448" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F448" s="27"/>
-      <c r="G448" s="27"/>
+      <c r="F448" s="28"/>
+      <c r="G448" s="28"/>
     </row>
     <row r="449" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F449" s="27"/>
-      <c r="G449" s="27"/>
+      <c r="F449" s="28"/>
+      <c r="G449" s="28"/>
     </row>
     <row r="450" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F450" s="27"/>
-      <c r="G450" s="27"/>
+      <c r="F450" s="28"/>
+      <c r="G450" s="28"/>
     </row>
     <row r="451" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F451" s="27"/>
-      <c r="G451" s="27"/>
+      <c r="F451" s="28"/>
+      <c r="G451" s="28"/>
     </row>
     <row r="452" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F452" s="27"/>
-      <c r="G452" s="27"/>
+      <c r="F452" s="28"/>
+      <c r="G452" s="28"/>
     </row>
     <row r="453" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F453" s="27"/>
-      <c r="G453" s="27"/>
+      <c r="F453" s="28"/>
+      <c r="G453" s="28"/>
     </row>
     <row r="454" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F454" s="27"/>
-      <c r="G454" s="27"/>
+      <c r="F454" s="28"/>
+      <c r="G454" s="28"/>
     </row>
     <row r="455" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F455" s="27"/>
-      <c r="G455" s="27"/>
+      <c r="F455" s="28"/>
+      <c r="G455" s="28"/>
     </row>
     <row r="456" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F456" s="27"/>
-      <c r="G456" s="27"/>
+      <c r="F456" s="28"/>
+      <c r="G456" s="28"/>
     </row>
     <row r="457" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F457" s="27"/>
-      <c r="G457" s="27"/>
+      <c r="F457" s="28"/>
+      <c r="G457" s="28"/>
     </row>
     <row r="458" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F458" s="27"/>
-      <c r="G458" s="27"/>
+      <c r="F458" s="28"/>
+      <c r="G458" s="28"/>
     </row>
     <row r="459" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F459" s="27"/>
-      <c r="G459" s="27"/>
+      <c r="F459" s="28"/>
+      <c r="G459" s="28"/>
     </row>
     <row r="460" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F460" s="27"/>
-      <c r="G460" s="27"/>
+      <c r="F460" s="28"/>
+      <c r="G460" s="28"/>
     </row>
     <row r="461" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F461" s="27"/>
-      <c r="G461" s="27"/>
+      <c r="F461" s="28"/>
+      <c r="G461" s="28"/>
     </row>
     <row r="462" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F462" s="27"/>
-      <c r="G462" s="27"/>
+      <c r="F462" s="28"/>
+      <c r="G462" s="28"/>
     </row>
     <row r="463" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F463" s="27"/>
-      <c r="G463" s="27"/>
+      <c r="F463" s="28"/>
+      <c r="G463" s="28"/>
     </row>
     <row r="464" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F464" s="27"/>
-      <c r="G464" s="27"/>
+      <c r="F464" s="28"/>
+      <c r="G464" s="28"/>
     </row>
     <row r="465" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F465" s="27"/>
-      <c r="G465" s="27"/>
+      <c r="F465" s="28"/>
+      <c r="G465" s="28"/>
     </row>
     <row r="466" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F466" s="27"/>
-      <c r="G466" s="27"/>
+      <c r="F466" s="28"/>
+      <c r="G466" s="28"/>
     </row>
     <row r="467" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F467" s="27"/>
-      <c r="G467" s="27"/>
+      <c r="F467" s="28"/>
+      <c r="G467" s="28"/>
     </row>
     <row r="468" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F468" s="27"/>
-      <c r="G468" s="27"/>
+      <c r="F468" s="28"/>
+      <c r="G468" s="28"/>
     </row>
     <row r="469" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F469" s="27"/>
-      <c r="G469" s="27"/>
+      <c r="F469" s="28"/>
+      <c r="G469" s="28"/>
     </row>
     <row r="470" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F470" s="27"/>
-      <c r="G470" s="27"/>
+      <c r="F470" s="28"/>
+      <c r="G470" s="28"/>
     </row>
     <row r="471" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F471" s="27"/>
-      <c r="G471" s="27"/>
+      <c r="F471" s="28"/>
+      <c r="G471" s="28"/>
     </row>
     <row r="472" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F472" s="27"/>
-      <c r="G472" s="27"/>
+      <c r="F472" s="28"/>
+      <c r="G472" s="28"/>
     </row>
     <row r="473" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F473" s="27"/>
-      <c r="G473" s="27"/>
+      <c r="F473" s="28"/>
+      <c r="G473" s="28"/>
     </row>
     <row r="474" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F474" s="27"/>
-      <c r="G474" s="27"/>
+      <c r="F474" s="28"/>
+      <c r="G474" s="28"/>
     </row>
     <row r="475" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F475" s="27"/>
-      <c r="G475" s="27"/>
+      <c r="F475" s="28"/>
+      <c r="G475" s="28"/>
     </row>
     <row r="476" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F476" s="27"/>
-      <c r="G476" s="27"/>
+      <c r="F476" s="28"/>
+      <c r="G476" s="28"/>
     </row>
     <row r="477" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F477" s="27"/>
-      <c r="G477" s="27"/>
+      <c r="F477" s="28"/>
+      <c r="G477" s="28"/>
     </row>
     <row r="478" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F478" s="27"/>
-      <c r="G478" s="27"/>
+      <c r="F478" s="28"/>
+      <c r="G478" s="28"/>
     </row>
     <row r="479" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F479" s="27"/>
-      <c r="G479" s="27"/>
+      <c r="F479" s="28"/>
+      <c r="G479" s="28"/>
     </row>
     <row r="480" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F480" s="27"/>
-      <c r="G480" s="27"/>
+      <c r="F480" s="28"/>
+      <c r="G480" s="28"/>
     </row>
     <row r="481" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F481" s="27"/>
-      <c r="G481" s="27"/>
+      <c r="F481" s="28"/>
+      <c r="G481" s="28"/>
     </row>
     <row r="482" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F482" s="27"/>
-      <c r="G482" s="27"/>
+      <c r="F482" s="28"/>
+      <c r="G482" s="28"/>
     </row>
     <row r="483" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F483" s="27"/>
-      <c r="G483" s="27"/>
+      <c r="F483" s="28"/>
+      <c r="G483" s="28"/>
     </row>
     <row r="484" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F484" s="27"/>
-      <c r="G484" s="27"/>
+      <c r="F484" s="28"/>
+      <c r="G484" s="28"/>
     </row>
     <row r="485" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F485" s="27"/>
-      <c r="G485" s="27"/>
+      <c r="F485" s="28"/>
+      <c r="G485" s="28"/>
     </row>
     <row r="486" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F486" s="27"/>
-      <c r="G486" s="27"/>
+      <c r="F486" s="28"/>
+      <c r="G486" s="28"/>
     </row>
     <row r="487" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F487" s="27"/>
-      <c r="G487" s="27"/>
+      <c r="F487" s="28"/>
+      <c r="G487" s="28"/>
     </row>
     <row r="488" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F488" s="27"/>
-      <c r="G488" s="27"/>
+      <c r="F488" s="28"/>
+      <c r="G488" s="28"/>
     </row>
     <row r="489" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F489" s="27"/>
-      <c r="G489" s="27"/>
+      <c r="F489" s="28"/>
+      <c r="G489" s="28"/>
     </row>
     <row r="490" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F490" s="27"/>
-      <c r="G490" s="27"/>
+      <c r="F490" s="28"/>
+      <c r="G490" s="28"/>
     </row>
     <row r="491" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F491" s="27"/>
-      <c r="G491" s="27"/>
+      <c r="F491" s="28"/>
+      <c r="G491" s="28"/>
     </row>
     <row r="492" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F492" s="27"/>
-      <c r="G492" s="27"/>
+      <c r="F492" s="28"/>
+      <c r="G492" s="28"/>
     </row>
     <row r="493" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F493" s="27"/>
-      <c r="G493" s="27"/>
+      <c r="F493" s="28"/>
+      <c r="G493" s="28"/>
     </row>
     <row r="494" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F494" s="27"/>
-      <c r="G494" s="27"/>
+      <c r="F494" s="28"/>
+      <c r="G494" s="28"/>
     </row>
     <row r="495" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F495" s="27"/>
-      <c r="G495" s="27"/>
+      <c r="F495" s="28"/>
+      <c r="G495" s="28"/>
     </row>
     <row r="496" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F496" s="27"/>
-      <c r="G496" s="27"/>
+      <c r="F496" s="28"/>
+      <c r="G496" s="28"/>
     </row>
     <row r="497" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F497" s="27"/>
-      <c r="G497" s="27"/>
+      <c r="F497" s="28"/>
+      <c r="G497" s="28"/>
     </row>
     <row r="498" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F498" s="27"/>
-      <c r="G498" s="27"/>
+      <c r="F498" s="28"/>
+      <c r="G498" s="28"/>
     </row>
     <row r="499" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F499" s="27"/>
-      <c r="G499" s="27"/>
+      <c r="F499" s="28"/>
+      <c r="G499" s="28"/>
     </row>
     <row r="500" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F500" s="27"/>
-      <c r="G500" s="27"/>
+      <c r="F500" s="28"/>
+      <c r="G500" s="28"/>
     </row>
     <row r="501" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F501" s="27"/>
-      <c r="G501" s="27"/>
+      <c r="F501" s="28"/>
+      <c r="G501" s="28"/>
     </row>
     <row r="502" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F502" s="27"/>
-      <c r="G502" s="27"/>
+      <c r="F502" s="28"/>
+      <c r="G502" s="28"/>
     </row>
     <row r="503" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F503" s="27"/>
-      <c r="G503" s="27"/>
+      <c r="F503" s="28"/>
+      <c r="G503" s="28"/>
     </row>
     <row r="504" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F504" s="27"/>
-      <c r="G504" s="27"/>
+      <c r="F504" s="28"/>
+      <c r="G504" s="28"/>
     </row>
     <row r="505" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F505" s="27"/>
-      <c r="G505" s="27"/>
+      <c r="F505" s="28"/>
+      <c r="G505" s="28"/>
     </row>
     <row r="506" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F506" s="27"/>
-      <c r="G506" s="27"/>
+      <c r="F506" s="28"/>
+      <c r="G506" s="28"/>
     </row>
     <row r="507" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F507" s="27"/>
-      <c r="G507" s="27"/>
+      <c r="F507" s="28"/>
+      <c r="G507" s="28"/>
     </row>
     <row r="508" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F508" s="27"/>
-      <c r="G508" s="27"/>
+      <c r="F508" s="28"/>
+      <c r="G508" s="28"/>
     </row>
     <row r="509" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F509" s="27"/>
-      <c r="G509" s="27"/>
+      <c r="F509" s="28"/>
+      <c r="G509" s="28"/>
     </row>
     <row r="510" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F510" s="27"/>
-      <c r="G510" s="27"/>
+      <c r="F510" s="28"/>
+      <c r="G510" s="28"/>
     </row>
     <row r="511" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F511" s="27"/>
-      <c r="G511" s="27"/>
+      <c r="F511" s="28"/>
+      <c r="G511" s="28"/>
     </row>
     <row r="512" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F512" s="27"/>
-      <c r="G512" s="27"/>
+      <c r="F512" s="28"/>
+      <c r="G512" s="28"/>
     </row>
     <row r="513" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F513" s="27"/>
-      <c r="G513" s="27"/>
+      <c r="F513" s="28"/>
+      <c r="G513" s="28"/>
     </row>
     <row r="514" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F514" s="27"/>
-      <c r="G514" s="27"/>
+      <c r="F514" s="28"/>
+      <c r="G514" s="28"/>
     </row>
     <row r="515" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F515" s="27"/>
-      <c r="G515" s="27"/>
+      <c r="F515" s="28"/>
+      <c r="G515" s="28"/>
     </row>
     <row r="516" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F516" s="27"/>
-      <c r="G516" s="27"/>
+      <c r="F516" s="28"/>
+      <c r="G516" s="28"/>
     </row>
     <row r="517" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F517" s="27"/>
-      <c r="G517" s="27"/>
+      <c r="F517" s="28"/>
+      <c r="G517" s="28"/>
     </row>
     <row r="518" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F518" s="27"/>
-      <c r="G518" s="27"/>
+      <c r="F518" s="28"/>
+      <c r="G518" s="28"/>
     </row>
     <row r="519" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F519" s="27"/>
-      <c r="G519" s="27"/>
+      <c r="F519" s="28"/>
+      <c r="G519" s="28"/>
     </row>
     <row r="520" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F520" s="27"/>
-      <c r="G520" s="27"/>
+      <c r="F520" s="28"/>
+      <c r="G520" s="28"/>
     </row>
     <row r="521" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F521" s="27"/>
-      <c r="G521" s="27"/>
+      <c r="F521" s="28"/>
+      <c r="G521" s="28"/>
     </row>
     <row r="522" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F522" s="27"/>
-      <c r="G522" s="27"/>
+      <c r="F522" s="28"/>
+      <c r="G522" s="28"/>
     </row>
     <row r="523" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F523" s="27"/>
-      <c r="G523" s="27"/>
+      <c r="F523" s="28"/>
+      <c r="G523" s="28"/>
     </row>
     <row r="524" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F524" s="27"/>
-      <c r="G524" s="27"/>
+      <c r="F524" s="28"/>
+      <c r="G524" s="28"/>
     </row>
     <row r="525" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F525" s="27"/>
-      <c r="G525" s="27"/>
+      <c r="F525" s="28"/>
+      <c r="G525" s="28"/>
     </row>
     <row r="526" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F526" s="27"/>
-      <c r="G526" s="27"/>
+      <c r="F526" s="28"/>
+      <c r="G526" s="28"/>
     </row>
     <row r="527" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F527" s="27"/>
-      <c r="G527" s="27"/>
+      <c r="F527" s="28"/>
+      <c r="G527" s="28"/>
     </row>
     <row r="528" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F528" s="27"/>
-      <c r="G528" s="27"/>
+      <c r="F528" s="28"/>
+      <c r="G528" s="28"/>
     </row>
     <row r="529" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F529" s="27"/>
-      <c r="G529" s="27"/>
+      <c r="F529" s="28"/>
+      <c r="G529" s="28"/>
     </row>
     <row r="530" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F530" s="27"/>
-      <c r="G530" s="27"/>
+      <c r="F530" s="28"/>
+      <c r="G530" s="28"/>
     </row>
     <row r="531" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F531" s="27"/>
-      <c r="G531" s="27"/>
+      <c r="F531" s="28"/>
+      <c r="G531" s="28"/>
     </row>
     <row r="532" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F532" s="27"/>
-      <c r="G532" s="27"/>
+      <c r="F532" s="28"/>
+      <c r="G532" s="28"/>
     </row>
     <row r="533" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F533" s="27"/>
-      <c r="G533" s="27"/>
+      <c r="F533" s="28"/>
+      <c r="G533" s="28"/>
     </row>
     <row r="534" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F534" s="27"/>
-      <c r="G534" s="27"/>
+      <c r="F534" s="28"/>
+      <c r="G534" s="28"/>
     </row>
     <row r="535" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F535" s="27"/>
-      <c r="G535" s="27"/>
+      <c r="F535" s="28"/>
+      <c r="G535" s="28"/>
     </row>
     <row r="536" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F536" s="27"/>
-      <c r="G536" s="27"/>
+      <c r="F536" s="28"/>
+      <c r="G536" s="28"/>
     </row>
     <row r="537" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F537" s="27"/>
-      <c r="G537" s="27"/>
+      <c r="F537" s="28"/>
+      <c r="G537" s="28"/>
     </row>
     <row r="538" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F538" s="27"/>
-      <c r="G538" s="27"/>
+      <c r="F538" s="28"/>
+      <c r="G538" s="28"/>
     </row>
     <row r="539" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F539" s="27"/>
-      <c r="G539" s="27"/>
+      <c r="F539" s="28"/>
+      <c r="G539" s="28"/>
     </row>
     <row r="540" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F540" s="27"/>
-      <c r="G540" s="27"/>
+      <c r="F540" s="28"/>
+      <c r="G540" s="28"/>
     </row>
     <row r="541" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F541" s="27"/>
-      <c r="G541" s="27"/>
+      <c r="F541" s="28"/>
+      <c r="G541" s="28"/>
     </row>
     <row r="542" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F542" s="27"/>
-      <c r="G542" s="27"/>
+      <c r="F542" s="28"/>
+      <c r="G542" s="28"/>
     </row>
     <row r="543" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F543" s="27"/>
-      <c r="G543" s="27"/>
+      <c r="F543" s="28"/>
+      <c r="G543" s="28"/>
     </row>
     <row r="544" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F544" s="27"/>
-      <c r="G544" s="27"/>
+      <c r="F544" s="28"/>
+      <c r="G544" s="28"/>
     </row>
     <row r="545" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F545" s="27"/>
-      <c r="G545" s="27"/>
+      <c r="F545" s="28"/>
+      <c r="G545" s="28"/>
     </row>
     <row r="546" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F546" s="27"/>
-      <c r="G546" s="27"/>
+      <c r="F546" s="28"/>
+      <c r="G546" s="28"/>
     </row>
     <row r="547" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F547" s="27"/>
-      <c r="G547" s="27"/>
+      <c r="F547" s="28"/>
+      <c r="G547" s="28"/>
     </row>
     <row r="548" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F548" s="27"/>
-      <c r="G548" s="27"/>
+      <c r="F548" s="28"/>
+      <c r="G548" s="28"/>
     </row>
     <row r="549" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F549" s="27"/>
-      <c r="G549" s="27"/>
+      <c r="F549" s="28"/>
+      <c r="G549" s="28"/>
     </row>
     <row r="550" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F550" s="27"/>
-      <c r="G550" s="27"/>
+      <c r="F550" s="28"/>
+      <c r="G550" s="28"/>
     </row>
     <row r="551" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F551" s="27"/>
-      <c r="G551" s="27"/>
+      <c r="F551" s="28"/>
+      <c r="G551" s="28"/>
     </row>
     <row r="552" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F552" s="27"/>
-      <c r="G552" s="27"/>
+      <c r="F552" s="28"/>
+      <c r="G552" s="28"/>
     </row>
     <row r="553" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F553" s="27"/>
-      <c r="G553" s="27"/>
+      <c r="F553" s="28"/>
+      <c r="G553" s="28"/>
     </row>
     <row r="554" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F554" s="27"/>
-      <c r="G554" s="27"/>
+      <c r="F554" s="28"/>
+      <c r="G554" s="28"/>
     </row>
     <row r="555" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F555" s="27"/>
-      <c r="G555" s="27"/>
+      <c r="F555" s="28"/>
+      <c r="G555" s="28"/>
     </row>
     <row r="556" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F556" s="27"/>
-      <c r="G556" s="27"/>
+      <c r="F556" s="28"/>
+      <c r="G556" s="28"/>
     </row>
     <row r="557" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F557" s="27"/>
-      <c r="G557" s="27"/>
+      <c r="F557" s="28"/>
+      <c r="G557" s="28"/>
     </row>
     <row r="558" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F558" s="27"/>
-      <c r="G558" s="27"/>
+      <c r="F558" s="28"/>
+      <c r="G558" s="28"/>
     </row>
     <row r="559" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F559" s="27"/>
-      <c r="G559" s="27"/>
+      <c r="F559" s="28"/>
+      <c r="G559" s="28"/>
     </row>
     <row r="560" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F560" s="27"/>
-      <c r="G560" s="27"/>
+      <c r="F560" s="28"/>
+      <c r="G560" s="28"/>
     </row>
     <row r="561" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F561" s="27"/>
-      <c r="G561" s="27"/>
+      <c r="F561" s="28"/>
+      <c r="G561" s="28"/>
     </row>
     <row r="562" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F562" s="27"/>
-      <c r="G562" s="27"/>
+      <c r="F562" s="28"/>
+      <c r="G562" s="28"/>
     </row>
     <row r="563" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F563" s="27"/>
-      <c r="G563" s="27"/>
+      <c r="F563" s="28"/>
+      <c r="G563" s="28"/>
     </row>
     <row r="564" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F564" s="27"/>
-      <c r="G564" s="27"/>
+      <c r="F564" s="28"/>
+      <c r="G564" s="28"/>
     </row>
     <row r="565" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F565" s="27"/>
-      <c r="G565" s="27"/>
+      <c r="F565" s="28"/>
+      <c r="G565" s="28"/>
     </row>
     <row r="566" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F566" s="27"/>
-      <c r="G566" s="27"/>
+      <c r="F566" s="28"/>
+      <c r="G566" s="28"/>
     </row>
     <row r="567" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F567" s="27"/>
-      <c r="G567" s="27"/>
+      <c r="F567" s="28"/>
+      <c r="G567" s="28"/>
     </row>
     <row r="568" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F568" s="27"/>
-      <c r="G568" s="27"/>
+      <c r="F568" s="28"/>
+      <c r="G568" s="28"/>
     </row>
     <row r="569" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F569" s="27"/>
-      <c r="G569" s="27"/>
+      <c r="F569" s="28"/>
+      <c r="G569" s="28"/>
     </row>
     <row r="570" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F570" s="27"/>
-      <c r="G570" s="27"/>
+      <c r="F570" s="28"/>
+      <c r="G570" s="28"/>
     </row>
     <row r="571" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F571" s="27"/>
-      <c r="G571" s="27"/>
+      <c r="F571" s="28"/>
+      <c r="G571" s="28"/>
     </row>
     <row r="572" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F572" s="27"/>
-      <c r="G572" s="27"/>
+      <c r="F572" s="28"/>
+      <c r="G572" s="28"/>
     </row>
     <row r="573" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F573" s="27"/>
-      <c r="G573" s="27"/>
+      <c r="F573" s="28"/>
+      <c r="G573" s="28"/>
     </row>
     <row r="574" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F574" s="27"/>
-      <c r="G574" s="27"/>
+      <c r="F574" s="28"/>
+      <c r="G574" s="28"/>
     </row>
     <row r="575" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F575" s="27"/>
-      <c r="G575" s="27"/>
+      <c r="F575" s="28"/>
+      <c r="G575" s="28"/>
     </row>
     <row r="576" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F576" s="27"/>
-      <c r="G576" s="27"/>
+      <c r="F576" s="28"/>
+      <c r="G576" s="28"/>
     </row>
     <row r="577" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F577" s="27"/>
-      <c r="G577" s="27"/>
+      <c r="F577" s="28"/>
+      <c r="G577" s="28"/>
     </row>
     <row r="578" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F578" s="27"/>
-      <c r="G578" s="27"/>
+      <c r="F578" s="28"/>
+      <c r="G578" s="28"/>
     </row>
     <row r="579" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F579" s="27"/>
-      <c r="G579" s="27"/>
+      <c r="F579" s="28"/>
+      <c r="G579" s="28"/>
     </row>
     <row r="580" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F580" s="27"/>
-      <c r="G580" s="27"/>
+      <c r="F580" s="28"/>
+      <c r="G580" s="28"/>
     </row>
     <row r="581" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F581" s="27"/>
-      <c r="G581" s="27"/>
+      <c r="F581" s="28"/>
+      <c r="G581" s="28"/>
     </row>
     <row r="582" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F582" s="27"/>
-      <c r="G582" s="27"/>
+      <c r="F582" s="28"/>
+      <c r="G582" s="28"/>
     </row>
     <row r="583" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F583" s="27"/>
-      <c r="G583" s="27"/>
+      <c r="F583" s="28"/>
+      <c r="G583" s="28"/>
     </row>
     <row r="584" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F584" s="27"/>
-      <c r="G584" s="27"/>
+      <c r="F584" s="28"/>
+      <c r="G584" s="28"/>
     </row>
     <row r="585" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F585" s="27"/>
-      <c r="G585" s="27"/>
+      <c r="F585" s="28"/>
+      <c r="G585" s="28"/>
     </row>
     <row r="586" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F586" s="27"/>
-      <c r="G586" s="27"/>
+      <c r="F586" s="28"/>
+      <c r="G586" s="28"/>
     </row>
     <row r="587" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F587" s="27"/>
-      <c r="G587" s="27"/>
+      <c r="F587" s="28"/>
+      <c r="G587" s="28"/>
     </row>
     <row r="588" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F588" s="27"/>
-      <c r="G588" s="27"/>
+      <c r="F588" s="28"/>
+      <c r="G588" s="28"/>
     </row>
     <row r="589" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F589" s="27"/>
-      <c r="G589" s="27"/>
+      <c r="F589" s="28"/>
+      <c r="G589" s="28"/>
     </row>
     <row r="590" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F590" s="27"/>
-      <c r="G590" s="27"/>
+      <c r="F590" s="28"/>
+      <c r="G590" s="28"/>
     </row>
     <row r="591" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F591" s="27"/>
-      <c r="G591" s="27"/>
+      <c r="F591" s="28"/>
+      <c r="G591" s="28"/>
     </row>
     <row r="592" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F592" s="27"/>
-      <c r="G592" s="27"/>
+      <c r="F592" s="28"/>
+      <c r="G592" s="28"/>
     </row>
     <row r="593" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F593" s="27"/>
-      <c r="G593" s="27"/>
+      <c r="F593" s="28"/>
+      <c r="G593" s="28"/>
     </row>
     <row r="594" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F594" s="27"/>
-      <c r="G594" s="27"/>
+      <c r="F594" s="28"/>
+      <c r="G594" s="28"/>
     </row>
     <row r="595" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F595" s="27"/>
-      <c r="G595" s="27"/>
+      <c r="F595" s="28"/>
+      <c r="G595" s="28"/>
     </row>
     <row r="596" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F596" s="27"/>
-      <c r="G596" s="27"/>
+      <c r="F596" s="28"/>
+      <c r="G596" s="28"/>
     </row>
     <row r="597" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F597" s="27"/>
-      <c r="G597" s="27"/>
+      <c r="F597" s="28"/>
+      <c r="G597" s="28"/>
     </row>
     <row r="598" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F598" s="27"/>
-      <c r="G598" s="27"/>
+      <c r="F598" s="28"/>
+      <c r="G598" s="28"/>
     </row>
     <row r="599" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F599" s="27"/>
-      <c r="G599" s="27"/>
+      <c r="F599" s="28"/>
+      <c r="G599" s="28"/>
     </row>
     <row r="600" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F600" s="27"/>
-      <c r="G600" s="27"/>
+      <c r="F600" s="28"/>
+      <c r="G600" s="28"/>
     </row>
     <row r="601" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F601" s="27"/>
-      <c r="G601" s="27"/>
+      <c r="F601" s="28"/>
+      <c r="G601" s="28"/>
     </row>
     <row r="602" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F602" s="27"/>
-      <c r="G602" s="27"/>
+      <c r="F602" s="28"/>
+      <c r="G602" s="28"/>
     </row>
     <row r="603" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F603" s="27"/>
-      <c r="G603" s="27"/>
+      <c r="F603" s="28"/>
+      <c r="G603" s="28"/>
     </row>
     <row r="604" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F604" s="27"/>
-      <c r="G604" s="27"/>
+      <c r="F604" s="28"/>
+      <c r="G604" s="28"/>
     </row>
     <row r="605" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F605" s="27"/>
-      <c r="G605" s="27"/>
+      <c r="F605" s="28"/>
+      <c r="G605" s="28"/>
     </row>
     <row r="606" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F606" s="27"/>
-      <c r="G606" s="27"/>
+      <c r="F606" s="28"/>
+      <c r="G606" s="28"/>
     </row>
     <row r="607" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F607" s="27"/>
-      <c r="G607" s="27"/>
+      <c r="F607" s="28"/>
+      <c r="G607" s="28"/>
     </row>
     <row r="608" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F608" s="27"/>
-      <c r="G608" s="27"/>
+      <c r="F608" s="28"/>
+      <c r="G608" s="28"/>
     </row>
     <row r="609" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F609" s="27"/>
-      <c r="G609" s="27"/>
+      <c r="F609" s="28"/>
+      <c r="G609" s="28"/>
     </row>
     <row r="610" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F610" s="27"/>
-      <c r="G610" s="27"/>
+      <c r="F610" s="28"/>
+      <c r="G610" s="28"/>
     </row>
     <row r="611" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F611" s="27"/>
-      <c r="G611" s="27"/>
+      <c r="F611" s="28"/>
+      <c r="G611" s="28"/>
     </row>
     <row r="612" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F612" s="27"/>
-      <c r="G612" s="27"/>
+      <c r="F612" s="28"/>
+      <c r="G612" s="28"/>
     </row>
     <row r="613" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F613" s="27"/>
-      <c r="G613" s="27"/>
+      <c r="F613" s="28"/>
+      <c r="G613" s="28"/>
     </row>
     <row r="614" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F614" s="27"/>
-      <c r="G614" s="27"/>
+      <c r="F614" s="28"/>
+      <c r="G614" s="28"/>
     </row>
     <row r="615" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F615" s="27"/>
-      <c r="G615" s="27"/>
+      <c r="F615" s="28"/>
+      <c r="G615" s="28"/>
     </row>
     <row r="616" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F616" s="27"/>
-      <c r="G616" s="27"/>
+      <c r="F616" s="28"/>
+      <c r="G616" s="28"/>
     </row>
     <row r="617" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F617" s="27"/>
-      <c r="G617" s="27"/>
+      <c r="F617" s="28"/>
+      <c r="G617" s="28"/>
     </row>
     <row r="618" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F618" s="27"/>
-      <c r="G618" s="27"/>
+      <c r="F618" s="28"/>
+      <c r="G618" s="28"/>
     </row>
     <row r="619" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F619" s="27"/>
-      <c r="G619" s="27"/>
+      <c r="F619" s="28"/>
+      <c r="G619" s="28"/>
     </row>
     <row r="620" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F620" s="27"/>
-      <c r="G620" s="27"/>
+      <c r="F620" s="28"/>
+      <c r="G620" s="28"/>
     </row>
     <row r="621" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F621" s="27"/>
-      <c r="G621" s="27"/>
+      <c r="F621" s="28"/>
+      <c r="G621" s="28"/>
     </row>
     <row r="622" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F622" s="27"/>
-      <c r="G622" s="27"/>
+      <c r="F622" s="28"/>
+      <c r="G622" s="28"/>
     </row>
     <row r="623" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F623" s="27"/>
-      <c r="G623" s="27"/>
+      <c r="F623" s="28"/>
+      <c r="G623" s="28"/>
     </row>
     <row r="624" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F624" s="27"/>
-      <c r="G624" s="27"/>
+      <c r="F624" s="28"/>
+      <c r="G624" s="28"/>
     </row>
     <row r="625" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F625" s="27"/>
-      <c r="G625" s="27"/>
+      <c r="F625" s="28"/>
+      <c r="G625" s="28"/>
     </row>
     <row r="626" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F626" s="27"/>
-      <c r="G626" s="27"/>
+      <c r="F626" s="28"/>
+      <c r="G626" s="28"/>
     </row>
     <row r="627" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F627" s="27"/>
-      <c r="G627" s="27"/>
+      <c r="F627" s="28"/>
+      <c r="G627" s="28"/>
     </row>
     <row r="628" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F628" s="27"/>
-      <c r="G628" s="27"/>
+      <c r="F628" s="28"/>
+      <c r="G628" s="28"/>
     </row>
     <row r="629" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F629" s="27"/>
-      <c r="G629" s="27"/>
+      <c r="F629" s="28"/>
+      <c r="G629" s="28"/>
     </row>
     <row r="630" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F630" s="27"/>
-      <c r="G630" s="27"/>
+      <c r="F630" s="28"/>
+      <c r="G630" s="28"/>
     </row>
     <row r="631" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F631" s="27"/>
-      <c r="G631" s="27"/>
+      <c r="F631" s="28"/>
+      <c r="G631" s="28"/>
     </row>
     <row r="632" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F632" s="27"/>
-      <c r="G632" s="27"/>
+      <c r="F632" s="28"/>
+      <c r="G632" s="28"/>
     </row>
     <row r="633" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F633" s="27"/>
-      <c r="G633" s="27"/>
+      <c r="F633" s="28"/>
+      <c r="G633" s="28"/>
     </row>
     <row r="634" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F634" s="27"/>
-      <c r="G634" s="27"/>
+      <c r="F634" s="28"/>
+      <c r="G634" s="28"/>
     </row>
     <row r="635" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F635" s="27"/>
-      <c r="G635" s="27"/>
+      <c r="F635" s="28"/>
+      <c r="G635" s="28"/>
     </row>
     <row r="636" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F636" s="27"/>
-      <c r="G636" s="27"/>
+      <c r="F636" s="28"/>
+      <c r="G636" s="28"/>
     </row>
     <row r="637" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F637" s="27"/>
-      <c r="G637" s="27"/>
+      <c r="F637" s="28"/>
+      <c r="G637" s="28"/>
     </row>
     <row r="638" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F638" s="27"/>
-      <c r="G638" s="27"/>
+      <c r="F638" s="28"/>
+      <c r="G638" s="28"/>
     </row>
     <row r="639" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F639" s="27"/>
-      <c r="G639" s="27"/>
+      <c r="F639" s="28"/>
+      <c r="G639" s="28"/>
     </row>
     <row r="640" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F640" s="27"/>
-      <c r="G640" s="27"/>
+      <c r="F640" s="28"/>
+      <c r="G640" s="28"/>
     </row>
     <row r="641" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F641" s="27"/>
-      <c r="G641" s="27"/>
+      <c r="F641" s="28"/>
+      <c r="G641" s="28"/>
     </row>
     <row r="642" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F642" s="27"/>
-      <c r="G642" s="27"/>
+      <c r="F642" s="28"/>
+      <c r="G642" s="28"/>
     </row>
     <row r="643" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F643" s="27"/>
-      <c r="G643" s="27"/>
+      <c r="F643" s="28"/>
+      <c r="G643" s="28"/>
     </row>
     <row r="644" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F644" s="27"/>
-      <c r="G644" s="27"/>
+      <c r="F644" s="28"/>
+      <c r="G644" s="28"/>
     </row>
     <row r="645" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F645" s="27"/>
-      <c r="G645" s="27"/>
+      <c r="F645" s="28"/>
+      <c r="G645" s="28"/>
     </row>
     <row r="646" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F646" s="27"/>
-      <c r="G646" s="27"/>
+      <c r="F646" s="28"/>
+      <c r="G646" s="28"/>
     </row>
     <row r="647" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F647" s="27"/>
-      <c r="G647" s="27"/>
+      <c r="F647" s="28"/>
+      <c r="G647" s="28"/>
     </row>
     <row r="648" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F648" s="27"/>
-      <c r="G648" s="27"/>
+      <c r="F648" s="28"/>
+      <c r="G648" s="28"/>
     </row>
     <row r="649" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F649" s="27"/>
-      <c r="G649" s="27"/>
+      <c r="F649" s="28"/>
+      <c r="G649" s="28"/>
     </row>
     <row r="650" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F650" s="27"/>
-      <c r="G650" s="27"/>
+      <c r="F650" s="28"/>
+      <c r="G650" s="28"/>
     </row>
     <row r="651" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F651" s="27"/>
-      <c r="G651" s="27"/>
+      <c r="F651" s="28"/>
+      <c r="G651" s="28"/>
     </row>
     <row r="652" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F652" s="27"/>
-      <c r="G652" s="27"/>
+      <c r="F652" s="28"/>
+      <c r="G652" s="28"/>
     </row>
     <row r="653" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F653" s="27"/>
-      <c r="G653" s="27"/>
+      <c r="F653" s="28"/>
+      <c r="G653" s="28"/>
     </row>
     <row r="654" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F654" s="27"/>
-      <c r="G654" s="27"/>
+      <c r="F654" s="28"/>
+      <c r="G654" s="28"/>
     </row>
     <row r="655" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F655" s="27"/>
-      <c r="G655" s="27"/>
+      <c r="F655" s="28"/>
+      <c r="G655" s="28"/>
     </row>
     <row r="656" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F656" s="27"/>
-      <c r="G656" s="27"/>
+      <c r="F656" s="28"/>
+      <c r="G656" s="28"/>
     </row>
     <row r="657" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F657" s="27"/>
-      <c r="G657" s="27"/>
+      <c r="F657" s="28"/>
+      <c r="G657" s="28"/>
     </row>
     <row r="658" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F658" s="27"/>
-      <c r="G658" s="27"/>
+      <c r="F658" s="28"/>
+      <c r="G658" s="28"/>
     </row>
     <row r="659" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F659" s="27"/>
-      <c r="G659" s="27"/>
+      <c r="F659" s="28"/>
+      <c r="G659" s="28"/>
     </row>
     <row r="660" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F660" s="27"/>
-      <c r="G660" s="27"/>
+      <c r="F660" s="28"/>
+      <c r="G660" s="28"/>
     </row>
     <row r="661" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F661" s="27"/>
-      <c r="G661" s="27"/>
+      <c r="F661" s="28"/>
+      <c r="G661" s="28"/>
     </row>
     <row r="662" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F662" s="27"/>
-      <c r="G662" s="27"/>
+      <c r="F662" s="28"/>
+      <c r="G662" s="28"/>
     </row>
     <row r="663" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F663" s="27"/>
-      <c r="G663" s="27"/>
+      <c r="F663" s="28"/>
+      <c r="G663" s="28"/>
     </row>
     <row r="664" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F664" s="27"/>
-      <c r="G664" s="27"/>
+      <c r="F664" s="28"/>
+      <c r="G664" s="28"/>
     </row>
     <row r="665" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F665" s="27"/>
-      <c r="G665" s="27"/>
+      <c r="F665" s="28"/>
+      <c r="G665" s="28"/>
     </row>
     <row r="666" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F666" s="27"/>
-      <c r="G666" s="27"/>
+      <c r="F666" s="28"/>
+      <c r="G666" s="28"/>
     </row>
     <row r="667" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F667" s="27"/>
-      <c r="G667" s="27"/>
+      <c r="F667" s="28"/>
+      <c r="G667" s="28"/>
     </row>
     <row r="668" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F668" s="27"/>
-      <c r="G668" s="27"/>
+      <c r="F668" s="28"/>
+      <c r="G668" s="28"/>
     </row>
     <row r="669" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F669" s="27"/>
-      <c r="G669" s="27"/>
+      <c r="F669" s="28"/>
+      <c r="G669" s="28"/>
     </row>
     <row r="670" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F670" s="27"/>
-      <c r="G670" s="27"/>
+      <c r="F670" s="28"/>
+      <c r="G670" s="28"/>
     </row>
     <row r="671" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F671" s="27"/>
-      <c r="G671" s="27"/>
+      <c r="F671" s="28"/>
+      <c r="G671" s="28"/>
     </row>
     <row r="672" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F672" s="27"/>
-      <c r="G672" s="27"/>
+      <c r="F672" s="28"/>
+      <c r="G672" s="28"/>
     </row>
     <row r="673" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F673" s="27"/>
-      <c r="G673" s="27"/>
+      <c r="F673" s="28"/>
+      <c r="G673" s="28"/>
     </row>
     <row r="674" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F674" s="27"/>
-      <c r="G674" s="27"/>
+      <c r="F674" s="28"/>
+      <c r="G674" s="28"/>
     </row>
     <row r="675" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F675" s="27"/>
-      <c r="G675" s="27"/>
+      <c r="F675" s="28"/>
+      <c r="G675" s="28"/>
     </row>
     <row r="676" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F676" s="27"/>
-      <c r="G676" s="27"/>
+      <c r="F676" s="28"/>
+      <c r="G676" s="28"/>
     </row>
     <row r="677" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F677" s="27"/>
-      <c r="G677" s="27"/>
+      <c r="F677" s="28"/>
+      <c r="G677" s="28"/>
     </row>
     <row r="678" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F678" s="27"/>
-      <c r="G678" s="27"/>
+      <c r="F678" s="28"/>
+      <c r="G678" s="28"/>
     </row>
     <row r="679" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F679" s="27"/>
-      <c r="G679" s="27"/>
+      <c r="F679" s="28"/>
+      <c r="G679" s="28"/>
     </row>
     <row r="680" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F680" s="27"/>
-      <c r="G680" s="27"/>
+      <c r="F680" s="28"/>
+      <c r="G680" s="28"/>
     </row>
     <row r="681" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F681" s="27"/>
-      <c r="G681" s="27"/>
+      <c r="F681" s="28"/>
+      <c r="G681" s="28"/>
     </row>
     <row r="682" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F682" s="27"/>
-      <c r="G682" s="27"/>
+      <c r="F682" s="28"/>
+      <c r="G682" s="28"/>
     </row>
     <row r="683" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F683" s="27"/>
-      <c r="G683" s="27"/>
+      <c r="F683" s="28"/>
+      <c r="G683" s="28"/>
     </row>
     <row r="684" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F684" s="27"/>
-      <c r="G684" s="27"/>
+      <c r="F684" s="28"/>
+      <c r="G684" s="28"/>
     </row>
     <row r="685" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F685" s="27"/>
-      <c r="G685" s="27"/>
+      <c r="F685" s="28"/>
+      <c r="G685" s="28"/>
     </row>
     <row r="686" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F686" s="27"/>
-      <c r="G686" s="27"/>
+      <c r="F686" s="28"/>
+      <c r="G686" s="28"/>
     </row>
     <row r="687" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F687" s="27"/>
-      <c r="G687" s="27"/>
+      <c r="F687" s="28"/>
+      <c r="G687" s="28"/>
     </row>
     <row r="688" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F688" s="27"/>
-      <c r="G688" s="27"/>
+      <c r="F688" s="28"/>
+      <c r="G688" s="28"/>
     </row>
     <row r="689" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F689" s="27"/>
-      <c r="G689" s="27"/>
+      <c r="F689" s="28"/>
+      <c r="G689" s="28"/>
     </row>
     <row r="690" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F690" s="27"/>
-      <c r="G690" s="27"/>
+      <c r="F690" s="28"/>
+      <c r="G690" s="28"/>
     </row>
     <row r="691" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F691" s="27"/>
-      <c r="G691" s="27"/>
+      <c r="F691" s="28"/>
+      <c r="G691" s="28"/>
     </row>
     <row r="692" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F692" s="27"/>
-      <c r="G692" s="27"/>
+      <c r="F692" s="28"/>
+      <c r="G692" s="28"/>
     </row>
     <row r="693" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F693" s="27"/>
-      <c r="G693" s="27"/>
+      <c r="F693" s="28"/>
+      <c r="G693" s="28"/>
     </row>
     <row r="694" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F694" s="27"/>
-      <c r="G694" s="27"/>
+      <c r="F694" s="28"/>
+      <c r="G694" s="28"/>
     </row>
     <row r="695" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F695" s="27"/>
-      <c r="G695" s="27"/>
+      <c r="F695" s="28"/>
+      <c r="G695" s="28"/>
     </row>
     <row r="696" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F696" s="27"/>
-      <c r="G696" s="27"/>
+      <c r="F696" s="28"/>
+      <c r="G696" s="28"/>
     </row>
     <row r="697" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F697" s="27"/>
-      <c r="G697" s="27"/>
+      <c r="F697" s="28"/>
+      <c r="G697" s="28"/>
     </row>
     <row r="698" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F698" s="27"/>
-      <c r="G698" s="27"/>
+      <c r="F698" s="28"/>
+      <c r="G698" s="28"/>
     </row>
     <row r="699" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F699" s="27"/>
-      <c r="G699" s="27"/>
+      <c r="F699" s="28"/>
+      <c r="G699" s="28"/>
     </row>
     <row r="700" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F700" s="27"/>
-      <c r="G700" s="27"/>
+      <c r="F700" s="28"/>
+      <c r="G700" s="28"/>
     </row>
     <row r="701" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F701" s="27"/>
-      <c r="G701" s="27"/>
+      <c r="F701" s="28"/>
+      <c r="G701" s="28"/>
     </row>
     <row r="702" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F702" s="27"/>
-      <c r="G702" s="27"/>
+      <c r="F702" s="28"/>
+      <c r="G702" s="28"/>
     </row>
     <row r="703" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F703" s="27"/>
-      <c r="G703" s="27"/>
+      <c r="F703" s="28"/>
+      <c r="G703" s="28"/>
     </row>
     <row r="704" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F704" s="27"/>
-      <c r="G704" s="27"/>
+      <c r="F704" s="28"/>
+      <c r="G704" s="28"/>
     </row>
     <row r="705" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F705" s="27"/>
-      <c r="G705" s="27"/>
+      <c r="F705" s="28"/>
+      <c r="G705" s="28"/>
     </row>
     <row r="706" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F706" s="27"/>
-      <c r="G706" s="27"/>
+      <c r="F706" s="28"/>
+      <c r="G706" s="28"/>
     </row>
     <row r="707" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F707" s="27"/>
-      <c r="G707" s="27"/>
+      <c r="F707" s="28"/>
+      <c r="G707" s="28"/>
     </row>
     <row r="708" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F708" s="27"/>
-      <c r="G708" s="27"/>
+      <c r="F708" s="28"/>
+      <c r="G708" s="28"/>
     </row>
     <row r="709" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F709" s="27"/>
-      <c r="G709" s="27"/>
+      <c r="F709" s="28"/>
+      <c r="G709" s="28"/>
     </row>
     <row r="710" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F710" s="27"/>
-      <c r="G710" s="27"/>
+      <c r="F710" s="28"/>
+      <c r="G710" s="28"/>
     </row>
     <row r="711" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F711" s="27"/>
-      <c r="G711" s="27"/>
+      <c r="F711" s="28"/>
+      <c r="G711" s="28"/>
     </row>
     <row r="712" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F712" s="27"/>
-      <c r="G712" s="27"/>
+      <c r="F712" s="28"/>
+      <c r="G712" s="28"/>
     </row>
     <row r="713" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F713" s="27"/>
-      <c r="G713" s="27"/>
+      <c r="F713" s="28"/>
+      <c r="G713" s="28"/>
     </row>
     <row r="714" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F714" s="27"/>
-      <c r="G714" s="27"/>
+      <c r="F714" s="28"/>
+      <c r="G714" s="28"/>
     </row>
     <row r="715" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F715" s="27"/>
-      <c r="G715" s="27"/>
+      <c r="F715" s="28"/>
+      <c r="G715" s="28"/>
     </row>
     <row r="716" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F716" s="27"/>
-      <c r="G716" s="27"/>
+      <c r="F716" s="28"/>
+      <c r="G716" s="28"/>
     </row>
     <row r="717" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F717" s="27"/>
-      <c r="G717" s="27"/>
+      <c r="F717" s="28"/>
+      <c r="G717" s="28"/>
     </row>
     <row r="718" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F718" s="27"/>
-      <c r="G718" s="27"/>
+      <c r="F718" s="28"/>
+      <c r="G718" s="28"/>
     </row>
     <row r="719" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F719" s="27"/>
-      <c r="G719" s="27"/>
+      <c r="F719" s="28"/>
+      <c r="G719" s="28"/>
     </row>
     <row r="720" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F720" s="27"/>
-      <c r="G720" s="27"/>
+      <c r="F720" s="28"/>
+      <c r="G720" s="28"/>
     </row>
     <row r="721" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F721" s="27"/>
-      <c r="G721" s="27"/>
+      <c r="F721" s="28"/>
+      <c r="G721" s="28"/>
     </row>
     <row r="722" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F722" s="27"/>
-      <c r="G722" s="27"/>
+      <c r="F722" s="28"/>
+      <c r="G722" s="28"/>
     </row>
     <row r="723" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F723" s="27"/>
-      <c r="G723" s="27"/>
+      <c r="F723" s="28"/>
+      <c r="G723" s="28"/>
     </row>
     <row r="724" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F724" s="27"/>
-      <c r="G724" s="27"/>
+      <c r="F724" s="28"/>
+      <c r="G724" s="28"/>
     </row>
     <row r="725" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F725" s="27"/>
-      <c r="G725" s="27"/>
+      <c r="F725" s="28"/>
+      <c r="G725" s="28"/>
     </row>
     <row r="726" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F726" s="27"/>
-      <c r="G726" s="27"/>
+      <c r="F726" s="28"/>
+      <c r="G726" s="28"/>
     </row>
     <row r="727" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F727" s="27"/>
-      <c r="G727" s="27"/>
+      <c r="F727" s="28"/>
+      <c r="G727" s="28"/>
     </row>
     <row r="728" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F728" s="27"/>
-      <c r="G728" s="27"/>
+      <c r="F728" s="28"/>
+      <c r="G728" s="28"/>
     </row>
     <row r="729" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F729" s="27"/>
-      <c r="G729" s="27"/>
+      <c r="F729" s="28"/>
+      <c r="G729" s="28"/>
     </row>
     <row r="730" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F730" s="27"/>
-      <c r="G730" s="27"/>
+      <c r="F730" s="28"/>
+      <c r="G730" s="28"/>
     </row>
     <row r="731" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F731" s="27"/>
-      <c r="G731" s="27"/>
+      <c r="F731" s="28"/>
+      <c r="G731" s="28"/>
     </row>
     <row r="732" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F732" s="27"/>
-      <c r="G732" s="27"/>
+      <c r="F732" s="28"/>
+      <c r="G732" s="28"/>
     </row>
     <row r="733" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F733" s="27"/>
-      <c r="G733" s="27"/>
+      <c r="F733" s="28"/>
+      <c r="G733" s="28"/>
     </row>
     <row r="734" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F734" s="27"/>
-      <c r="G734" s="27"/>
+      <c r="F734" s="28"/>
+      <c r="G734" s="28"/>
     </row>
     <row r="735" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F735" s="27"/>
-      <c r="G735" s="27"/>
+      <c r="F735" s="28"/>
+      <c r="G735" s="28"/>
     </row>
     <row r="736" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F736" s="27"/>
-      <c r="G736" s="27"/>
+      <c r="F736" s="28"/>
+      <c r="G736" s="28"/>
     </row>
     <row r="737" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F737" s="27"/>
-      <c r="G737" s="27"/>
+      <c r="F737" s="28"/>
+      <c r="G737" s="28"/>
     </row>
     <row r="738" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F738" s="27"/>
-      <c r="G738" s="27"/>
+      <c r="F738" s="28"/>
+      <c r="G738" s="28"/>
     </row>
     <row r="739" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F739" s="27"/>
-      <c r="G739" s="27"/>
+      <c r="F739" s="28"/>
+      <c r="G739" s="28"/>
     </row>
     <row r="740" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F740" s="27"/>
-      <c r="G740" s="27"/>
+      <c r="F740" s="28"/>
+      <c r="G740" s="28"/>
     </row>
     <row r="741" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F741" s="27"/>
-      <c r="G741" s="27"/>
+      <c r="F741" s="28"/>
+      <c r="G741" s="28"/>
     </row>
     <row r="742" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F742" s="27"/>
-      <c r="G742" s="27"/>
+      <c r="F742" s="28"/>
+      <c r="G742" s="28"/>
     </row>
     <row r="743" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F743" s="27"/>
-      <c r="G743" s="27"/>
+      <c r="F743" s="28"/>
+      <c r="G743" s="28"/>
     </row>
     <row r="744" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F744" s="27"/>
-      <c r="G744" s="27"/>
+      <c r="F744" s="28"/>
+      <c r="G744" s="28"/>
     </row>
     <row r="745" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F745" s="27"/>
-      <c r="G745" s="27"/>
+      <c r="F745" s="28"/>
+      <c r="G745" s="28"/>
     </row>
     <row r="746" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F746" s="27"/>
-      <c r="G746" s="27"/>
+      <c r="F746" s="28"/>
+      <c r="G746" s="28"/>
     </row>
     <row r="747" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F747" s="27"/>
-      <c r="G747" s="27"/>
+      <c r="F747" s="28"/>
+      <c r="G747" s="28"/>
     </row>
     <row r="748" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F748" s="27"/>
-      <c r="G748" s="27"/>
+      <c r="F748" s="28"/>
+      <c r="G748" s="28"/>
     </row>
     <row r="749" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F749" s="27"/>
-      <c r="G749" s="27"/>
+      <c r="F749" s="28"/>
+      <c r="G749" s="28"/>
     </row>
     <row r="750" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F750" s="27"/>
-      <c r="G750" s="27"/>
+      <c r="F750" s="28"/>
+      <c r="G750" s="28"/>
     </row>
     <row r="751" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F751" s="27"/>
-      <c r="G751" s="27"/>
+      <c r="F751" s="28"/>
+      <c r="G751" s="28"/>
     </row>
     <row r="752" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F752" s="27"/>
-      <c r="G752" s="27"/>
+      <c r="F752" s="28"/>
+      <c r="G752" s="28"/>
     </row>
     <row r="753" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F753" s="27"/>
-      <c r="G753" s="27"/>
+      <c r="F753" s="28"/>
+      <c r="G753" s="28"/>
     </row>
     <row r="754" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F754" s="27"/>
-      <c r="G754" s="27"/>
+      <c r="F754" s="28"/>
+      <c r="G754" s="28"/>
     </row>
     <row r="755" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F755" s="27"/>
-      <c r="G755" s="27"/>
+      <c r="F755" s="28"/>
+      <c r="G755" s="28"/>
     </row>
     <row r="756" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F756" s="27"/>
-      <c r="G756" s="27"/>
+      <c r="F756" s="28"/>
+      <c r="G756" s="28"/>
     </row>
     <row r="757" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F757" s="27"/>
-      <c r="G757" s="27"/>
+      <c r="F757" s="28"/>
+      <c r="G757" s="28"/>
     </row>
     <row r="758" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F758" s="27"/>
-      <c r="G758" s="27"/>
+      <c r="F758" s="28"/>
+      <c r="G758" s="28"/>
     </row>
     <row r="759" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F759" s="27"/>
-      <c r="G759" s="27"/>
+      <c r="F759" s="28"/>
+      <c r="G759" s="28"/>
     </row>
     <row r="760" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F760" s="27"/>
-      <c r="G760" s="27"/>
+      <c r="F760" s="28"/>
+      <c r="G760" s="28"/>
     </row>
     <row r="761" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F761" s="27"/>
-      <c r="G761" s="27"/>
+      <c r="F761" s="28"/>
+      <c r="G761" s="28"/>
     </row>
     <row r="762" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F762" s="27"/>
-      <c r="G762" s="27"/>
+      <c r="F762" s="28"/>
+      <c r="G762" s="28"/>
     </row>
     <row r="763" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F763" s="27"/>
-      <c r="G763" s="27"/>
+      <c r="F763" s="28"/>
+      <c r="G763" s="28"/>
     </row>
     <row r="764" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F764" s="27"/>
-      <c r="G764" s="27"/>
+      <c r="F764" s="28"/>
+      <c r="G764" s="28"/>
     </row>
     <row r="765" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F765" s="27"/>
-      <c r="G765" s="27"/>
+      <c r="F765" s="28"/>
+      <c r="G765" s="28"/>
     </row>
     <row r="766" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F766" s="27"/>
-      <c r="G766" s="27"/>
+      <c r="F766" s="28"/>
+      <c r="G766" s="28"/>
     </row>
     <row r="767" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F767" s="27"/>
-      <c r="G767" s="27"/>
+      <c r="F767" s="28"/>
+      <c r="G767" s="28"/>
     </row>
     <row r="768" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F768" s="27"/>
-      <c r="G768" s="27"/>
+      <c r="F768" s="28"/>
+      <c r="G768" s="28"/>
     </row>
     <row r="769" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F769" s="27"/>
-      <c r="G769" s="27"/>
+      <c r="F769" s="28"/>
+      <c r="G769" s="28"/>
     </row>
     <row r="770" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F770" s="27"/>
-      <c r="G770" s="27"/>
+      <c r="F770" s="28"/>
+      <c r="G770" s="28"/>
     </row>
     <row r="771" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F771" s="27"/>
-      <c r="G771" s="27"/>
+      <c r="F771" s="28"/>
+      <c r="G771" s="28"/>
     </row>
     <row r="772" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F772" s="27"/>
-      <c r="G772" s="27"/>
+      <c r="F772" s="28"/>
+      <c r="G772" s="28"/>
     </row>
     <row r="773" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F773" s="27"/>
-      <c r="G773" s="27"/>
+      <c r="F773" s="28"/>
+      <c r="G773" s="28"/>
     </row>
     <row r="774" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F774" s="27"/>
-      <c r="G774" s="27"/>
+      <c r="F774" s="28"/>
+      <c r="G774" s="28"/>
     </row>
     <row r="775" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F775" s="27"/>
-      <c r="G775" s="27"/>
+      <c r="F775" s="28"/>
+      <c r="G775" s="28"/>
     </row>
     <row r="776" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F776" s="27"/>
-      <c r="G776" s="27"/>
+      <c r="F776" s="28"/>
+      <c r="G776" s="28"/>
     </row>
     <row r="777" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F777" s="27"/>
-      <c r="G777" s="27"/>
+      <c r="F777" s="28"/>
+      <c r="G777" s="28"/>
     </row>
     <row r="778" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F778" s="27"/>
-      <c r="G778" s="27"/>
+      <c r="F778" s="28"/>
+      <c r="G778" s="28"/>
     </row>
     <row r="779" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F779" s="27"/>
-      <c r="G779" s="27"/>
+      <c r="F779" s="28"/>
+      <c r="G779" s="28"/>
     </row>
     <row r="780" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F780" s="27"/>
-      <c r="G780" s="27"/>
+      <c r="F780" s="28"/>
+      <c r="G780" s="28"/>
     </row>
     <row r="781" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F781" s="27"/>
-      <c r="G781" s="27"/>
+      <c r="F781" s="28"/>
+      <c r="G781" s="28"/>
     </row>
     <row r="782" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F782" s="27"/>
-      <c r="G782" s="27"/>
+      <c r="F782" s="28"/>
+      <c r="G782" s="28"/>
     </row>
     <row r="783" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F783" s="27"/>
-      <c r="G783" s="27"/>
+      <c r="F783" s="28"/>
+      <c r="G783" s="28"/>
     </row>
     <row r="784" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F784" s="27"/>
-      <c r="G784" s="27"/>
+      <c r="F784" s="28"/>
+      <c r="G784" s="28"/>
     </row>
     <row r="785" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F785" s="27"/>
-      <c r="G785" s="27"/>
+      <c r="F785" s="28"/>
+      <c r="G785" s="28"/>
     </row>
     <row r="786" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F786" s="27"/>
-      <c r="G786" s="27"/>
+      <c r="F786" s="28"/>
+      <c r="G786" s="28"/>
     </row>
     <row r="787" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F787" s="27"/>
-      <c r="G787" s="27"/>
+      <c r="F787" s="28"/>
+      <c r="G787" s="28"/>
     </row>
     <row r="788" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F788" s="27"/>
-      <c r="G788" s="27"/>
+      <c r="F788" s="28"/>
+      <c r="G788" s="28"/>
     </row>
     <row r="789" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F789" s="27"/>
-      <c r="G789" s="27"/>
+      <c r="F789" s="28"/>
+      <c r="G789" s="28"/>
     </row>
     <row r="790" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F790" s="27"/>
-      <c r="G790" s="27"/>
+      <c r="F790" s="28"/>
+      <c r="G790" s="28"/>
     </row>
     <row r="791" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F791" s="27"/>
-      <c r="G791" s="27"/>
+      <c r="F791" s="28"/>
+      <c r="G791" s="28"/>
     </row>
     <row r="792" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F792" s="27"/>
-      <c r="G792" s="27"/>
+      <c r="F792" s="28"/>
+      <c r="G792" s="28"/>
     </row>
     <row r="793" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F793" s="27"/>
-      <c r="G793" s="27"/>
+      <c r="F793" s="28"/>
+      <c r="G793" s="28"/>
     </row>
     <row r="794" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F794" s="27"/>
-      <c r="G794" s="27"/>
+      <c r="F794" s="28"/>
+      <c r="G794" s="28"/>
     </row>
     <row r="795" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F795" s="27"/>
-      <c r="G795" s="27"/>
+      <c r="F795" s="28"/>
+      <c r="G795" s="28"/>
     </row>
     <row r="796" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F796" s="27"/>
-      <c r="G796" s="27"/>
+      <c r="F796" s="28"/>
+      <c r="G796" s="28"/>
     </row>
     <row r="797" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F797" s="27"/>
-      <c r="G797" s="27"/>
+      <c r="F797" s="28"/>
+      <c r="G797" s="28"/>
     </row>
     <row r="798" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F798" s="27"/>
-      <c r="G798" s="27"/>
+      <c r="F798" s="28"/>
+      <c r="G798" s="28"/>
     </row>
     <row r="799" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F799" s="27"/>
-      <c r="G799" s="27"/>
+      <c r="F799" s="28"/>
+      <c r="G799" s="28"/>
     </row>
     <row r="800" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F800" s="27"/>
-      <c r="G800" s="27"/>
+      <c r="F800" s="28"/>
+      <c r="G800" s="28"/>
     </row>
     <row r="801" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F801" s="27"/>
-      <c r="G801" s="27"/>
+      <c r="F801" s="28"/>
+      <c r="G801" s="28"/>
     </row>
     <row r="802" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F802" s="27"/>
-      <c r="G802" s="27"/>
+      <c r="F802" s="28"/>
+      <c r="G802" s="28"/>
     </row>
     <row r="803" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F803" s="27"/>
-      <c r="G803" s="27"/>
+      <c r="F803" s="28"/>
+      <c r="G803" s="28"/>
     </row>
     <row r="804" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F804" s="27"/>
-      <c r="G804" s="27"/>
+      <c r="F804" s="28"/>
+      <c r="G804" s="28"/>
     </row>
     <row r="805" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F805" s="27"/>
-      <c r="G805" s="27"/>
+      <c r="F805" s="28"/>
+      <c r="G805" s="28"/>
     </row>
     <row r="806" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F806" s="27"/>
-      <c r="G806" s="27"/>
+      <c r="F806" s="28"/>
+      <c r="G806" s="28"/>
     </row>
     <row r="807" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F807" s="27"/>
-      <c r="G807" s="27"/>
+      <c r="F807" s="28"/>
+      <c r="G807" s="28"/>
     </row>
     <row r="808" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F808" s="27"/>
-      <c r="G808" s="27"/>
+      <c r="F808" s="28"/>
+      <c r="G808" s="28"/>
     </row>
     <row r="809" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F809" s="27"/>
-      <c r="G809" s="27"/>
+      <c r="F809" s="28"/>
+      <c r="G809" s="28"/>
     </row>
     <row r="810" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F810" s="27"/>
-      <c r="G810" s="27"/>
+      <c r="F810" s="28"/>
+      <c r="G810" s="28"/>
     </row>
     <row r="811" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F811" s="27"/>
-      <c r="G811" s="27"/>
+      <c r="F811" s="28"/>
+      <c r="G811" s="28"/>
     </row>
     <row r="812" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F812" s="27"/>
-      <c r="G812" s="27"/>
+      <c r="F812" s="28"/>
+      <c r="G812" s="28"/>
     </row>
     <row r="813" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F813" s="27"/>
-      <c r="G813" s="27"/>
+      <c r="F813" s="28"/>
+      <c r="G813" s="28"/>
     </row>
     <row r="814" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F814" s="27"/>
-      <c r="G814" s="27"/>
+      <c r="F814" s="28"/>
+      <c r="G814" s="28"/>
     </row>
     <row r="815" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F815" s="27"/>
-      <c r="G815" s="27"/>
+      <c r="F815" s="28"/>
+      <c r="G815" s="28"/>
     </row>
     <row r="816" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F816" s="27"/>
-      <c r="G816" s="27"/>
+      <c r="F816" s="28"/>
+      <c r="G816" s="28"/>
     </row>
     <row r="817" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F817" s="27"/>
-      <c r="G817" s="27"/>
+      <c r="F817" s="28"/>
+      <c r="G817" s="28"/>
     </row>
     <row r="818" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F818" s="27"/>
-      <c r="G818" s="27"/>
+      <c r="F818" s="28"/>
+      <c r="G818" s="28"/>
     </row>
     <row r="819" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F819" s="27"/>
-      <c r="G819" s="27"/>
+      <c r="F819" s="28"/>
+      <c r="G819" s="28"/>
     </row>
     <row r="820" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F820" s="27"/>
-      <c r="G820" s="27"/>
+      <c r="F820" s="28"/>
+      <c r="G820" s="28"/>
     </row>
     <row r="821" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F821" s="27"/>
-      <c r="G821" s="27"/>
+      <c r="F821" s="28"/>
+      <c r="G821" s="28"/>
     </row>
     <row r="822" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F822" s="27"/>
-      <c r="G822" s="27"/>
+      <c r="F822" s="28"/>
+      <c r="G822" s="28"/>
     </row>
     <row r="823" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F823" s="27"/>
-      <c r="G823" s="27"/>
+      <c r="F823" s="28"/>
+      <c r="G823" s="28"/>
     </row>
     <row r="824" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F824" s="27"/>
-      <c r="G824" s="27"/>
+      <c r="F824" s="28"/>
+      <c r="G824" s="28"/>
     </row>
     <row r="825" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F825" s="27"/>
-      <c r="G825" s="27"/>
+      <c r="F825" s="28"/>
+      <c r="G825" s="28"/>
     </row>
     <row r="826" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F826" s="27"/>
-      <c r="G826" s="27"/>
+      <c r="F826" s="28"/>
+      <c r="G826" s="28"/>
     </row>
     <row r="827" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F827" s="27"/>
-      <c r="G827" s="27"/>
+      <c r="F827" s="28"/>
+      <c r="G827" s="28"/>
     </row>
     <row r="828" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F828" s="27"/>
-      <c r="G828" s="27"/>
+      <c r="F828" s="28"/>
+      <c r="G828" s="28"/>
     </row>
     <row r="829" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F829" s="27"/>
-      <c r="G829" s="27"/>
+      <c r="F829" s="28"/>
+      <c r="G829" s="28"/>
     </row>
     <row r="830" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F830" s="27"/>
-      <c r="G830" s="27"/>
+      <c r="F830" s="28"/>
+      <c r="G830" s="28"/>
     </row>
     <row r="831" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F831" s="27"/>
-      <c r="G831" s="27"/>
+      <c r="F831" s="28"/>
+      <c r="G831" s="28"/>
     </row>
     <row r="832" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F832" s="27"/>
-      <c r="G832" s="27"/>
+      <c r="F832" s="28"/>
+      <c r="G832" s="28"/>
     </row>
     <row r="833" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F833" s="27"/>
-      <c r="G833" s="27"/>
+      <c r="F833" s="28"/>
+      <c r="G833" s="28"/>
     </row>
     <row r="834" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F834" s="27"/>
-      <c r="G834" s="27"/>
+      <c r="F834" s="28"/>
+      <c r="G834" s="28"/>
     </row>
     <row r="835" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F835" s="27"/>
-      <c r="G835" s="27"/>
+      <c r="F835" s="28"/>
+      <c r="G835" s="28"/>
     </row>
     <row r="836" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F836" s="27"/>
-      <c r="G836" s="27"/>
+      <c r="F836" s="28"/>
+      <c r="G836" s="28"/>
     </row>
     <row r="837" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F837" s="27"/>
-      <c r="G837" s="27"/>
+      <c r="F837" s="28"/>
+      <c r="G837" s="28"/>
     </row>
     <row r="838" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F838" s="27"/>
-      <c r="G838" s="27"/>
+      <c r="F838" s="28"/>
+      <c r="G838" s="28"/>
     </row>
     <row r="839" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F839" s="27"/>
-      <c r="G839" s="27"/>
+      <c r="F839" s="28"/>
+      <c r="G839" s="28"/>
     </row>
     <row r="840" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F840" s="27"/>
-      <c r="G840" s="27"/>
+      <c r="F840" s="28"/>
+      <c r="G840" s="28"/>
     </row>
     <row r="841" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F841" s="27"/>
-      <c r="G841" s="27"/>
+      <c r="F841" s="28"/>
+      <c r="G841" s="28"/>
     </row>
     <row r="842" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F842" s="27"/>
-      <c r="G842" s="27"/>
+      <c r="F842" s="28"/>
+      <c r="G842" s="28"/>
     </row>
     <row r="843" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F843" s="27"/>
-      <c r="G843" s="27"/>
+      <c r="F843" s="28"/>
+      <c r="G843" s="28"/>
     </row>
     <row r="844" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F844" s="27"/>
-      <c r="G844" s="27"/>
+      <c r="F844" s="28"/>
+      <c r="G844" s="28"/>
     </row>
     <row r="845" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F845" s="27"/>
-      <c r="G845" s="27"/>
+      <c r="F845" s="28"/>
+      <c r="G845" s="28"/>
     </row>
     <row r="846" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F846" s="27"/>
-      <c r="G846" s="27"/>
+      <c r="F846" s="28"/>
+      <c r="G846" s="28"/>
     </row>
     <row r="847" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F847" s="27"/>
-      <c r="G847" s="27"/>
+      <c r="F847" s="28"/>
+      <c r="G847" s="28"/>
     </row>
     <row r="848" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F848" s="27"/>
-      <c r="G848" s="27"/>
+      <c r="F848" s="28"/>
+      <c r="G848" s="28"/>
     </row>
     <row r="849" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F849" s="27"/>
-      <c r="G849" s="27"/>
+      <c r="F849" s="28"/>
+      <c r="G849" s="28"/>
     </row>
     <row r="850" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F850" s="27"/>
-      <c r="G850" s="27"/>
+      <c r="F850" s="28"/>
+      <c r="G850" s="28"/>
     </row>
     <row r="851" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F851" s="27"/>
-      <c r="G851" s="27"/>
+      <c r="F851" s="28"/>
+      <c r="G851" s="28"/>
     </row>
     <row r="852" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F852" s="27"/>
-      <c r="G852" s="27"/>
+      <c r="F852" s="28"/>
+      <c r="G852" s="28"/>
     </row>
     <row r="853" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F853" s="27"/>
-      <c r="G853" s="27"/>
+      <c r="F853" s="28"/>
+      <c r="G853" s="28"/>
     </row>
     <row r="854" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F854" s="27"/>
-      <c r="G854" s="27"/>
+      <c r="F854" s="28"/>
+      <c r="G854" s="28"/>
     </row>
     <row r="855" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F855" s="27"/>
-      <c r="G855" s="27"/>
+      <c r="F855" s="28"/>
+      <c r="G855" s="28"/>
     </row>
     <row r="856" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F856" s="27"/>
-      <c r="G856" s="27"/>
+      <c r="F856" s="28"/>
+      <c r="G856" s="28"/>
     </row>
     <row r="857" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F857" s="27"/>
-      <c r="G857" s="27"/>
+      <c r="F857" s="28"/>
+      <c r="G857" s="28"/>
     </row>
     <row r="858" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F858" s="27"/>
-      <c r="G858" s="27"/>
+      <c r="F858" s="28"/>
+      <c r="G858" s="28"/>
     </row>
     <row r="859" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F859" s="27"/>
-      <c r="G859" s="27"/>
+      <c r="F859" s="28"/>
+      <c r="G859" s="28"/>
     </row>
     <row r="860" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F860" s="27"/>
-      <c r="G860" s="27"/>
+      <c r="F860" s="28"/>
+      <c r="G860" s="28"/>
     </row>
     <row r="861" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F861" s="27"/>
-      <c r="G861" s="27"/>
+      <c r="F861" s="28"/>
+      <c r="G861" s="28"/>
     </row>
     <row r="862" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F862" s="27"/>
-      <c r="G862" s="27"/>
+      <c r="F862" s="28"/>
+      <c r="G862" s="28"/>
     </row>
     <row r="863" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F863" s="27"/>
-      <c r="G863" s="27"/>
+      <c r="F863" s="28"/>
+      <c r="G863" s="28"/>
     </row>
     <row r="864" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F864" s="27"/>
-      <c r="G864" s="27"/>
+      <c r="F864" s="28"/>
+      <c r="G864" s="28"/>
     </row>
     <row r="865" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F865" s="27"/>
-      <c r="G865" s="27"/>
+      <c r="F865" s="28"/>
+      <c r="G865" s="28"/>
     </row>
     <row r="866" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F866" s="27"/>
-      <c r="G866" s="27"/>
+      <c r="F866" s="28"/>
+      <c r="G866" s="28"/>
     </row>
     <row r="867" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F867" s="27"/>
-      <c r="G867" s="27"/>
+      <c r="F867" s="28"/>
+      <c r="G867" s="28"/>
     </row>
     <row r="868" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F868" s="27"/>
-      <c r="G868" s="27"/>
+      <c r="F868" s="28"/>
+      <c r="G868" s="28"/>
     </row>
     <row r="869" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F869" s="27"/>
-      <c r="G869" s="27"/>
+      <c r="F869" s="28"/>
+      <c r="G869" s="28"/>
     </row>
     <row r="870" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F870" s="27"/>
-      <c r="G870" s="27"/>
+      <c r="F870" s="28"/>
+      <c r="G870" s="28"/>
     </row>
     <row r="871" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F871" s="27"/>
-      <c r="G871" s="27"/>
+      <c r="F871" s="28"/>
+      <c r="G871" s="28"/>
     </row>
     <row r="872" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F872" s="27"/>
-      <c r="G872" s="27"/>
+      <c r="F872" s="28"/>
+      <c r="G872" s="28"/>
     </row>
     <row r="873" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F873" s="27"/>
-      <c r="G873" s="27"/>
+      <c r="F873" s="28"/>
+      <c r="G873" s="28"/>
     </row>
     <row r="874" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F874" s="27"/>
-      <c r="G874" s="27"/>
+      <c r="F874" s="28"/>
+      <c r="G874" s="28"/>
     </row>
     <row r="875" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F875" s="27"/>
-      <c r="G875" s="27"/>
+      <c r="F875" s="28"/>
+      <c r="G875" s="28"/>
     </row>
     <row r="876" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F876" s="27"/>
-      <c r="G876" s="27"/>
+      <c r="F876" s="28"/>
+      <c r="G876" s="28"/>
     </row>
     <row r="877" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F877" s="27"/>
-      <c r="G877" s="27"/>
+      <c r="F877" s="28"/>
+      <c r="G877" s="28"/>
     </row>
     <row r="878" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F878" s="27"/>
-      <c r="G878" s="27"/>
+      <c r="F878" s="28"/>
+      <c r="G878" s="28"/>
     </row>
     <row r="879" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F879" s="27"/>
-      <c r="G879" s="27"/>
+      <c r="F879" s="28"/>
+      <c r="G879" s="28"/>
     </row>
     <row r="880" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F880" s="27"/>
-      <c r="G880" s="27"/>
+      <c r="F880" s="28"/>
+      <c r="G880" s="28"/>
     </row>
     <row r="881" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F881" s="27"/>
-      <c r="G881" s="27"/>
+      <c r="F881" s="28"/>
+      <c r="G881" s="28"/>
     </row>
     <row r="882" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F882" s="27"/>
-      <c r="G882" s="27"/>
+      <c r="F882" s="28"/>
+      <c r="G882" s="28"/>
     </row>
     <row r="883" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F883" s="27"/>
-      <c r="G883" s="27"/>
+      <c r="F883" s="28"/>
+      <c r="G883" s="28"/>
     </row>
     <row r="884" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F884" s="27"/>
-      <c r="G884" s="27"/>
+      <c r="F884" s="28"/>
+      <c r="G884" s="28"/>
     </row>
     <row r="885" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F885" s="27"/>
-      <c r="G885" s="27"/>
+      <c r="F885" s="28"/>
+      <c r="G885" s="28"/>
     </row>
     <row r="886" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F886" s="27"/>
-      <c r="G886" s="27"/>
+      <c r="F886" s="28"/>
+      <c r="G886" s="28"/>
     </row>
     <row r="887" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F887" s="27"/>
-      <c r="G887" s="27"/>
+      <c r="F887" s="28"/>
+      <c r="G887" s="28"/>
     </row>
     <row r="888" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F888" s="27"/>
-      <c r="G888" s="27"/>
+      <c r="F888" s="28"/>
+      <c r="G888" s="28"/>
     </row>
     <row r="889" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F889" s="27"/>
-      <c r="G889" s="27"/>
+      <c r="F889" s="28"/>
+      <c r="G889" s="28"/>
     </row>
     <row r="890" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F890" s="27"/>
-      <c r="G890" s="27"/>
+      <c r="F890" s="28"/>
+      <c r="G890" s="28"/>
     </row>
     <row r="891" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F891" s="27"/>
-      <c r="G891" s="27"/>
+      <c r="F891" s="28"/>
+      <c r="G891" s="28"/>
     </row>
     <row r="892" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F892" s="27"/>
-      <c r="G892" s="27"/>
+      <c r="F892" s="28"/>
+      <c r="G892" s="28"/>
     </row>
     <row r="893" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F893" s="27"/>
-      <c r="G893" s="27"/>
+      <c r="F893" s="28"/>
+      <c r="G893" s="28"/>
     </row>
     <row r="894" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F894" s="27"/>
-      <c r="G894" s="27"/>
+      <c r="F894" s="28"/>
+      <c r="G894" s="28"/>
     </row>
     <row r="895" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F895" s="27"/>
-      <c r="G895" s="27"/>
+      <c r="F895" s="28"/>
+      <c r="G895" s="28"/>
     </row>
     <row r="896" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F896" s="27"/>
-      <c r="G896" s="27"/>
+      <c r="F896" s="28"/>
+      <c r="G896" s="28"/>
     </row>
     <row r="897" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F897" s="27"/>
-      <c r="G897" s="27"/>
+      <c r="F897" s="28"/>
+      <c r="G897" s="28"/>
     </row>
     <row r="898" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F898" s="27"/>
-      <c r="G898" s="27"/>
+      <c r="F898" s="28"/>
+      <c r="G898" s="28"/>
     </row>
     <row r="899" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F899" s="27"/>
-      <c r="G899" s="27"/>
+      <c r="F899" s="28"/>
+      <c r="G899" s="28"/>
     </row>
     <row r="900" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F900" s="27"/>
-      <c r="G900" s="27"/>
+      <c r="F900" s="28"/>
+      <c r="G900" s="28"/>
     </row>
     <row r="901" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F901" s="27"/>
-      <c r="G901" s="27"/>
+      <c r="F901" s="28"/>
+      <c r="G901" s="28"/>
     </row>
     <row r="902" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F902" s="27"/>
-      <c r="G902" s="27"/>
+      <c r="F902" s="28"/>
+      <c r="G902" s="28"/>
     </row>
     <row r="903" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F903" s="27"/>
-      <c r="G903" s="27"/>
+      <c r="F903" s="28"/>
+      <c r="G903" s="28"/>
     </row>
     <row r="904" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F904" s="27"/>
-      <c r="G904" s="27"/>
+      <c r="F904" s="28"/>
+      <c r="G904" s="28"/>
     </row>
     <row r="905" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F905" s="27"/>
-      <c r="G905" s="27"/>
+      <c r="F905" s="28"/>
+      <c r="G905" s="28"/>
     </row>
     <row r="906" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F906" s="27"/>
-      <c r="G906" s="27"/>
+      <c r="F906" s="28"/>
+      <c r="G906" s="28"/>
     </row>
     <row r="907" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F907" s="27"/>
-      <c r="G907" s="27"/>
+      <c r="F907" s="28"/>
+      <c r="G907" s="28"/>
     </row>
     <row r="908" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F908" s="27"/>
-      <c r="G908" s="27"/>
+      <c r="F908" s="28"/>
+      <c r="G908" s="28"/>
     </row>
     <row r="909" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F909" s="27"/>
-      <c r="G909" s="27"/>
+      <c r="F909" s="28"/>
+      <c r="G909" s="28"/>
     </row>
     <row r="910" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F910" s="27"/>
-      <c r="G910" s="27"/>
+      <c r="F910" s="28"/>
+      <c r="G910" s="28"/>
     </row>
     <row r="911" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F911" s="27"/>
-      <c r="G911" s="27"/>
+      <c r="F911" s="28"/>
+      <c r="G911" s="28"/>
     </row>
     <row r="912" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F912" s="27"/>
-      <c r="G912" s="27"/>
+      <c r="F912" s="28"/>
+      <c r="G912" s="28"/>
     </row>
     <row r="913" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F913" s="27"/>
-      <c r="G913" s="27"/>
+      <c r="F913" s="28"/>
+      <c r="G913" s="28"/>
     </row>
     <row r="914" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F914" s="27"/>
-      <c r="G914" s="27"/>
+      <c r="F914" s="28"/>
+      <c r="G914" s="28"/>
     </row>
     <row r="915" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F915" s="27"/>
-      <c r="G915" s="27"/>
+      <c r="F915" s="28"/>
+      <c r="G915" s="28"/>
     </row>
     <row r="916" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F916" s="27"/>
-      <c r="G916" s="27"/>
+      <c r="F916" s="28"/>
+      <c r="G916" s="28"/>
     </row>
     <row r="917" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F917" s="27"/>
-      <c r="G917" s="27"/>
+      <c r="F917" s="28"/>
+      <c r="G917" s="28"/>
     </row>
     <row r="918" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F918" s="27"/>
-      <c r="G918" s="27"/>
+      <c r="F918" s="28"/>
+      <c r="G918" s="28"/>
     </row>
     <row r="919" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F919" s="27"/>
-      <c r="G919" s="27"/>
+      <c r="F919" s="28"/>
+      <c r="G919" s="28"/>
     </row>
     <row r="920" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F920" s="27"/>
-      <c r="G920" s="27"/>
+      <c r="F920" s="28"/>
+      <c r="G920" s="28"/>
     </row>
     <row r="921" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F921" s="27"/>
-      <c r="G921" s="27"/>
+      <c r="F921" s="28"/>
+      <c r="G921" s="28"/>
     </row>
     <row r="922" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F922" s="27"/>
-      <c r="G922" s="27"/>
+      <c r="F922" s="28"/>
+      <c r="G922" s="28"/>
     </row>
     <row r="923" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F923" s="27"/>
-      <c r="G923" s="27"/>
+      <c r="F923" s="28"/>
+      <c r="G923" s="28"/>
     </row>
     <row r="924" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F924" s="27"/>
-      <c r="G924" s="27"/>
+      <c r="F924" s="28"/>
+      <c r="G924" s="28"/>
     </row>
     <row r="925" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F925" s="27"/>
-      <c r="G925" s="27"/>
+      <c r="F925" s="28"/>
+      <c r="G925" s="28"/>
     </row>
     <row r="926" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F926" s="27"/>
-      <c r="G926" s="27"/>
+      <c r="F926" s="28"/>
+      <c r="G926" s="28"/>
     </row>
     <row r="927" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F927" s="27"/>
-      <c r="G927" s="27"/>
+      <c r="F927" s="28"/>
+      <c r="G927" s="28"/>
     </row>
     <row r="928" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F928" s="27"/>
-      <c r="G928" s="27"/>
+      <c r="F928" s="28"/>
+      <c r="G928" s="28"/>
     </row>
     <row r="929" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F929" s="27"/>
-      <c r="G929" s="27"/>
+      <c r="F929" s="28"/>
+      <c r="G929" s="28"/>
     </row>
     <row r="930" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F930" s="27"/>
-      <c r="G930" s="27"/>
+      <c r="F930" s="28"/>
+      <c r="G930" s="28"/>
     </row>
     <row r="931" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F931" s="27"/>
-      <c r="G931" s="27"/>
+      <c r="F931" s="28"/>
+      <c r="G931" s="28"/>
     </row>
     <row r="932" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F932" s="27"/>
-      <c r="G932" s="27"/>
+      <c r="F932" s="28"/>
+      <c r="G932" s="28"/>
     </row>
     <row r="933" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F933" s="27"/>
-      <c r="G933" s="27"/>
+      <c r="F933" s="28"/>
+      <c r="G933" s="28"/>
     </row>
     <row r="934" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F934" s="27"/>
-      <c r="G934" s="27"/>
+      <c r="F934" s="28"/>
+      <c r="G934" s="28"/>
     </row>
     <row r="935" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F935" s="27"/>
-      <c r="G935" s="27"/>
+      <c r="F935" s="28"/>
+      <c r="G935" s="28"/>
     </row>
     <row r="936" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F936" s="27"/>
-      <c r="G936" s="27"/>
+      <c r="F936" s="28"/>
+      <c r="G936" s="28"/>
     </row>
     <row r="937" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F937" s="27"/>
-      <c r="G937" s="27"/>
+      <c r="F937" s="28"/>
+      <c r="G937" s="28"/>
     </row>
     <row r="938" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F938" s="27"/>
-      <c r="G938" s="27"/>
+      <c r="F938" s="28"/>
+      <c r="G938" s="28"/>
     </row>
     <row r="939" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F939" s="27"/>
-      <c r="G939" s="27"/>
+      <c r="F939" s="28"/>
+      <c r="G939" s="28"/>
     </row>
     <row r="940" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F940" s="27"/>
-      <c r="G940" s="27"/>
+      <c r="F940" s="28"/>
+      <c r="G940" s="28"/>
     </row>
     <row r="941" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F941" s="27"/>
-      <c r="G941" s="27"/>
+      <c r="F941" s="28"/>
+      <c r="G941" s="28"/>
     </row>
     <row r="942" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F942" s="27"/>
-      <c r="G942" s="27"/>
+      <c r="F942" s="28"/>
+      <c r="G942" s="28"/>
     </row>
     <row r="943" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F943" s="27"/>
-      <c r="G943" s="27"/>
+      <c r="F943" s="28"/>
+      <c r="G943" s="28"/>
     </row>
     <row r="944" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F944" s="27"/>
-      <c r="G944" s="27"/>
+      <c r="F944" s="28"/>
+      <c r="G944" s="28"/>
     </row>
     <row r="945" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F945" s="27"/>
-      <c r="G945" s="27"/>
+      <c r="F945" s="28"/>
+      <c r="G945" s="28"/>
     </row>
     <row r="946" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F946" s="27"/>
-      <c r="G946" s="27"/>
+      <c r="F946" s="28"/>
+      <c r="G946" s="28"/>
     </row>
     <row r="947" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F947" s="27"/>
-      <c r="G947" s="27"/>
+      <c r="F947" s="28"/>
+      <c r="G947" s="28"/>
     </row>
     <row r="948" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F948" s="27"/>
-      <c r="G948" s="27"/>
+      <c r="F948" s="28"/>
+      <c r="G948" s="28"/>
     </row>
     <row r="949" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F949" s="27"/>
-      <c r="G949" s="27"/>
+      <c r="F949" s="28"/>
+      <c r="G949" s="28"/>
     </row>
     <row r="950" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F950" s="27"/>
-      <c r="G950" s="27"/>
+      <c r="F950" s="28"/>
+      <c r="G950" s="28"/>
     </row>
     <row r="951" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F951" s="27"/>
-      <c r="G951" s="27"/>
+      <c r="F951" s="28"/>
+      <c r="G951" s="28"/>
     </row>
     <row r="952" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F952" s="27"/>
-      <c r="G952" s="27"/>
+      <c r="F952" s="28"/>
+      <c r="G952" s="28"/>
     </row>
     <row r="953" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F953" s="27"/>
-      <c r="G953" s="27"/>
+      <c r="F953" s="28"/>
+      <c r="G953" s="28"/>
     </row>
     <row r="954" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F954" s="27"/>
-      <c r="G954" s="27"/>
+      <c r="F954" s="28"/>
+      <c r="G954" s="28"/>
     </row>
     <row r="955" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F955" s="27"/>
-      <c r="G955" s="27"/>
+      <c r="F955" s="28"/>
+      <c r="G955" s="28"/>
     </row>
     <row r="956" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F956" s="27"/>
-      <c r="G956" s="27"/>
+      <c r="F956" s="28"/>
+      <c r="G956" s="28"/>
     </row>
     <row r="957" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F957" s="27"/>
-      <c r="G957" s="27"/>
+      <c r="F957" s="28"/>
+      <c r="G957" s="28"/>
     </row>
     <row r="958" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F958" s="27"/>
-      <c r="G958" s="27"/>
+      <c r="F958" s="28"/>
+      <c r="G958" s="28"/>
     </row>
     <row r="959" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F959" s="27"/>
-      <c r="G959" s="27"/>
+      <c r="F959" s="28"/>
+      <c r="G959" s="28"/>
     </row>
     <row r="960" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F960" s="27"/>
-      <c r="G960" s="27"/>
+      <c r="F960" s="28"/>
+      <c r="G960" s="28"/>
     </row>
     <row r="961" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F961" s="27"/>
-      <c r="G961" s="27"/>
+      <c r="F961" s="28"/>
+      <c r="G961" s="28"/>
     </row>
     <row r="962" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F962" s="27"/>
-      <c r="G962" s="27"/>
+      <c r="F962" s="28"/>
+      <c r="G962" s="28"/>
     </row>
     <row r="963" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F963" s="27"/>
-      <c r="G963" s="27"/>
+      <c r="F963" s="28"/>
+      <c r="G963" s="28"/>
     </row>
     <row r="964" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F964" s="27"/>
-      <c r="G964" s="27"/>
+      <c r="F964" s="28"/>
+      <c r="G964" s="28"/>
     </row>
     <row r="965" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F965" s="27"/>
-      <c r="G965" s="27"/>
+      <c r="F965" s="28"/>
+      <c r="G965" s="28"/>
     </row>
     <row r="966" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F966" s="27"/>
-      <c r="G966" s="27"/>
+      <c r="F966" s="28"/>
+      <c r="G966" s="28"/>
     </row>
     <row r="967" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F967" s="27"/>
-      <c r="G967" s="27"/>
+      <c r="F967" s="28"/>
+      <c r="G967" s="28"/>
     </row>
     <row r="968" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F968" s="27"/>
-      <c r="G968" s="27"/>
+      <c r="F968" s="28"/>
+      <c r="G968" s="28"/>
     </row>
     <row r="969" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F969" s="27"/>
-      <c r="G969" s="27"/>
+      <c r="F969" s="28"/>
+      <c r="G969" s="28"/>
     </row>
     <row r="970" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F970" s="27"/>
-      <c r="G970" s="27"/>
+      <c r="F970" s="28"/>
+      <c r="G970" s="28"/>
     </row>
     <row r="971" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F971" s="27"/>
-      <c r="G971" s="27"/>
+      <c r="F971" s="28"/>
+      <c r="G971" s="28"/>
     </row>
     <row r="972" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F972" s="27"/>
-      <c r="G972" s="27"/>
+      <c r="F972" s="28"/>
+      <c r="G972" s="28"/>
     </row>
     <row r="973" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F973" s="27"/>
-      <c r="G973" s="27"/>
+      <c r="F973" s="28"/>
+      <c r="G973" s="28"/>
     </row>
     <row r="974" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F974" s="27"/>
-      <c r="G974" s="27"/>
+      <c r="F974" s="28"/>
+      <c r="G974" s="28"/>
     </row>
     <row r="975" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F975" s="27"/>
-      <c r="G975" s="27"/>
+      <c r="F975" s="28"/>
+      <c r="G975" s="28"/>
     </row>
     <row r="976" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F976" s="27"/>
-      <c r="G976" s="27"/>
+      <c r="F976" s="28"/>
+      <c r="G976" s="28"/>
     </row>
     <row r="977" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F977" s="27"/>
-      <c r="G977" s="27"/>
+      <c r="F977" s="28"/>
+      <c r="G977" s="28"/>
     </row>
     <row r="978" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F978" s="27"/>
-      <c r="G978" s="27"/>
+      <c r="F978" s="28"/>
+      <c r="G978" s="28"/>
     </row>
     <row r="979" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F979" s="27"/>
-      <c r="G979" s="27"/>
+      <c r="F979" s="28"/>
+      <c r="G979" s="28"/>
     </row>
     <row r="980" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F980" s="27"/>
-      <c r="G980" s="27"/>
+      <c r="F980" s="28"/>
+      <c r="G980" s="28"/>
     </row>
     <row r="981" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F981" s="27"/>
-      <c r="G981" s="27"/>
+      <c r="F981" s="28"/>
+      <c r="G981" s="28"/>
     </row>
     <row r="982" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F982" s="27"/>
-      <c r="G982" s="27"/>
+      <c r="F982" s="28"/>
+      <c r="G982" s="28"/>
     </row>
     <row r="983" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F983" s="27"/>
-      <c r="G983" s="27"/>
+      <c r="F983" s="28"/>
+      <c r="G983" s="28"/>
     </row>
     <row r="984" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F984" s="27"/>
-      <c r="G984" s="27"/>
+      <c r="F984" s="28"/>
+      <c r="G984" s="28"/>
     </row>
     <row r="985" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F985" s="27"/>
-      <c r="G985" s="27"/>
+      <c r="F985" s="28"/>
+      <c r="G985" s="28"/>
     </row>
     <row r="986" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F986" s="27"/>
-      <c r="G986" s="27"/>
+      <c r="F986" s="28"/>
+      <c r="G986" s="28"/>
     </row>
     <row r="987" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F987" s="27"/>
-      <c r="G987" s="27"/>
+      <c r="F987" s="28"/>
+      <c r="G987" s="28"/>
     </row>
     <row r="988" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F988" s="27"/>
-      <c r="G988" s="27"/>
+      <c r="F988" s="28"/>
+      <c r="G988" s="28"/>
     </row>
     <row r="989" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F989" s="27"/>
-      <c r="G989" s="27"/>
+      <c r="F989" s="28"/>
+      <c r="G989" s="28"/>
     </row>
     <row r="990" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F990" s="27"/>
-      <c r="G990" s="27"/>
+      <c r="F990" s="28"/>
+      <c r="G990" s="28"/>
     </row>
     <row r="991" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F991" s="27"/>
-      <c r="G991" s="27"/>
+      <c r="F991" s="28"/>
+      <c r="G991" s="28"/>
     </row>
     <row r="992" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F992" s="27"/>
-      <c r="G992" s="27"/>
+      <c r="F992" s="28"/>
+      <c r="G992" s="28"/>
     </row>
     <row r="993" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F993" s="27"/>
-      <c r="G993" s="27"/>
+      <c r="F993" s="28"/>
+      <c r="G993" s="28"/>
     </row>
     <row r="994" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F994" s="27"/>
-      <c r="G994" s="27"/>
+      <c r="F994" s="28"/>
+      <c r="G994" s="28"/>
     </row>
     <row r="995" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F995" s="27"/>
-      <c r="G995" s="27"/>
+      <c r="F995" s="28"/>
+      <c r="G995" s="28"/>
     </row>
     <row r="996" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F996" s="27"/>
-      <c r="G996" s="27"/>
+      <c r="F996" s="28"/>
+      <c r="G996" s="28"/>
     </row>
     <row r="997" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F997" s="27"/>
-      <c r="G997" s="27"/>
+      <c r="F997" s="28"/>
+      <c r="G997" s="28"/>
     </row>
     <row r="998" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F998" s="27"/>
-      <c r="G998" s="27"/>
+      <c r="F998" s="28"/>
+      <c r="G998" s="28"/>
     </row>
     <row r="999" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F999" s="27"/>
-      <c r="G999" s="27"/>
+      <c r="F999" s="28"/>
+      <c r="G999" s="28"/>
     </row>
     <row r="1000" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1000" s="27"/>
-      <c r="G1000" s="27"/>
+      <c r="F1000" s="28"/>
+      <c r="G1000" s="28"/>
     </row>
     <row r="1001" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1001" s="27"/>
-      <c r="G1001" s="27"/>
+      <c r="F1001" s="28"/>
+      <c r="G1001" s="28"/>
     </row>
     <row r="1002" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1002" s="27"/>
-      <c r="G1002" s="27"/>
+      <c r="F1002" s="28"/>
+      <c r="G1002" s="28"/>
     </row>
     <row r="1003" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1003" s="27"/>
-      <c r="G1003" s="27"/>
+      <c r="F1003" s="28"/>
+      <c r="G1003" s="28"/>
     </row>
     <row r="1004" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1004" s="27"/>
-      <c r="G1004" s="27"/>
+      <c r="F1004" s="28"/>
+      <c r="G1004" s="28"/>
     </row>
     <row r="1005" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1005" s="27"/>
-      <c r="G1005" s="27"/>
+      <c r="F1005" s="28"/>
+      <c r="G1005" s="28"/>
     </row>
     <row r="1006" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1006" s="27"/>
-      <c r="G1006" s="27"/>
+      <c r="F1006" s="28"/>
+      <c r="G1006" s="28"/>
     </row>
     <row r="1007" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1007" s="27"/>
-      <c r="G1007" s="27"/>
+      <c r="F1007" s="28"/>
+      <c r="G1007" s="28"/>
     </row>
     <row r="1008" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1008" s="27"/>
-      <c r="G1008" s="27"/>
+      <c r="F1008" s="28"/>
+      <c r="G1008" s="28"/>
     </row>
     <row r="1009" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1009" s="27"/>
-      <c r="G1009" s="27"/>
+      <c r="F1009" s="28"/>
+      <c r="G1009" s="28"/>
     </row>
     <row r="1010" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1010" s="27"/>
-      <c r="G1010" s="27"/>
+      <c r="F1010" s="28"/>
+      <c r="G1010" s="28"/>
     </row>
     <row r="1011" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1011" s="27"/>
-      <c r="G1011" s="27"/>
+      <c r="F1011" s="28"/>
+      <c r="G1011" s="28"/>
     </row>
     <row r="1012" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1012" s="27"/>
-      <c r="G1012" s="27"/>
+      <c r="F1012" s="28"/>
+      <c r="G1012" s="28"/>
+    </row>
+    <row r="1013" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1013" s="28"/>
+      <c r="G1013" s="28"/>
+    </row>
+    <row r="1014" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1014" s="28"/>
+      <c r="G1014" s="28"/>
+    </row>
+    <row r="1015" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1015" s="28"/>
+      <c r="G1015" s="28"/>
+    </row>
+    <row r="1016" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1016" s="28"/>
+      <c r="G1016" s="28"/>
+    </row>
+    <row r="1017" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1017" s="28"/>
+      <c r="G1017" s="28"/>
+    </row>
+    <row r="1018" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1018" s="28"/>
+      <c r="G1018" s="28"/>
+    </row>
+    <row r="1019" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1019" s="28"/>
+      <c r="G1019" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
+  <mergeCells count="63">
+    <mergeCell ref="A56:B59"/>
+    <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F23:G23"/>
@@ -5406,20 +5680,42 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F51:G54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="A49:B52"/>
     <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F36:G36"/>
@@ -5438,17 +5734,9 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F21 F23:F42 F44:F47 F54:G1012" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F21 F23:F42 F44:F49 F61:G1019 F51" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5465,91 +5753,93 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>63</v>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="31">
-        <v>14</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="32">
+        <v>15</v>
+      </c>
+      <c r="C2" s="32">
+        <v>15</v>
+      </c>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="31">
+      <c r="A3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="32">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>10</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="32">
         <v>20</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>10</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="A6" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="32">
         <v>10</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="33">
-        <v>54</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="34">
+        <v>55</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Release Planning/Release3_ planning.xlsx
+++ b/Release Planning/Release3_ planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7994E-33D5-4307-A863-6627AB823768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FEB873-D822-460A-8478-E4325BD00325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>WP</t>
   </si>
@@ -347,7 +347,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +405,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,50 +731,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,15 +781,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,18 +790,43 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:G1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1062,13 +1078,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1081,11 +1097,11 @@
         <v>4</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1096,11 +1112,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1109,11 +1125,11 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1122,11 +1138,11 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1135,11 +1151,11 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1148,11 +1164,11 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1161,11 +1177,11 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1176,11 +1192,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1189,11 +1205,11 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1204,11 +1220,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1217,11 +1233,11 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1230,11 +1246,11 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1243,11 +1259,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1258,11 +1274,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1271,11 +1287,11 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1286,11 +1302,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1300,12 +1316,14 @@
       <c r="D18" s="7">
         <v>0.5</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="E18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1314,11 +1332,11 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1328,12 +1346,14 @@
       <c r="D20" s="7">
         <v>0.5</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="E20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1342,8 +1362,8 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1351,11 +1371,11 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="57"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1368,13 +1388,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="37"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
@@ -1385,13 +1405,13 @@
         <v>4</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1400,11 +1420,11 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
@@ -1413,11 +1433,11 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
@@ -1426,11 +1446,11 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
@@ -1439,11 +1459,11 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
@@ -1452,11 +1472,11 @@
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
@@ -1466,12 +1486,16 @@
       <c r="D30" s="7">
         <v>3</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="8">
+        <v>3</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5" t="s">
         <v>43</v>
       </c>
@@ -1480,11 +1504,11 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
@@ -1494,12 +1518,16 @@
       <c r="D32" s="7">
         <v>3</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+      <c r="E32" s="8">
+        <v>3</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="81"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -1508,11 +1536,11 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5" t="s">
         <v>46</v>
       </c>
@@ -1521,11 +1549,11 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
@@ -1534,11 +1562,11 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
@@ -1549,11 +1577,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
@@ -1562,11 +1590,11 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="5" t="s">
         <v>50</v>
       </c>
@@ -1577,11 +1605,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
@@ -1592,11 +1620,11 @@
         <v>1</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
@@ -1605,11 +1633,11 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="5" t="s">
         <v>53</v>
       </c>
@@ -1620,11 +1648,11 @@
         <v>1</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="5" t="s">
         <v>54</v>
       </c>
@@ -1633,8 +1661,8 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
@@ -1642,11 +1670,11 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="37"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="71" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -1656,12 +1684,12 @@
         <v>8</v>
       </c>
       <c r="D44" s="20"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="37"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="19" t="s">
         <v>57</v>
       </c>
@@ -1669,12 +1697,12 @@
         <v>13</v>
       </c>
       <c r="D45" s="20"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="19" t="s">
         <v>58</v>
       </c>
@@ -1682,12 +1710,12 @@
         <v>13</v>
       </c>
       <c r="D46" s="20"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="19" t="s">
         <v>59</v>
       </c>
@@ -1697,31 +1725,31 @@
       <c r="D47" s="20">
         <v>1</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="36">
         <v>1</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="59"/>
+      <c r="G47" s="78"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
@@ -1729,65 +1757,65 @@
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="37"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40" t="s">
+      <c r="B51" s="75"/>
+      <c r="C51" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="76">
         <v>3</v>
       </c>
-      <c r="E51" s="69"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="63"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="57"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="37"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="51"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="22" t="s">
         <v>62</v>
       </c>
@@ -1795,43 +1823,43 @@
         <v>63</v>
       </c>
       <c r="E56" s="23"/>
-      <c r="F56" s="54" t="s">
+      <c r="F56" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="55"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="25"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="62"/>
     </row>
     <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="25"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="77"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
     </row>
     <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="25"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="79"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="28"/>
@@ -5671,6 +5699,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
@@ -5687,56 +5762,9 @@
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F21 F23:F42 F44:F49 F61:G1019 F51" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1019 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Release Planning/Release3_ planning.xlsx
+++ b/Release Planning/Release3_ planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FEB873-D822-460A-8478-E4325BD00325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543BC20-EFCF-4740-9959-4EE7DBE500B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>WP</t>
   </si>
@@ -740,24 +740,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,34 +821,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:G1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1078,13 +1078,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1097,11 +1097,11 @@
         <v>4</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1112,11 +1112,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1125,11 +1125,11 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1138,11 +1138,11 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1151,11 +1151,11 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1191,12 +1191,16 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1205,11 +1209,11 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1219,12 +1223,16 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1233,11 +1241,11 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1246,11 +1254,11 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1259,11 +1267,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1274,11 +1282,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1287,11 +1295,11 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1302,11 +1310,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1319,11 +1327,11 @@
       <c r="E18" s="8">
         <v>0.5</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1332,11 +1340,11 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1349,11 +1357,11 @@
       <c r="E20" s="8">
         <v>0.5</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1362,8 +1370,8 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1371,11 +1379,11 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="80" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1388,13 +1396,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
@@ -1405,13 +1413,13 @@
         <v>4</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1420,11 +1428,11 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
@@ -1433,11 +1441,11 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
@@ -1446,11 +1454,11 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
@@ -1459,11 +1467,11 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
@@ -1472,11 +1480,11 @@
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
@@ -1489,13 +1497,13 @@
       <c r="E30" s="8">
         <v>3</v>
       </c>
-      <c r="F30" s="80" t="s">
+      <c r="F30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="81"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="5" t="s">
         <v>43</v>
       </c>
@@ -1504,11 +1512,11 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
@@ -1521,13 +1529,13 @@
       <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="81"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -1536,11 +1544,11 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="5" t="s">
         <v>46</v>
       </c>
@@ -1549,11 +1557,11 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
@@ -1562,11 +1570,11 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
@@ -1577,11 +1585,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
@@ -1590,11 +1598,11 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="5" t="s">
         <v>50</v>
       </c>
@@ -1605,11 +1613,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
@@ -1620,11 +1628,11 @@
         <v>1</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
@@ -1633,11 +1641,11 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="5" t="s">
         <v>53</v>
       </c>
@@ -1648,11 +1656,11 @@
         <v>1</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="5" t="s">
         <v>54</v>
       </c>
@@ -1661,8 +1669,8 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
@@ -1670,11 +1678,11 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="48"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="81" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -1685,11 +1693,11 @@
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="36"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="19" t="s">
         <v>57</v>
       </c>
@@ -1698,11 +1706,11 @@
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="36"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="19" t="s">
         <v>58</v>
       </c>
@@ -1711,11 +1719,11 @@
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="36"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="19" t="s">
         <v>59</v>
       </c>
@@ -1728,28 +1736,28 @@
       <c r="E47" s="36">
         <v>1</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="78"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="36"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="36"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
@@ -1757,65 +1765,65 @@
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="48"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75" t="s">
+      <c r="B51" s="52"/>
+      <c r="C51" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="76">
+      <c r="D51" s="55">
         <v>3</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="68"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="69"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="57"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="48"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="40"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="22" t="s">
         <v>62</v>
       </c>
@@ -1823,43 +1831,43 @@
         <v>63</v>
       </c>
       <c r="E56" s="23"/>
-      <c r="F56" s="45" t="s">
+      <c r="F56" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="46"/>
+      <c r="G56" s="61"/>
     </row>
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="37"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="74"/>
     </row>
     <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="37"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="76"/>
     </row>
     <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="38"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="66"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="78"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="28"/>
@@ -5699,53 +5707,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
@@ -5762,6 +5723,53 @@
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A49"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1019 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Release Planning/Release3_ planning.xlsx
+++ b/Release Planning/Release3_ planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543BC20-EFCF-4740-9959-4EE7DBE500B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9BC33-E8FD-4DF1-9164-773C45865EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>WP</t>
   </si>
@@ -740,46 +740,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,12 +799,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:G1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1078,13 +1078,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1097,11 +1097,11 @@
         <v>4</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1112,11 +1112,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1125,11 +1125,11 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1138,11 +1138,11 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1151,11 +1151,11 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1194,13 +1194,13 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1209,11 +1209,11 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1226,13 +1226,13 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="43"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1241,11 +1241,11 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1254,11 +1254,11 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1282,11 +1282,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1295,11 +1295,11 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1310,11 +1310,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1327,11 +1327,13 @@
       <c r="E18" s="8">
         <v>0.5</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1340,11 +1342,11 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1357,11 +1359,13 @@
       <c r="E20" s="8">
         <v>0.5</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1370,8 +1374,8 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1379,11 +1383,11 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1396,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
@@ -1413,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="40"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1428,11 +1432,11 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
@@ -1441,11 +1445,11 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
@@ -1454,11 +1458,11 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
@@ -1467,11 +1471,11 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
@@ -1480,11 +1484,11 @@
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
@@ -1497,13 +1501,13 @@
       <c r="E30" s="8">
         <v>3</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="43"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5" t="s">
         <v>43</v>
       </c>
@@ -1512,11 +1516,11 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
@@ -1529,13 +1533,13 @@
       <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="73"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -1544,11 +1548,11 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5" t="s">
         <v>46</v>
       </c>
@@ -1557,11 +1561,11 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
@@ -1570,11 +1574,11 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
@@ -1585,11 +1589,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
@@ -1598,11 +1602,11 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="5" t="s">
         <v>50</v>
       </c>
@@ -1613,11 +1617,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="40"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
@@ -1627,12 +1631,16 @@
       <c r="D39" s="7">
         <v>1</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
@@ -1641,11 +1649,11 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="5" t="s">
         <v>53</v>
       </c>
@@ -1655,12 +1663,16 @@
       <c r="D41" s="7">
         <v>1</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40"/>
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="73"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="5" t="s">
         <v>54</v>
       </c>
@@ -1669,8 +1681,8 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
@@ -1678,11 +1690,11 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="40"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="71" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -1693,11 +1705,11 @@
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="36"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="19" t="s">
         <v>57</v>
       </c>
@@ -1706,11 +1718,11 @@
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="36"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="19" t="s">
         <v>58</v>
       </c>
@@ -1719,11 +1731,11 @@
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="36"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="19" t="s">
         <v>59</v>
       </c>
@@ -1736,28 +1748,28 @@
       <c r="E47" s="36">
         <v>1</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="46"/>
+      <c r="G47" s="80"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="36"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="36"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
@@ -1765,65 +1777,65 @@
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="40"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52" t="s">
+      <c r="B51" s="77"/>
+      <c r="C51" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="55">
+      <c r="D51" s="78">
         <v>3</v>
       </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="57"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="40"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="22" t="s">
         <v>62</v>
       </c>
@@ -1831,43 +1843,43 @@
         <v>63</v>
       </c>
       <c r="E56" s="23"/>
-      <c r="F56" s="60" t="s">
+      <c r="F56" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="61"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="53"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="37"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="74"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="62"/>
     </row>
     <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="37"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="76"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
     </row>
     <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="54"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="38"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="78"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="28"/>
@@ -5707,6 +5719,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
@@ -5723,56 +5782,9 @@
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A49"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F23:F42 F44:F49 F61:G1019 F1:F21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1019 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Release Planning/Release3_ planning.xlsx
+++ b/Release Planning/Release3_ planning.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9BC33-E8FD-4DF1-9164-773C45865EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D881CC-5B92-45A9-A28C-70208BE4B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
     <sheet name="Time Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
   <si>
     <t>WP</t>
   </si>
@@ -129,9 +142,6 @@
     <t>Create System Design for Registration page</t>
   </si>
   <si>
-    <t xml:space="preserve"> Doing</t>
-  </si>
-  <si>
     <t>Create System Design for Login page</t>
   </si>
   <si>
@@ -211,19 +221,10 @@
     <t>Overall release % of work Status</t>
   </si>
   <si>
-    <t>Total Tasks 45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tasks in % </t>
   </si>
   <si>
     <t>Total Time Spent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To do</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Done</t>
   </si>
   <si>
     <t>Team Members</t>
@@ -249,13 +250,22 @@
   <si>
     <t>Release 4
 Planning</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Total Tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -322,12 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="17"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="17"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -346,8 +350,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,8 +460,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -528,17 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -642,11 +677,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,24 +763,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,40 +777,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,16 +828,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,46 +837,71 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,10 +1121,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G1019"/>
+  <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1132,7 @@
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
@@ -1078,30 +1153,34 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1109,79 +1188,113 @@
         <v>8</v>
       </c>
       <c r="D3" s="7">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1194,26 +1307,32 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="73"/>
+      <c r="F9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1226,52 +1345,70 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="73"/>
+      <c r="F11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="D13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1281,25 +1418,35 @@
       <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1309,12 +1456,16 @@
       <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1327,26 +1478,32 @@
       <c r="E18" s="8">
         <v>0.5</v>
       </c>
-      <c r="F18" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="73"/>
+      <c r="F18" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="D19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1359,23 +1516,29 @@
       <c r="E20" s="8">
         <v>0.5</v>
       </c>
-      <c r="F20" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="73"/>
+      <c r="F20" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="D21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1383,11 +1546,11 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="57" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1399,16 +1562,18 @@
       <c r="D23" s="7">
         <v>4</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="49" t="s">
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
@@ -1416,81 +1581,109 @@
       <c r="D24" s="7">
         <v>4</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="48"/>
+      <c r="E24" s="8">
+        <v>6</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7">
+        <v>2.5</v>
+      </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="F25" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7">
+        <v>2.5</v>
+      </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
+      <c r="F27" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>19</v>
@@ -1501,28 +1694,34 @@
       <c r="E30" s="8">
         <v>3</v>
       </c>
-      <c r="F30" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="73"/>
+      <c r="F30" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>19</v>
@@ -1533,54 +1732,70 @@
       <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="73"/>
+      <c r="F32" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
+      <c r="D33" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
+      <c r="D34" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
+      <c r="F35" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>8</v>
@@ -1588,27 +1803,35 @@
       <c r="D36" s="7">
         <v>1</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
+      <c r="F37" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -1616,14 +1839,18 @@
       <c r="D38" s="7">
         <v>1</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>19</v>
@@ -1634,28 +1861,34 @@
       <c r="E39" s="8">
         <v>1</v>
       </c>
-      <c r="F39" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="73"/>
+      <c r="F39" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>19</v>
@@ -1666,23 +1899,29 @@
       <c r="E41" s="8">
         <v>1</v>
       </c>
-      <c r="F41" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="73"/>
+      <c r="F41" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
@@ -1690,54 +1929,72 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="48"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
+      <c r="D44" s="20">
+        <v>2</v>
+      </c>
+      <c r="E44" s="28">
+        <v>2</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
+      <c r="D45" s="20">
+        <v>1</v>
+      </c>
+      <c r="E45" s="28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
+      <c r="D46" s="20">
+        <v>1</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>19</v>
@@ -1745,31 +2002,31 @@
       <c r="D47" s="20">
         <v>1</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="28">
         <v>1</v>
       </c>
-      <c r="F47" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="80"/>
+      <c r="F47" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
@@ -1777,3948 +2034,3987 @@
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="48"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77" t="s">
+      <c r="A51" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="78">
+      <c r="D51" s="41">
         <v>3</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="68"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="69"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="57"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="48"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="72"/>
+      <c r="C56" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="79">
+        <v>45</v>
+      </c>
+      <c r="E56" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="22" t="s">
+      <c r="F56" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" s="46"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="61"/>
+      <c r="G56" s="48"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="76">
+        <v>2</v>
+      </c>
+      <c r="E57" s="75">
+        <f>(D57/D56)</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F57" s="61">
+        <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
+        <v>57.8</v>
+      </c>
       <c r="G57" s="62"/>
     </row>
-    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="37"/>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="77">
+        <v>3</v>
+      </c>
+      <c r="E58" s="75">
+        <f>D58/D56</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="F58" s="63"/>
       <c r="G58" s="64"/>
     </row>
-    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="38"/>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="78">
+        <v>40</v>
+      </c>
+      <c r="E59" s="75">
+        <f>D59/D56</f>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="F59" s="65"/>
       <c r="G59" s="66"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
     </row>
     <row r="72" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
     </row>
     <row r="73" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
     </row>
     <row r="83" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
     </row>
     <row r="84" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="89" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
     </row>
     <row r="92" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
     </row>
     <row r="93" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
     </row>
     <row r="96" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
     </row>
     <row r="99" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
     </row>
     <row r="101" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
     </row>
     <row r="103" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
     </row>
     <row r="104" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
     </row>
     <row r="105" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
     </row>
     <row r="106" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
     </row>
     <row r="107" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
     </row>
     <row r="109" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
     </row>
     <row r="110" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
     </row>
     <row r="111" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
     </row>
     <row r="112" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
     </row>
     <row r="114" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
     </row>
     <row r="115" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
     </row>
     <row r="116" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
     </row>
     <row r="118" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
     </row>
     <row r="119" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
     </row>
     <row r="120" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
     </row>
     <row r="121" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
     </row>
     <row r="123" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
     </row>
     <row r="124" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
     </row>
     <row r="126" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
     </row>
     <row r="127" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
     </row>
     <row r="130" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
     </row>
     <row r="131" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
     </row>
     <row r="132" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
     </row>
     <row r="134" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
     </row>
     <row r="135" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
     </row>
     <row r="137" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
     </row>
     <row r="138" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
     </row>
     <row r="139" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
     </row>
     <row r="140" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
     </row>
     <row r="141" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
     </row>
     <row r="142" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
     </row>
     <row r="144" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
     </row>
     <row r="145" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
     </row>
     <row r="146" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
     </row>
     <row r="147" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
     </row>
     <row r="148" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
     </row>
     <row r="149" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
     </row>
     <row r="150" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
     </row>
     <row r="151" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
     </row>
     <row r="152" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
     </row>
     <row r="153" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
     </row>
     <row r="154" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
     </row>
     <row r="155" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
     </row>
     <row r="156" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
     </row>
     <row r="157" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
     </row>
     <row r="158" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F158" s="28"/>
-      <c r="G158" s="28"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
     </row>
     <row r="159" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F159" s="28"/>
-      <c r="G159" s="28"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
     </row>
     <row r="160" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
     </row>
     <row r="161" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
     </row>
     <row r="162" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
     </row>
     <row r="163" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
     </row>
     <row r="164" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
     </row>
     <row r="165" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
     </row>
     <row r="166" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F166" s="28"/>
-      <c r="G166" s="28"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
     </row>
     <row r="167" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
     </row>
     <row r="168" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
     </row>
     <row r="169" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
     </row>
     <row r="170" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F170" s="28"/>
-      <c r="G170" s="28"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
     </row>
     <row r="171" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
     </row>
     <row r="172" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
     </row>
     <row r="173" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
     </row>
     <row r="174" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
     </row>
     <row r="175" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
     </row>
     <row r="176" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
     </row>
     <row r="177" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
     </row>
     <row r="178" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
     </row>
     <row r="179" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
     </row>
     <row r="180" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F180" s="28"/>
-      <c r="G180" s="28"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
     </row>
     <row r="181" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F181" s="28"/>
-      <c r="G181" s="28"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
     </row>
     <row r="182" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F182" s="28"/>
-      <c r="G182" s="28"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
     </row>
     <row r="183" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
     </row>
     <row r="184" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F184" s="28"/>
-      <c r="G184" s="28"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
     </row>
     <row r="185" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
     </row>
     <row r="186" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F186" s="28"/>
-      <c r="G186" s="28"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
     </row>
     <row r="187" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
     </row>
     <row r="188" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F188" s="28"/>
-      <c r="G188" s="28"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
     </row>
     <row r="189" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F189" s="28"/>
-      <c r="G189" s="28"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
     </row>
     <row r="190" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
     </row>
     <row r="191" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
     </row>
     <row r="192" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F192" s="28"/>
-      <c r="G192" s="28"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
     </row>
     <row r="193" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
     </row>
     <row r="194" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F194" s="28"/>
-      <c r="G194" s="28"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
     </row>
     <row r="195" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F195" s="28"/>
-      <c r="G195" s="28"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
     </row>
     <row r="196" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F196" s="28"/>
-      <c r="G196" s="28"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
     </row>
     <row r="197" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F197" s="28"/>
-      <c r="G197" s="28"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
     </row>
     <row r="198" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F198" s="28"/>
-      <c r="G198" s="28"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
     </row>
     <row r="199" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F199" s="28"/>
-      <c r="G199" s="28"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
     </row>
     <row r="200" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F200" s="28"/>
-      <c r="G200" s="28"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
     </row>
     <row r="201" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F201" s="28"/>
-      <c r="G201" s="28"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
     </row>
     <row r="202" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F202" s="28"/>
-      <c r="G202" s="28"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
     </row>
     <row r="203" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F203" s="28"/>
-      <c r="G203" s="28"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
     </row>
     <row r="204" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F204" s="28"/>
-      <c r="G204" s="28"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
     </row>
     <row r="205" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F205" s="28"/>
-      <c r="G205" s="28"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
     </row>
     <row r="206" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F206" s="28"/>
-      <c r="G206" s="28"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
     </row>
     <row r="207" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F207" s="28"/>
-      <c r="G207" s="28"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
     </row>
     <row r="208" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F208" s="28"/>
-      <c r="G208" s="28"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
     </row>
     <row r="209" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F209" s="28"/>
-      <c r="G209" s="28"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
     </row>
     <row r="210" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F210" s="28"/>
-      <c r="G210" s="28"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
     </row>
     <row r="211" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F211" s="28"/>
-      <c r="G211" s="28"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
     </row>
     <row r="212" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F212" s="28"/>
-      <c r="G212" s="28"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
     </row>
     <row r="213" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F213" s="28"/>
-      <c r="G213" s="28"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
     </row>
     <row r="214" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F214" s="28"/>
-      <c r="G214" s="28"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
     </row>
     <row r="215" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F215" s="28"/>
-      <c r="G215" s="28"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
     </row>
     <row r="216" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F216" s="28"/>
-      <c r="G216" s="28"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
     </row>
     <row r="217" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F217" s="28"/>
-      <c r="G217" s="28"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
     </row>
     <row r="218" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F218" s="28"/>
-      <c r="G218" s="28"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
     </row>
     <row r="219" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F219" s="28"/>
-      <c r="G219" s="28"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
     </row>
     <row r="220" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F220" s="28"/>
-      <c r="G220" s="28"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
     </row>
     <row r="221" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F221" s="28"/>
-      <c r="G221" s="28"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
     </row>
     <row r="222" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F222" s="28"/>
-      <c r="G222" s="28"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
     </row>
     <row r="223" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F223" s="28"/>
-      <c r="G223" s="28"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
     </row>
     <row r="224" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F224" s="28"/>
-      <c r="G224" s="28"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
     </row>
     <row r="225" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F225" s="28"/>
-      <c r="G225" s="28"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
     </row>
     <row r="226" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F226" s="28"/>
-      <c r="G226" s="28"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
     </row>
     <row r="227" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F227" s="28"/>
-      <c r="G227" s="28"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
     </row>
     <row r="228" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F228" s="28"/>
-      <c r="G228" s="28"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
     </row>
     <row r="229" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F229" s="28"/>
-      <c r="G229" s="28"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
     </row>
     <row r="230" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F230" s="28"/>
-      <c r="G230" s="28"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
     </row>
     <row r="231" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F231" s="28"/>
-      <c r="G231" s="28"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="22"/>
     </row>
     <row r="232" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F232" s="28"/>
-      <c r="G232" s="28"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
     </row>
     <row r="233" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F233" s="28"/>
-      <c r="G233" s="28"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
     </row>
     <row r="234" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F234" s="28"/>
-      <c r="G234" s="28"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
     </row>
     <row r="235" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F235" s="28"/>
-      <c r="G235" s="28"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
     </row>
     <row r="236" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F236" s="28"/>
-      <c r="G236" s="28"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="22"/>
     </row>
     <row r="237" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F237" s="28"/>
-      <c r="G237" s="28"/>
+      <c r="F237" s="22"/>
+      <c r="G237" s="22"/>
     </row>
     <row r="238" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F238" s="28"/>
-      <c r="G238" s="28"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="22"/>
     </row>
     <row r="239" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F239" s="28"/>
-      <c r="G239" s="28"/>
+      <c r="F239" s="22"/>
+      <c r="G239" s="22"/>
     </row>
     <row r="240" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F240" s="28"/>
-      <c r="G240" s="28"/>
+      <c r="F240" s="22"/>
+      <c r="G240" s="22"/>
     </row>
     <row r="241" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F241" s="28"/>
-      <c r="G241" s="28"/>
+      <c r="F241" s="22"/>
+      <c r="G241" s="22"/>
     </row>
     <row r="242" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F242" s="28"/>
-      <c r="G242" s="28"/>
+      <c r="F242" s="22"/>
+      <c r="G242" s="22"/>
     </row>
     <row r="243" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F243" s="28"/>
-      <c r="G243" s="28"/>
+      <c r="F243" s="22"/>
+      <c r="G243" s="22"/>
     </row>
     <row r="244" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F244" s="28"/>
-      <c r="G244" s="28"/>
+      <c r="F244" s="22"/>
+      <c r="G244" s="22"/>
     </row>
     <row r="245" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F245" s="28"/>
-      <c r="G245" s="28"/>
+      <c r="F245" s="22"/>
+      <c r="G245" s="22"/>
     </row>
     <row r="246" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F246" s="28"/>
-      <c r="G246" s="28"/>
+      <c r="F246" s="22"/>
+      <c r="G246" s="22"/>
     </row>
     <row r="247" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F247" s="28"/>
-      <c r="G247" s="28"/>
+      <c r="F247" s="22"/>
+      <c r="G247" s="22"/>
     </row>
     <row r="248" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F248" s="28"/>
-      <c r="G248" s="28"/>
+      <c r="F248" s="22"/>
+      <c r="G248" s="22"/>
     </row>
     <row r="249" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F249" s="28"/>
-      <c r="G249" s="28"/>
+      <c r="F249" s="22"/>
+      <c r="G249" s="22"/>
     </row>
     <row r="250" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F250" s="28"/>
-      <c r="G250" s="28"/>
+      <c r="F250" s="22"/>
+      <c r="G250" s="22"/>
     </row>
     <row r="251" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F251" s="28"/>
-      <c r="G251" s="28"/>
+      <c r="F251" s="22"/>
+      <c r="G251" s="22"/>
     </row>
     <row r="252" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F252" s="28"/>
-      <c r="G252" s="28"/>
+      <c r="F252" s="22"/>
+      <c r="G252" s="22"/>
     </row>
     <row r="253" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F253" s="28"/>
-      <c r="G253" s="28"/>
+      <c r="F253" s="22"/>
+      <c r="G253" s="22"/>
     </row>
     <row r="254" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F254" s="28"/>
-      <c r="G254" s="28"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="22"/>
     </row>
     <row r="255" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F255" s="28"/>
-      <c r="G255" s="28"/>
+      <c r="F255" s="22"/>
+      <c r="G255" s="22"/>
     </row>
     <row r="256" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F256" s="28"/>
-      <c r="G256" s="28"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="22"/>
     </row>
     <row r="257" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F257" s="28"/>
-      <c r="G257" s="28"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="22"/>
     </row>
     <row r="258" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F258" s="28"/>
-      <c r="G258" s="28"/>
+      <c r="F258" s="22"/>
+      <c r="G258" s="22"/>
     </row>
     <row r="259" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F259" s="28"/>
-      <c r="G259" s="28"/>
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
     </row>
     <row r="260" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F260" s="28"/>
-      <c r="G260" s="28"/>
+      <c r="F260" s="22"/>
+      <c r="G260" s="22"/>
     </row>
     <row r="261" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F261" s="28"/>
-      <c r="G261" s="28"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
     </row>
     <row r="262" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F262" s="28"/>
-      <c r="G262" s="28"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
     </row>
     <row r="263" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F263" s="28"/>
-      <c r="G263" s="28"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
     </row>
     <row r="264" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F264" s="28"/>
-      <c r="G264" s="28"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="22"/>
     </row>
     <row r="265" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F265" s="28"/>
-      <c r="G265" s="28"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="22"/>
     </row>
     <row r="266" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F266" s="28"/>
-      <c r="G266" s="28"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="22"/>
     </row>
     <row r="267" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F267" s="28"/>
-      <c r="G267" s="28"/>
+      <c r="F267" s="22"/>
+      <c r="G267" s="22"/>
     </row>
     <row r="268" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F268" s="28"/>
-      <c r="G268" s="28"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="22"/>
     </row>
     <row r="269" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F269" s="28"/>
-      <c r="G269" s="28"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
     </row>
     <row r="270" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F270" s="28"/>
-      <c r="G270" s="28"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
     </row>
     <row r="271" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F271" s="28"/>
-      <c r="G271" s="28"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
     </row>
     <row r="272" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F272" s="28"/>
-      <c r="G272" s="28"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
     </row>
     <row r="273" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F273" s="28"/>
-      <c r="G273" s="28"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="22"/>
     </row>
     <row r="274" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F274" s="28"/>
-      <c r="G274" s="28"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="22"/>
     </row>
     <row r="275" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F275" s="28"/>
-      <c r="G275" s="28"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="22"/>
     </row>
     <row r="276" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F276" s="28"/>
-      <c r="G276" s="28"/>
+      <c r="F276" s="22"/>
+      <c r="G276" s="22"/>
     </row>
     <row r="277" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F277" s="28"/>
-      <c r="G277" s="28"/>
+      <c r="F277" s="22"/>
+      <c r="G277" s="22"/>
     </row>
     <row r="278" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F278" s="28"/>
-      <c r="G278" s="28"/>
+      <c r="F278" s="22"/>
+      <c r="G278" s="22"/>
     </row>
     <row r="279" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F279" s="28"/>
-      <c r="G279" s="28"/>
+      <c r="F279" s="22"/>
+      <c r="G279" s="22"/>
     </row>
     <row r="280" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F280" s="28"/>
-      <c r="G280" s="28"/>
+      <c r="F280" s="22"/>
+      <c r="G280" s="22"/>
     </row>
     <row r="281" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F281" s="28"/>
-      <c r="G281" s="28"/>
+      <c r="F281" s="22"/>
+      <c r="G281" s="22"/>
     </row>
     <row r="282" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F282" s="28"/>
-      <c r="G282" s="28"/>
+      <c r="F282" s="22"/>
+      <c r="G282" s="22"/>
     </row>
     <row r="283" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F283" s="28"/>
-      <c r="G283" s="28"/>
+      <c r="F283" s="22"/>
+      <c r="G283" s="22"/>
     </row>
     <row r="284" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F284" s="28"/>
-      <c r="G284" s="28"/>
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
     </row>
     <row r="285" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F285" s="28"/>
-      <c r="G285" s="28"/>
+      <c r="F285" s="22"/>
+      <c r="G285" s="22"/>
     </row>
     <row r="286" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F286" s="28"/>
-      <c r="G286" s="28"/>
+      <c r="F286" s="22"/>
+      <c r="G286" s="22"/>
     </row>
     <row r="287" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F287" s="28"/>
-      <c r="G287" s="28"/>
+      <c r="F287" s="22"/>
+      <c r="G287" s="22"/>
     </row>
     <row r="288" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F288" s="28"/>
-      <c r="G288" s="28"/>
+      <c r="F288" s="22"/>
+      <c r="G288" s="22"/>
     </row>
     <row r="289" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F289" s="28"/>
-      <c r="G289" s="28"/>
+      <c r="F289" s="22"/>
+      <c r="G289" s="22"/>
     </row>
     <row r="290" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F290" s="28"/>
-      <c r="G290" s="28"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
     </row>
     <row r="291" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F291" s="28"/>
-      <c r="G291" s="28"/>
+      <c r="F291" s="22"/>
+      <c r="G291" s="22"/>
     </row>
     <row r="292" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F292" s="28"/>
-      <c r="G292" s="28"/>
+      <c r="F292" s="22"/>
+      <c r="G292" s="22"/>
     </row>
     <row r="293" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F293" s="28"/>
-      <c r="G293" s="28"/>
+      <c r="F293" s="22"/>
+      <c r="G293" s="22"/>
     </row>
     <row r="294" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F294" s="28"/>
-      <c r="G294" s="28"/>
+      <c r="F294" s="22"/>
+      <c r="G294" s="22"/>
     </row>
     <row r="295" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F295" s="28"/>
-      <c r="G295" s="28"/>
+      <c r="F295" s="22"/>
+      <c r="G295" s="22"/>
     </row>
     <row r="296" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F296" s="28"/>
-      <c r="G296" s="28"/>
+      <c r="F296" s="22"/>
+      <c r="G296" s="22"/>
     </row>
     <row r="297" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F297" s="28"/>
-      <c r="G297" s="28"/>
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
     </row>
     <row r="298" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F298" s="28"/>
-      <c r="G298" s="28"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
     </row>
     <row r="299" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F299" s="28"/>
-      <c r="G299" s="28"/>
+      <c r="F299" s="22"/>
+      <c r="G299" s="22"/>
     </row>
     <row r="300" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F300" s="28"/>
-      <c r="G300" s="28"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
     </row>
     <row r="301" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F301" s="28"/>
-      <c r="G301" s="28"/>
+      <c r="F301" s="22"/>
+      <c r="G301" s="22"/>
     </row>
     <row r="302" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F302" s="28"/>
-      <c r="G302" s="28"/>
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
     </row>
     <row r="303" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F303" s="28"/>
-      <c r="G303" s="28"/>
+      <c r="F303" s="22"/>
+      <c r="G303" s="22"/>
     </row>
     <row r="304" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F304" s="28"/>
-      <c r="G304" s="28"/>
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
     </row>
     <row r="305" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F305" s="28"/>
-      <c r="G305" s="28"/>
+      <c r="F305" s="22"/>
+      <c r="G305" s="22"/>
     </row>
     <row r="306" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F306" s="28"/>
-      <c r="G306" s="28"/>
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
     </row>
     <row r="307" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F307" s="28"/>
-      <c r="G307" s="28"/>
+      <c r="F307" s="22"/>
+      <c r="G307" s="22"/>
     </row>
     <row r="308" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F308" s="28"/>
-      <c r="G308" s="28"/>
+      <c r="F308" s="22"/>
+      <c r="G308" s="22"/>
     </row>
     <row r="309" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F309" s="28"/>
-      <c r="G309" s="28"/>
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
     </row>
     <row r="310" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F310" s="28"/>
-      <c r="G310" s="28"/>
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
     </row>
     <row r="311" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F311" s="28"/>
-      <c r="G311" s="28"/>
+      <c r="F311" s="22"/>
+      <c r="G311" s="22"/>
     </row>
     <row r="312" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F312" s="28"/>
-      <c r="G312" s="28"/>
+      <c r="F312" s="22"/>
+      <c r="G312" s="22"/>
     </row>
     <row r="313" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F313" s="28"/>
-      <c r="G313" s="28"/>
+      <c r="F313" s="22"/>
+      <c r="G313" s="22"/>
     </row>
     <row r="314" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F314" s="28"/>
-      <c r="G314" s="28"/>
+      <c r="F314" s="22"/>
+      <c r="G314" s="22"/>
     </row>
     <row r="315" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F315" s="28"/>
-      <c r="G315" s="28"/>
+      <c r="F315" s="22"/>
+      <c r="G315" s="22"/>
     </row>
     <row r="316" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F316" s="28"/>
-      <c r="G316" s="28"/>
+      <c r="F316" s="22"/>
+      <c r="G316" s="22"/>
     </row>
     <row r="317" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F317" s="28"/>
-      <c r="G317" s="28"/>
+      <c r="F317" s="22"/>
+      <c r="G317" s="22"/>
     </row>
     <row r="318" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F318" s="28"/>
-      <c r="G318" s="28"/>
+      <c r="F318" s="22"/>
+      <c r="G318" s="22"/>
     </row>
     <row r="319" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F319" s="28"/>
-      <c r="G319" s="28"/>
+      <c r="F319" s="22"/>
+      <c r="G319" s="22"/>
     </row>
     <row r="320" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F320" s="28"/>
-      <c r="G320" s="28"/>
+      <c r="F320" s="22"/>
+      <c r="G320" s="22"/>
     </row>
     <row r="321" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F321" s="28"/>
-      <c r="G321" s="28"/>
+      <c r="F321" s="22"/>
+      <c r="G321" s="22"/>
     </row>
     <row r="322" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F322" s="28"/>
-      <c r="G322" s="28"/>
+      <c r="F322" s="22"/>
+      <c r="G322" s="22"/>
     </row>
     <row r="323" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F323" s="28"/>
-      <c r="G323" s="28"/>
+      <c r="F323" s="22"/>
+      <c r="G323" s="22"/>
     </row>
     <row r="324" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F324" s="28"/>
-      <c r="G324" s="28"/>
+      <c r="F324" s="22"/>
+      <c r="G324" s="22"/>
     </row>
     <row r="325" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F325" s="28"/>
-      <c r="G325" s="28"/>
+      <c r="F325" s="22"/>
+      <c r="G325" s="22"/>
     </row>
     <row r="326" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F326" s="28"/>
-      <c r="G326" s="28"/>
+      <c r="F326" s="22"/>
+      <c r="G326" s="22"/>
     </row>
     <row r="327" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F327" s="28"/>
-      <c r="G327" s="28"/>
+      <c r="F327" s="22"/>
+      <c r="G327" s="22"/>
     </row>
     <row r="328" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F328" s="28"/>
-      <c r="G328" s="28"/>
+      <c r="F328" s="22"/>
+      <c r="G328" s="22"/>
     </row>
     <row r="329" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F329" s="28"/>
-      <c r="G329" s="28"/>
+      <c r="F329" s="22"/>
+      <c r="G329" s="22"/>
     </row>
     <row r="330" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F330" s="28"/>
-      <c r="G330" s="28"/>
+      <c r="F330" s="22"/>
+      <c r="G330" s="22"/>
     </row>
     <row r="331" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F331" s="28"/>
-      <c r="G331" s="28"/>
+      <c r="F331" s="22"/>
+      <c r="G331" s="22"/>
     </row>
     <row r="332" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F332" s="28"/>
-      <c r="G332" s="28"/>
+      <c r="F332" s="22"/>
+      <c r="G332" s="22"/>
     </row>
     <row r="333" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F333" s="28"/>
-      <c r="G333" s="28"/>
+      <c r="F333" s="22"/>
+      <c r="G333" s="22"/>
     </row>
     <row r="334" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F334" s="28"/>
-      <c r="G334" s="28"/>
+      <c r="F334" s="22"/>
+      <c r="G334" s="22"/>
     </row>
     <row r="335" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F335" s="28"/>
-      <c r="G335" s="28"/>
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
     </row>
     <row r="336" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F336" s="28"/>
-      <c r="G336" s="28"/>
+      <c r="F336" s="22"/>
+      <c r="G336" s="22"/>
     </row>
     <row r="337" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F337" s="28"/>
-      <c r="G337" s="28"/>
+      <c r="F337" s="22"/>
+      <c r="G337" s="22"/>
     </row>
     <row r="338" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F338" s="28"/>
-      <c r="G338" s="28"/>
+      <c r="F338" s="22"/>
+      <c r="G338" s="22"/>
     </row>
     <row r="339" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F339" s="28"/>
-      <c r="G339" s="28"/>
+      <c r="F339" s="22"/>
+      <c r="G339" s="22"/>
     </row>
     <row r="340" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F340" s="28"/>
-      <c r="G340" s="28"/>
+      <c r="F340" s="22"/>
+      <c r="G340" s="22"/>
     </row>
     <row r="341" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F341" s="28"/>
-      <c r="G341" s="28"/>
+      <c r="F341" s="22"/>
+      <c r="G341" s="22"/>
     </row>
     <row r="342" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F342" s="28"/>
-      <c r="G342" s="28"/>
+      <c r="F342" s="22"/>
+      <c r="G342" s="22"/>
     </row>
     <row r="343" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F343" s="28"/>
-      <c r="G343" s="28"/>
+      <c r="F343" s="22"/>
+      <c r="G343" s="22"/>
     </row>
     <row r="344" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F344" s="28"/>
-      <c r="G344" s="28"/>
+      <c r="F344" s="22"/>
+      <c r="G344" s="22"/>
     </row>
     <row r="345" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F345" s="28"/>
-      <c r="G345" s="28"/>
+      <c r="F345" s="22"/>
+      <c r="G345" s="22"/>
     </row>
     <row r="346" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F346" s="28"/>
-      <c r="G346" s="28"/>
+      <c r="F346" s="22"/>
+      <c r="G346" s="22"/>
     </row>
     <row r="347" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F347" s="28"/>
-      <c r="G347" s="28"/>
+      <c r="F347" s="22"/>
+      <c r="G347" s="22"/>
     </row>
     <row r="348" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F348" s="28"/>
-      <c r="G348" s="28"/>
+      <c r="F348" s="22"/>
+      <c r="G348" s="22"/>
     </row>
     <row r="349" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F349" s="28"/>
-      <c r="G349" s="28"/>
+      <c r="F349" s="22"/>
+      <c r="G349" s="22"/>
     </row>
     <row r="350" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F350" s="28"/>
-      <c r="G350" s="28"/>
+      <c r="F350" s="22"/>
+      <c r="G350" s="22"/>
     </row>
     <row r="351" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F351" s="28"/>
-      <c r="G351" s="28"/>
+      <c r="F351" s="22"/>
+      <c r="G351" s="22"/>
     </row>
     <row r="352" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F352" s="28"/>
-      <c r="G352" s="28"/>
+      <c r="F352" s="22"/>
+      <c r="G352" s="22"/>
     </row>
     <row r="353" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F353" s="28"/>
-      <c r="G353" s="28"/>
+      <c r="F353" s="22"/>
+      <c r="G353" s="22"/>
     </row>
     <row r="354" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F354" s="28"/>
-      <c r="G354" s="28"/>
+      <c r="F354" s="22"/>
+      <c r="G354" s="22"/>
     </row>
     <row r="355" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F355" s="28"/>
-      <c r="G355" s="28"/>
+      <c r="F355" s="22"/>
+      <c r="G355" s="22"/>
     </row>
     <row r="356" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F356" s="28"/>
-      <c r="G356" s="28"/>
+      <c r="F356" s="22"/>
+      <c r="G356" s="22"/>
     </row>
     <row r="357" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F357" s="28"/>
-      <c r="G357" s="28"/>
+      <c r="F357" s="22"/>
+      <c r="G357" s="22"/>
     </row>
     <row r="358" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F358" s="28"/>
-      <c r="G358" s="28"/>
+      <c r="F358" s="22"/>
+      <c r="G358" s="22"/>
     </row>
     <row r="359" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F359" s="28"/>
-      <c r="G359" s="28"/>
+      <c r="F359" s="22"/>
+      <c r="G359" s="22"/>
     </row>
     <row r="360" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F360" s="28"/>
-      <c r="G360" s="28"/>
+      <c r="F360" s="22"/>
+      <c r="G360" s="22"/>
     </row>
     <row r="361" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F361" s="28"/>
-      <c r="G361" s="28"/>
+      <c r="F361" s="22"/>
+      <c r="G361" s="22"/>
     </row>
     <row r="362" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F362" s="28"/>
-      <c r="G362" s="28"/>
+      <c r="F362" s="22"/>
+      <c r="G362" s="22"/>
     </row>
     <row r="363" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F363" s="28"/>
-      <c r="G363" s="28"/>
+      <c r="F363" s="22"/>
+      <c r="G363" s="22"/>
     </row>
     <row r="364" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F364" s="28"/>
-      <c r="G364" s="28"/>
+      <c r="F364" s="22"/>
+      <c r="G364" s="22"/>
     </row>
     <row r="365" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F365" s="28"/>
-      <c r="G365" s="28"/>
+      <c r="F365" s="22"/>
+      <c r="G365" s="22"/>
     </row>
     <row r="366" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F366" s="28"/>
-      <c r="G366" s="28"/>
+      <c r="F366" s="22"/>
+      <c r="G366" s="22"/>
     </row>
     <row r="367" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F367" s="28"/>
-      <c r="G367" s="28"/>
+      <c r="F367" s="22"/>
+      <c r="G367" s="22"/>
     </row>
     <row r="368" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F368" s="28"/>
-      <c r="G368" s="28"/>
+      <c r="F368" s="22"/>
+      <c r="G368" s="22"/>
     </row>
     <row r="369" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F369" s="28"/>
-      <c r="G369" s="28"/>
+      <c r="F369" s="22"/>
+      <c r="G369" s="22"/>
     </row>
     <row r="370" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F370" s="28"/>
-      <c r="G370" s="28"/>
+      <c r="F370" s="22"/>
+      <c r="G370" s="22"/>
     </row>
     <row r="371" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F371" s="28"/>
-      <c r="G371" s="28"/>
+      <c r="F371" s="22"/>
+      <c r="G371" s="22"/>
     </row>
     <row r="372" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F372" s="28"/>
-      <c r="G372" s="28"/>
+      <c r="F372" s="22"/>
+      <c r="G372" s="22"/>
     </row>
     <row r="373" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F373" s="28"/>
-      <c r="G373" s="28"/>
+      <c r="F373" s="22"/>
+      <c r="G373" s="22"/>
     </row>
     <row r="374" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F374" s="28"/>
-      <c r="G374" s="28"/>
+      <c r="F374" s="22"/>
+      <c r="G374" s="22"/>
     </row>
     <row r="375" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F375" s="28"/>
-      <c r="G375" s="28"/>
+      <c r="F375" s="22"/>
+      <c r="G375" s="22"/>
     </row>
     <row r="376" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F376" s="28"/>
-      <c r="G376" s="28"/>
+      <c r="F376" s="22"/>
+      <c r="G376" s="22"/>
     </row>
     <row r="377" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F377" s="28"/>
-      <c r="G377" s="28"/>
+      <c r="F377" s="22"/>
+      <c r="G377" s="22"/>
     </row>
     <row r="378" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F378" s="28"/>
-      <c r="G378" s="28"/>
+      <c r="F378" s="22"/>
+      <c r="G378" s="22"/>
     </row>
     <row r="379" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F379" s="28"/>
-      <c r="G379" s="28"/>
+      <c r="F379" s="22"/>
+      <c r="G379" s="22"/>
     </row>
     <row r="380" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F380" s="28"/>
-      <c r="G380" s="28"/>
+      <c r="F380" s="22"/>
+      <c r="G380" s="22"/>
     </row>
     <row r="381" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F381" s="28"/>
-      <c r="G381" s="28"/>
+      <c r="F381" s="22"/>
+      <c r="G381" s="22"/>
     </row>
     <row r="382" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F382" s="28"/>
-      <c r="G382" s="28"/>
+      <c r="F382" s="22"/>
+      <c r="G382" s="22"/>
     </row>
     <row r="383" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F383" s="28"/>
-      <c r="G383" s="28"/>
+      <c r="F383" s="22"/>
+      <c r="G383" s="22"/>
     </row>
     <row r="384" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F384" s="28"/>
-      <c r="G384" s="28"/>
+      <c r="F384" s="22"/>
+      <c r="G384" s="22"/>
     </row>
     <row r="385" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F385" s="28"/>
-      <c r="G385" s="28"/>
+      <c r="F385" s="22"/>
+      <c r="G385" s="22"/>
     </row>
     <row r="386" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F386" s="28"/>
-      <c r="G386" s="28"/>
+      <c r="F386" s="22"/>
+      <c r="G386" s="22"/>
     </row>
     <row r="387" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F387" s="28"/>
-      <c r="G387" s="28"/>
+      <c r="F387" s="22"/>
+      <c r="G387" s="22"/>
     </row>
     <row r="388" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F388" s="28"/>
-      <c r="G388" s="28"/>
+      <c r="F388" s="22"/>
+      <c r="G388" s="22"/>
     </row>
     <row r="389" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F389" s="28"/>
-      <c r="G389" s="28"/>
+      <c r="F389" s="22"/>
+      <c r="G389" s="22"/>
     </row>
     <row r="390" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F390" s="28"/>
-      <c r="G390" s="28"/>
+      <c r="F390" s="22"/>
+      <c r="G390" s="22"/>
     </row>
     <row r="391" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F391" s="28"/>
-      <c r="G391" s="28"/>
+      <c r="F391" s="22"/>
+      <c r="G391" s="22"/>
     </row>
     <row r="392" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F392" s="28"/>
-      <c r="G392" s="28"/>
+      <c r="F392" s="22"/>
+      <c r="G392" s="22"/>
     </row>
     <row r="393" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F393" s="28"/>
-      <c r="G393" s="28"/>
+      <c r="F393" s="22"/>
+      <c r="G393" s="22"/>
     </row>
     <row r="394" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F394" s="28"/>
-      <c r="G394" s="28"/>
+      <c r="F394" s="22"/>
+      <c r="G394" s="22"/>
     </row>
     <row r="395" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F395" s="28"/>
-      <c r="G395" s="28"/>
+      <c r="F395" s="22"/>
+      <c r="G395" s="22"/>
     </row>
     <row r="396" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F396" s="28"/>
-      <c r="G396" s="28"/>
+      <c r="F396" s="22"/>
+      <c r="G396" s="22"/>
     </row>
     <row r="397" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F397" s="28"/>
-      <c r="G397" s="28"/>
+      <c r="F397" s="22"/>
+      <c r="G397" s="22"/>
     </row>
     <row r="398" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F398" s="28"/>
-      <c r="G398" s="28"/>
+      <c r="F398" s="22"/>
+      <c r="G398" s="22"/>
     </row>
     <row r="399" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F399" s="28"/>
-      <c r="G399" s="28"/>
+      <c r="F399" s="22"/>
+      <c r="G399" s="22"/>
     </row>
     <row r="400" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F400" s="28"/>
-      <c r="G400" s="28"/>
+      <c r="F400" s="22"/>
+      <c r="G400" s="22"/>
     </row>
     <row r="401" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F401" s="28"/>
-      <c r="G401" s="28"/>
+      <c r="F401" s="22"/>
+      <c r="G401" s="22"/>
     </row>
     <row r="402" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F402" s="28"/>
-      <c r="G402" s="28"/>
+      <c r="F402" s="22"/>
+      <c r="G402" s="22"/>
     </row>
     <row r="403" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F403" s="28"/>
-      <c r="G403" s="28"/>
+      <c r="F403" s="22"/>
+      <c r="G403" s="22"/>
     </row>
     <row r="404" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F404" s="28"/>
-      <c r="G404" s="28"/>
+      <c r="F404" s="22"/>
+      <c r="G404" s="22"/>
     </row>
     <row r="405" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F405" s="28"/>
-      <c r="G405" s="28"/>
+      <c r="F405" s="22"/>
+      <c r="G405" s="22"/>
     </row>
     <row r="406" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F406" s="28"/>
-      <c r="G406" s="28"/>
+      <c r="F406" s="22"/>
+      <c r="G406" s="22"/>
     </row>
     <row r="407" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F407" s="28"/>
-      <c r="G407" s="28"/>
+      <c r="F407" s="22"/>
+      <c r="G407" s="22"/>
     </row>
     <row r="408" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F408" s="28"/>
-      <c r="G408" s="28"/>
+      <c r="F408" s="22"/>
+      <c r="G408" s="22"/>
     </row>
     <row r="409" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F409" s="28"/>
-      <c r="G409" s="28"/>
+      <c r="F409" s="22"/>
+      <c r="G409" s="22"/>
     </row>
     <row r="410" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F410" s="28"/>
-      <c r="G410" s="28"/>
+      <c r="F410" s="22"/>
+      <c r="G410" s="22"/>
     </row>
     <row r="411" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F411" s="28"/>
-      <c r="G411" s="28"/>
+      <c r="F411" s="22"/>
+      <c r="G411" s="22"/>
     </row>
     <row r="412" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F412" s="28"/>
-      <c r="G412" s="28"/>
+      <c r="F412" s="22"/>
+      <c r="G412" s="22"/>
     </row>
     <row r="413" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F413" s="28"/>
-      <c r="G413" s="28"/>
+      <c r="F413" s="22"/>
+      <c r="G413" s="22"/>
     </row>
     <row r="414" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F414" s="28"/>
-      <c r="G414" s="28"/>
+      <c r="F414" s="22"/>
+      <c r="G414" s="22"/>
     </row>
     <row r="415" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F415" s="28"/>
-      <c r="G415" s="28"/>
+      <c r="F415" s="22"/>
+      <c r="G415" s="22"/>
     </row>
     <row r="416" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F416" s="28"/>
-      <c r="G416" s="28"/>
+      <c r="F416" s="22"/>
+      <c r="G416" s="22"/>
     </row>
     <row r="417" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F417" s="28"/>
-      <c r="G417" s="28"/>
+      <c r="F417" s="22"/>
+      <c r="G417" s="22"/>
     </row>
     <row r="418" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F418" s="28"/>
-      <c r="G418" s="28"/>
+      <c r="F418" s="22"/>
+      <c r="G418" s="22"/>
     </row>
     <row r="419" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F419" s="28"/>
-      <c r="G419" s="28"/>
+      <c r="F419" s="22"/>
+      <c r="G419" s="22"/>
     </row>
     <row r="420" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F420" s="28"/>
-      <c r="G420" s="28"/>
+      <c r="F420" s="22"/>
+      <c r="G420" s="22"/>
     </row>
     <row r="421" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F421" s="28"/>
-      <c r="G421" s="28"/>
+      <c r="F421" s="22"/>
+      <c r="G421" s="22"/>
     </row>
     <row r="422" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F422" s="28"/>
-      <c r="G422" s="28"/>
+      <c r="F422" s="22"/>
+      <c r="G422" s="22"/>
     </row>
     <row r="423" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F423" s="28"/>
-      <c r="G423" s="28"/>
+      <c r="F423" s="22"/>
+      <c r="G423" s="22"/>
     </row>
     <row r="424" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F424" s="28"/>
-      <c r="G424" s="28"/>
+      <c r="F424" s="22"/>
+      <c r="G424" s="22"/>
     </row>
     <row r="425" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F425" s="28"/>
-      <c r="G425" s="28"/>
+      <c r="F425" s="22"/>
+      <c r="G425" s="22"/>
     </row>
     <row r="426" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F426" s="28"/>
-      <c r="G426" s="28"/>
+      <c r="F426" s="22"/>
+      <c r="G426" s="22"/>
     </row>
     <row r="427" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F427" s="28"/>
-      <c r="G427" s="28"/>
+      <c r="F427" s="22"/>
+      <c r="G427" s="22"/>
     </row>
     <row r="428" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F428" s="28"/>
-      <c r="G428" s="28"/>
+      <c r="F428" s="22"/>
+      <c r="G428" s="22"/>
     </row>
     <row r="429" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F429" s="28"/>
-      <c r="G429" s="28"/>
+      <c r="F429" s="22"/>
+      <c r="G429" s="22"/>
     </row>
     <row r="430" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F430" s="28"/>
-      <c r="G430" s="28"/>
+      <c r="F430" s="22"/>
+      <c r="G430" s="22"/>
     </row>
     <row r="431" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F431" s="28"/>
-      <c r="G431" s="28"/>
+      <c r="F431" s="22"/>
+      <c r="G431" s="22"/>
     </row>
     <row r="432" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F432" s="28"/>
-      <c r="G432" s="28"/>
+      <c r="F432" s="22"/>
+      <c r="G432" s="22"/>
     </row>
     <row r="433" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F433" s="28"/>
-      <c r="G433" s="28"/>
+      <c r="F433" s="22"/>
+      <c r="G433" s="22"/>
     </row>
     <row r="434" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F434" s="28"/>
-      <c r="G434" s="28"/>
+      <c r="F434" s="22"/>
+      <c r="G434" s="22"/>
     </row>
     <row r="435" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F435" s="28"/>
-      <c r="G435" s="28"/>
+      <c r="F435" s="22"/>
+      <c r="G435" s="22"/>
     </row>
     <row r="436" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F436" s="28"/>
-      <c r="G436" s="28"/>
+      <c r="F436" s="22"/>
+      <c r="G436" s="22"/>
     </row>
     <row r="437" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F437" s="28"/>
-      <c r="G437" s="28"/>
+      <c r="F437" s="22"/>
+      <c r="G437" s="22"/>
     </row>
     <row r="438" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F438" s="28"/>
-      <c r="G438" s="28"/>
+      <c r="F438" s="22"/>
+      <c r="G438" s="22"/>
     </row>
     <row r="439" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F439" s="28"/>
-      <c r="G439" s="28"/>
+      <c r="F439" s="22"/>
+      <c r="G439" s="22"/>
     </row>
     <row r="440" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F440" s="28"/>
-      <c r="G440" s="28"/>
+      <c r="F440" s="22"/>
+      <c r="G440" s="22"/>
     </row>
     <row r="441" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F441" s="28"/>
-      <c r="G441" s="28"/>
+      <c r="F441" s="22"/>
+      <c r="G441" s="22"/>
     </row>
     <row r="442" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F442" s="28"/>
-      <c r="G442" s="28"/>
+      <c r="F442" s="22"/>
+      <c r="G442" s="22"/>
     </row>
     <row r="443" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F443" s="28"/>
-      <c r="G443" s="28"/>
+      <c r="F443" s="22"/>
+      <c r="G443" s="22"/>
     </row>
     <row r="444" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F444" s="28"/>
-      <c r="G444" s="28"/>
+      <c r="F444" s="22"/>
+      <c r="G444" s="22"/>
     </row>
     <row r="445" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F445" s="28"/>
-      <c r="G445" s="28"/>
+      <c r="F445" s="22"/>
+      <c r="G445" s="22"/>
     </row>
     <row r="446" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F446" s="28"/>
-      <c r="G446" s="28"/>
+      <c r="F446" s="22"/>
+      <c r="G446" s="22"/>
     </row>
     <row r="447" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F447" s="28"/>
-      <c r="G447" s="28"/>
+      <c r="F447" s="22"/>
+      <c r="G447" s="22"/>
     </row>
     <row r="448" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F448" s="28"/>
-      <c r="G448" s="28"/>
+      <c r="F448" s="22"/>
+      <c r="G448" s="22"/>
     </row>
     <row r="449" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F449" s="28"/>
-      <c r="G449" s="28"/>
+      <c r="F449" s="22"/>
+      <c r="G449" s="22"/>
     </row>
     <row r="450" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F450" s="28"/>
-      <c r="G450" s="28"/>
+      <c r="F450" s="22"/>
+      <c r="G450" s="22"/>
     </row>
     <row r="451" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F451" s="28"/>
-      <c r="G451" s="28"/>
+      <c r="F451" s="22"/>
+      <c r="G451" s="22"/>
     </row>
     <row r="452" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F452" s="28"/>
-      <c r="G452" s="28"/>
+      <c r="F452" s="22"/>
+      <c r="G452" s="22"/>
     </row>
     <row r="453" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F453" s="28"/>
-      <c r="G453" s="28"/>
+      <c r="F453" s="22"/>
+      <c r="G453" s="22"/>
     </row>
     <row r="454" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F454" s="28"/>
-      <c r="G454" s="28"/>
+      <c r="F454" s="22"/>
+      <c r="G454" s="22"/>
     </row>
     <row r="455" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F455" s="28"/>
-      <c r="G455" s="28"/>
+      <c r="F455" s="22"/>
+      <c r="G455" s="22"/>
     </row>
     <row r="456" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F456" s="28"/>
-      <c r="G456" s="28"/>
+      <c r="F456" s="22"/>
+      <c r="G456" s="22"/>
     </row>
     <row r="457" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F457" s="28"/>
-      <c r="G457" s="28"/>
+      <c r="F457" s="22"/>
+      <c r="G457" s="22"/>
     </row>
     <row r="458" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F458" s="28"/>
-      <c r="G458" s="28"/>
+      <c r="F458" s="22"/>
+      <c r="G458" s="22"/>
     </row>
     <row r="459" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F459" s="28"/>
-      <c r="G459" s="28"/>
+      <c r="F459" s="22"/>
+      <c r="G459" s="22"/>
     </row>
     <row r="460" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F460" s="28"/>
-      <c r="G460" s="28"/>
+      <c r="F460" s="22"/>
+      <c r="G460" s="22"/>
     </row>
     <row r="461" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F461" s="28"/>
-      <c r="G461" s="28"/>
+      <c r="F461" s="22"/>
+      <c r="G461" s="22"/>
     </row>
     <row r="462" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F462" s="28"/>
-      <c r="G462" s="28"/>
+      <c r="F462" s="22"/>
+      <c r="G462" s="22"/>
     </row>
     <row r="463" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F463" s="28"/>
-      <c r="G463" s="28"/>
+      <c r="F463" s="22"/>
+      <c r="G463" s="22"/>
     </row>
     <row r="464" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F464" s="28"/>
-      <c r="G464" s="28"/>
+      <c r="F464" s="22"/>
+      <c r="G464" s="22"/>
     </row>
     <row r="465" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F465" s="28"/>
-      <c r="G465" s="28"/>
+      <c r="F465" s="22"/>
+      <c r="G465" s="22"/>
     </row>
     <row r="466" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F466" s="28"/>
-      <c r="G466" s="28"/>
+      <c r="F466" s="22"/>
+      <c r="G466" s="22"/>
     </row>
     <row r="467" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F467" s="28"/>
-      <c r="G467" s="28"/>
+      <c r="F467" s="22"/>
+      <c r="G467" s="22"/>
     </row>
     <row r="468" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F468" s="28"/>
-      <c r="G468" s="28"/>
+      <c r="F468" s="22"/>
+      <c r="G468" s="22"/>
     </row>
     <row r="469" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F469" s="28"/>
-      <c r="G469" s="28"/>
+      <c r="F469" s="22"/>
+      <c r="G469" s="22"/>
     </row>
     <row r="470" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F470" s="28"/>
-      <c r="G470" s="28"/>
+      <c r="F470" s="22"/>
+      <c r="G470" s="22"/>
     </row>
     <row r="471" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F471" s="28"/>
-      <c r="G471" s="28"/>
+      <c r="F471" s="22"/>
+      <c r="G471" s="22"/>
     </row>
     <row r="472" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F472" s="28"/>
-      <c r="G472" s="28"/>
+      <c r="F472" s="22"/>
+      <c r="G472" s="22"/>
     </row>
     <row r="473" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F473" s="28"/>
-      <c r="G473" s="28"/>
+      <c r="F473" s="22"/>
+      <c r="G473" s="22"/>
     </row>
     <row r="474" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F474" s="28"/>
-      <c r="G474" s="28"/>
+      <c r="F474" s="22"/>
+      <c r="G474" s="22"/>
     </row>
     <row r="475" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F475" s="28"/>
-      <c r="G475" s="28"/>
+      <c r="F475" s="22"/>
+      <c r="G475" s="22"/>
     </row>
     <row r="476" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F476" s="28"/>
-      <c r="G476" s="28"/>
+      <c r="F476" s="22"/>
+      <c r="G476" s="22"/>
     </row>
     <row r="477" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F477" s="28"/>
-      <c r="G477" s="28"/>
+      <c r="F477" s="22"/>
+      <c r="G477" s="22"/>
     </row>
     <row r="478" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F478" s="28"/>
-      <c r="G478" s="28"/>
+      <c r="F478" s="22"/>
+      <c r="G478" s="22"/>
     </row>
     <row r="479" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F479" s="28"/>
-      <c r="G479" s="28"/>
+      <c r="F479" s="22"/>
+      <c r="G479" s="22"/>
     </row>
     <row r="480" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F480" s="28"/>
-      <c r="G480" s="28"/>
+      <c r="F480" s="22"/>
+      <c r="G480" s="22"/>
     </row>
     <row r="481" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F481" s="28"/>
-      <c r="G481" s="28"/>
+      <c r="F481" s="22"/>
+      <c r="G481" s="22"/>
     </row>
     <row r="482" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F482" s="28"/>
-      <c r="G482" s="28"/>
+      <c r="F482" s="22"/>
+      <c r="G482" s="22"/>
     </row>
     <row r="483" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F483" s="28"/>
-      <c r="G483" s="28"/>
+      <c r="F483" s="22"/>
+      <c r="G483" s="22"/>
     </row>
     <row r="484" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F484" s="28"/>
-      <c r="G484" s="28"/>
+      <c r="F484" s="22"/>
+      <c r="G484" s="22"/>
     </row>
     <row r="485" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F485" s="28"/>
-      <c r="G485" s="28"/>
+      <c r="F485" s="22"/>
+      <c r="G485" s="22"/>
     </row>
     <row r="486" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F486" s="28"/>
-      <c r="G486" s="28"/>
+      <c r="F486" s="22"/>
+      <c r="G486" s="22"/>
     </row>
     <row r="487" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F487" s="28"/>
-      <c r="G487" s="28"/>
+      <c r="F487" s="22"/>
+      <c r="G487" s="22"/>
     </row>
     <row r="488" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F488" s="28"/>
-      <c r="G488" s="28"/>
+      <c r="F488" s="22"/>
+      <c r="G488" s="22"/>
     </row>
     <row r="489" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F489" s="28"/>
-      <c r="G489" s="28"/>
+      <c r="F489" s="22"/>
+      <c r="G489" s="22"/>
     </row>
     <row r="490" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F490" s="28"/>
-      <c r="G490" s="28"/>
+      <c r="F490" s="22"/>
+      <c r="G490" s="22"/>
     </row>
     <row r="491" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F491" s="28"/>
-      <c r="G491" s="28"/>
+      <c r="F491" s="22"/>
+      <c r="G491" s="22"/>
     </row>
     <row r="492" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F492" s="28"/>
-      <c r="G492" s="28"/>
+      <c r="F492" s="22"/>
+      <c r="G492" s="22"/>
     </row>
     <row r="493" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F493" s="28"/>
-      <c r="G493" s="28"/>
+      <c r="F493" s="22"/>
+      <c r="G493" s="22"/>
     </row>
     <row r="494" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F494" s="28"/>
-      <c r="G494" s="28"/>
+      <c r="F494" s="22"/>
+      <c r="G494" s="22"/>
     </row>
     <row r="495" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F495" s="28"/>
-      <c r="G495" s="28"/>
+      <c r="F495" s="22"/>
+      <c r="G495" s="22"/>
     </row>
     <row r="496" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F496" s="28"/>
-      <c r="G496" s="28"/>
+      <c r="F496" s="22"/>
+      <c r="G496" s="22"/>
     </row>
     <row r="497" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F497" s="28"/>
-      <c r="G497" s="28"/>
+      <c r="F497" s="22"/>
+      <c r="G497" s="22"/>
     </row>
     <row r="498" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F498" s="28"/>
-      <c r="G498" s="28"/>
+      <c r="F498" s="22"/>
+      <c r="G498" s="22"/>
     </row>
     <row r="499" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F499" s="28"/>
-      <c r="G499" s="28"/>
+      <c r="F499" s="22"/>
+      <c r="G499" s="22"/>
     </row>
     <row r="500" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F500" s="28"/>
-      <c r="G500" s="28"/>
+      <c r="F500" s="22"/>
+      <c r="G500" s="22"/>
     </row>
     <row r="501" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F501" s="28"/>
-      <c r="G501" s="28"/>
+      <c r="F501" s="22"/>
+      <c r="G501" s="22"/>
     </row>
     <row r="502" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F502" s="28"/>
-      <c r="G502" s="28"/>
+      <c r="F502" s="22"/>
+      <c r="G502" s="22"/>
     </row>
     <row r="503" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F503" s="28"/>
-      <c r="G503" s="28"/>
+      <c r="F503" s="22"/>
+      <c r="G503" s="22"/>
     </row>
     <row r="504" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F504" s="28"/>
-      <c r="G504" s="28"/>
+      <c r="F504" s="22"/>
+      <c r="G504" s="22"/>
     </row>
     <row r="505" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F505" s="28"/>
-      <c r="G505" s="28"/>
+      <c r="F505" s="22"/>
+      <c r="G505" s="22"/>
     </row>
     <row r="506" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F506" s="28"/>
-      <c r="G506" s="28"/>
+      <c r="F506" s="22"/>
+      <c r="G506" s="22"/>
     </row>
     <row r="507" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F507" s="28"/>
-      <c r="G507" s="28"/>
+      <c r="F507" s="22"/>
+      <c r="G507" s="22"/>
     </row>
     <row r="508" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F508" s="28"/>
-      <c r="G508" s="28"/>
+      <c r="F508" s="22"/>
+      <c r="G508" s="22"/>
     </row>
     <row r="509" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F509" s="28"/>
-      <c r="G509" s="28"/>
+      <c r="F509" s="22"/>
+      <c r="G509" s="22"/>
     </row>
     <row r="510" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F510" s="28"/>
-      <c r="G510" s="28"/>
+      <c r="F510" s="22"/>
+      <c r="G510" s="22"/>
     </row>
     <row r="511" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F511" s="28"/>
-      <c r="G511" s="28"/>
+      <c r="F511" s="22"/>
+      <c r="G511" s="22"/>
     </row>
     <row r="512" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F512" s="28"/>
-      <c r="G512" s="28"/>
+      <c r="F512" s="22"/>
+      <c r="G512" s="22"/>
     </row>
     <row r="513" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F513" s="28"/>
-      <c r="G513" s="28"/>
+      <c r="F513" s="22"/>
+      <c r="G513" s="22"/>
     </row>
     <row r="514" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F514" s="28"/>
-      <c r="G514" s="28"/>
+      <c r="F514" s="22"/>
+      <c r="G514" s="22"/>
     </row>
     <row r="515" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F515" s="28"/>
-      <c r="G515" s="28"/>
+      <c r="F515" s="22"/>
+      <c r="G515" s="22"/>
     </row>
     <row r="516" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F516" s="28"/>
-      <c r="G516" s="28"/>
+      <c r="F516" s="22"/>
+      <c r="G516" s="22"/>
     </row>
     <row r="517" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F517" s="28"/>
-      <c r="G517" s="28"/>
+      <c r="F517" s="22"/>
+      <c r="G517" s="22"/>
     </row>
     <row r="518" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F518" s="28"/>
-      <c r="G518" s="28"/>
+      <c r="F518" s="22"/>
+      <c r="G518" s="22"/>
     </row>
     <row r="519" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F519" s="28"/>
-      <c r="G519" s="28"/>
+      <c r="F519" s="22"/>
+      <c r="G519" s="22"/>
     </row>
     <row r="520" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F520" s="28"/>
-      <c r="G520" s="28"/>
+      <c r="F520" s="22"/>
+      <c r="G520" s="22"/>
     </row>
     <row r="521" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F521" s="28"/>
-      <c r="G521" s="28"/>
+      <c r="F521" s="22"/>
+      <c r="G521" s="22"/>
     </row>
     <row r="522" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F522" s="28"/>
-      <c r="G522" s="28"/>
+      <c r="F522" s="22"/>
+      <c r="G522" s="22"/>
     </row>
     <row r="523" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F523" s="28"/>
-      <c r="G523" s="28"/>
+      <c r="F523" s="22"/>
+      <c r="G523" s="22"/>
     </row>
     <row r="524" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F524" s="28"/>
-      <c r="G524" s="28"/>
+      <c r="F524" s="22"/>
+      <c r="G524" s="22"/>
     </row>
     <row r="525" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F525" s="28"/>
-      <c r="G525" s="28"/>
+      <c r="F525" s="22"/>
+      <c r="G525" s="22"/>
     </row>
     <row r="526" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F526" s="28"/>
-      <c r="G526" s="28"/>
+      <c r="F526" s="22"/>
+      <c r="G526" s="22"/>
     </row>
     <row r="527" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F527" s="28"/>
-      <c r="G527" s="28"/>
+      <c r="F527" s="22"/>
+      <c r="G527" s="22"/>
     </row>
     <row r="528" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F528" s="28"/>
-      <c r="G528" s="28"/>
+      <c r="F528" s="22"/>
+      <c r="G528" s="22"/>
     </row>
     <row r="529" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F529" s="28"/>
-      <c r="G529" s="28"/>
+      <c r="F529" s="22"/>
+      <c r="G529" s="22"/>
     </row>
     <row r="530" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F530" s="28"/>
-      <c r="G530" s="28"/>
+      <c r="F530" s="22"/>
+      <c r="G530" s="22"/>
     </row>
     <row r="531" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F531" s="28"/>
-      <c r="G531" s="28"/>
+      <c r="F531" s="22"/>
+      <c r="G531" s="22"/>
     </row>
     <row r="532" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F532" s="28"/>
-      <c r="G532" s="28"/>
+      <c r="F532" s="22"/>
+      <c r="G532" s="22"/>
     </row>
     <row r="533" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F533" s="28"/>
-      <c r="G533" s="28"/>
+      <c r="F533" s="22"/>
+      <c r="G533" s="22"/>
     </row>
     <row r="534" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F534" s="28"/>
-      <c r="G534" s="28"/>
+      <c r="F534" s="22"/>
+      <c r="G534" s="22"/>
     </row>
     <row r="535" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F535" s="28"/>
-      <c r="G535" s="28"/>
+      <c r="F535" s="22"/>
+      <c r="G535" s="22"/>
     </row>
     <row r="536" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F536" s="28"/>
-      <c r="G536" s="28"/>
+      <c r="F536" s="22"/>
+      <c r="G536" s="22"/>
     </row>
     <row r="537" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F537" s="28"/>
-      <c r="G537" s="28"/>
+      <c r="F537" s="22"/>
+      <c r="G537" s="22"/>
     </row>
     <row r="538" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F538" s="28"/>
-      <c r="G538" s="28"/>
+      <c r="F538" s="22"/>
+      <c r="G538" s="22"/>
     </row>
     <row r="539" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F539" s="28"/>
-      <c r="G539" s="28"/>
+      <c r="F539" s="22"/>
+      <c r="G539" s="22"/>
     </row>
     <row r="540" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F540" s="28"/>
-      <c r="G540" s="28"/>
+      <c r="F540" s="22"/>
+      <c r="G540" s="22"/>
     </row>
     <row r="541" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F541" s="28"/>
-      <c r="G541" s="28"/>
+      <c r="F541" s="22"/>
+      <c r="G541" s="22"/>
     </row>
     <row r="542" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F542" s="28"/>
-      <c r="G542" s="28"/>
+      <c r="F542" s="22"/>
+      <c r="G542" s="22"/>
     </row>
     <row r="543" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F543" s="28"/>
-      <c r="G543" s="28"/>
+      <c r="F543" s="22"/>
+      <c r="G543" s="22"/>
     </row>
     <row r="544" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F544" s="28"/>
-      <c r="G544" s="28"/>
+      <c r="F544" s="22"/>
+      <c r="G544" s="22"/>
     </row>
     <row r="545" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F545" s="28"/>
-      <c r="G545" s="28"/>
+      <c r="F545" s="22"/>
+      <c r="G545" s="22"/>
     </row>
     <row r="546" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F546" s="28"/>
-      <c r="G546" s="28"/>
+      <c r="F546" s="22"/>
+      <c r="G546" s="22"/>
     </row>
     <row r="547" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F547" s="28"/>
-      <c r="G547" s="28"/>
+      <c r="F547" s="22"/>
+      <c r="G547" s="22"/>
     </row>
     <row r="548" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F548" s="28"/>
-      <c r="G548" s="28"/>
+      <c r="F548" s="22"/>
+      <c r="G548" s="22"/>
     </row>
     <row r="549" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F549" s="28"/>
-      <c r="G549" s="28"/>
+      <c r="F549" s="22"/>
+      <c r="G549" s="22"/>
     </row>
     <row r="550" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F550" s="28"/>
-      <c r="G550" s="28"/>
+      <c r="F550" s="22"/>
+      <c r="G550" s="22"/>
     </row>
     <row r="551" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F551" s="28"/>
-      <c r="G551" s="28"/>
+      <c r="F551" s="22"/>
+      <c r="G551" s="22"/>
     </row>
     <row r="552" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F552" s="28"/>
-      <c r="G552" s="28"/>
+      <c r="F552" s="22"/>
+      <c r="G552" s="22"/>
     </row>
     <row r="553" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F553" s="28"/>
-      <c r="G553" s="28"/>
+      <c r="F553" s="22"/>
+      <c r="G553" s="22"/>
     </row>
     <row r="554" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F554" s="28"/>
-      <c r="G554" s="28"/>
+      <c r="F554" s="22"/>
+      <c r="G554" s="22"/>
     </row>
     <row r="555" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F555" s="28"/>
-      <c r="G555" s="28"/>
+      <c r="F555" s="22"/>
+      <c r="G555" s="22"/>
     </row>
     <row r="556" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F556" s="28"/>
-      <c r="G556" s="28"/>
+      <c r="F556" s="22"/>
+      <c r="G556" s="22"/>
     </row>
     <row r="557" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F557" s="28"/>
-      <c r="G557" s="28"/>
+      <c r="F557" s="22"/>
+      <c r="G557" s="22"/>
     </row>
     <row r="558" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F558" s="28"/>
-      <c r="G558" s="28"/>
+      <c r="F558" s="22"/>
+      <c r="G558" s="22"/>
     </row>
     <row r="559" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F559" s="28"/>
-      <c r="G559" s="28"/>
+      <c r="F559" s="22"/>
+      <c r="G559" s="22"/>
     </row>
     <row r="560" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F560" s="28"/>
-      <c r="G560" s="28"/>
+      <c r="F560" s="22"/>
+      <c r="G560" s="22"/>
     </row>
     <row r="561" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F561" s="28"/>
-      <c r="G561" s="28"/>
+      <c r="F561" s="22"/>
+      <c r="G561" s="22"/>
     </row>
     <row r="562" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F562" s="28"/>
-      <c r="G562" s="28"/>
+      <c r="F562" s="22"/>
+      <c r="G562" s="22"/>
     </row>
     <row r="563" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F563" s="28"/>
-      <c r="G563" s="28"/>
+      <c r="F563" s="22"/>
+      <c r="G563" s="22"/>
     </row>
     <row r="564" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F564" s="28"/>
-      <c r="G564" s="28"/>
+      <c r="F564" s="22"/>
+      <c r="G564" s="22"/>
     </row>
     <row r="565" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F565" s="28"/>
-      <c r="G565" s="28"/>
+      <c r="F565" s="22"/>
+      <c r="G565" s="22"/>
     </row>
     <row r="566" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F566" s="28"/>
-      <c r="G566" s="28"/>
+      <c r="F566" s="22"/>
+      <c r="G566" s="22"/>
     </row>
     <row r="567" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F567" s="28"/>
-      <c r="G567" s="28"/>
+      <c r="F567" s="22"/>
+      <c r="G567" s="22"/>
     </row>
     <row r="568" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F568" s="28"/>
-      <c r="G568" s="28"/>
+      <c r="F568" s="22"/>
+      <c r="G568" s="22"/>
     </row>
     <row r="569" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F569" s="28"/>
-      <c r="G569" s="28"/>
+      <c r="F569" s="22"/>
+      <c r="G569" s="22"/>
     </row>
     <row r="570" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F570" s="28"/>
-      <c r="G570" s="28"/>
+      <c r="F570" s="22"/>
+      <c r="G570" s="22"/>
     </row>
     <row r="571" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F571" s="28"/>
-      <c r="G571" s="28"/>
+      <c r="F571" s="22"/>
+      <c r="G571" s="22"/>
     </row>
     <row r="572" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F572" s="28"/>
-      <c r="G572" s="28"/>
+      <c r="F572" s="22"/>
+      <c r="G572" s="22"/>
     </row>
     <row r="573" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F573" s="28"/>
-      <c r="G573" s="28"/>
+      <c r="F573" s="22"/>
+      <c r="G573" s="22"/>
     </row>
     <row r="574" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F574" s="28"/>
-      <c r="G574" s="28"/>
+      <c r="F574" s="22"/>
+      <c r="G574" s="22"/>
     </row>
     <row r="575" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F575" s="28"/>
-      <c r="G575" s="28"/>
+      <c r="F575" s="22"/>
+      <c r="G575" s="22"/>
     </row>
     <row r="576" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F576" s="28"/>
-      <c r="G576" s="28"/>
+      <c r="F576" s="22"/>
+      <c r="G576" s="22"/>
     </row>
     <row r="577" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F577" s="28"/>
-      <c r="G577" s="28"/>
+      <c r="F577" s="22"/>
+      <c r="G577" s="22"/>
     </row>
     <row r="578" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F578" s="28"/>
-      <c r="G578" s="28"/>
+      <c r="F578" s="22"/>
+      <c r="G578" s="22"/>
     </row>
     <row r="579" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F579" s="28"/>
-      <c r="G579" s="28"/>
+      <c r="F579" s="22"/>
+      <c r="G579" s="22"/>
     </row>
     <row r="580" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F580" s="28"/>
-      <c r="G580" s="28"/>
+      <c r="F580" s="22"/>
+      <c r="G580" s="22"/>
     </row>
     <row r="581" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F581" s="28"/>
-      <c r="G581" s="28"/>
+      <c r="F581" s="22"/>
+      <c r="G581" s="22"/>
     </row>
     <row r="582" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F582" s="28"/>
-      <c r="G582" s="28"/>
+      <c r="F582" s="22"/>
+      <c r="G582" s="22"/>
     </row>
     <row r="583" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F583" s="28"/>
-      <c r="G583" s="28"/>
+      <c r="F583" s="22"/>
+      <c r="G583" s="22"/>
     </row>
     <row r="584" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F584" s="28"/>
-      <c r="G584" s="28"/>
+      <c r="F584" s="22"/>
+      <c r="G584" s="22"/>
     </row>
     <row r="585" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F585" s="28"/>
-      <c r="G585" s="28"/>
+      <c r="F585" s="22"/>
+      <c r="G585" s="22"/>
     </row>
     <row r="586" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F586" s="28"/>
-      <c r="G586" s="28"/>
+      <c r="F586" s="22"/>
+      <c r="G586" s="22"/>
     </row>
     <row r="587" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F587" s="28"/>
-      <c r="G587" s="28"/>
+      <c r="F587" s="22"/>
+      <c r="G587" s="22"/>
     </row>
     <row r="588" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F588" s="28"/>
-      <c r="G588" s="28"/>
+      <c r="F588" s="22"/>
+      <c r="G588" s="22"/>
     </row>
     <row r="589" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F589" s="28"/>
-      <c r="G589" s="28"/>
+      <c r="F589" s="22"/>
+      <c r="G589" s="22"/>
     </row>
     <row r="590" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F590" s="28"/>
-      <c r="G590" s="28"/>
+      <c r="F590" s="22"/>
+      <c r="G590" s="22"/>
     </row>
     <row r="591" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F591" s="28"/>
-      <c r="G591" s="28"/>
+      <c r="F591" s="22"/>
+      <c r="G591" s="22"/>
     </row>
     <row r="592" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F592" s="28"/>
-      <c r="G592" s="28"/>
+      <c r="F592" s="22"/>
+      <c r="G592" s="22"/>
     </row>
     <row r="593" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F593" s="28"/>
-      <c r="G593" s="28"/>
+      <c r="F593" s="22"/>
+      <c r="G593" s="22"/>
     </row>
     <row r="594" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F594" s="28"/>
-      <c r="G594" s="28"/>
+      <c r="F594" s="22"/>
+      <c r="G594" s="22"/>
     </row>
     <row r="595" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F595" s="28"/>
-      <c r="G595" s="28"/>
+      <c r="F595" s="22"/>
+      <c r="G595" s="22"/>
     </row>
     <row r="596" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F596" s="28"/>
-      <c r="G596" s="28"/>
+      <c r="F596" s="22"/>
+      <c r="G596" s="22"/>
     </row>
     <row r="597" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F597" s="28"/>
-      <c r="G597" s="28"/>
+      <c r="F597" s="22"/>
+      <c r="G597" s="22"/>
     </row>
     <row r="598" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F598" s="28"/>
-      <c r="G598" s="28"/>
+      <c r="F598" s="22"/>
+      <c r="G598" s="22"/>
     </row>
     <row r="599" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F599" s="28"/>
-      <c r="G599" s="28"/>
+      <c r="F599" s="22"/>
+      <c r="G599" s="22"/>
     </row>
     <row r="600" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F600" s="28"/>
-      <c r="G600" s="28"/>
+      <c r="F600" s="22"/>
+      <c r="G600" s="22"/>
     </row>
     <row r="601" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F601" s="28"/>
-      <c r="G601" s="28"/>
+      <c r="F601" s="22"/>
+      <c r="G601" s="22"/>
     </row>
     <row r="602" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F602" s="28"/>
-      <c r="G602" s="28"/>
+      <c r="F602" s="22"/>
+      <c r="G602" s="22"/>
     </row>
     <row r="603" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F603" s="28"/>
-      <c r="G603" s="28"/>
+      <c r="F603" s="22"/>
+      <c r="G603" s="22"/>
     </row>
     <row r="604" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F604" s="28"/>
-      <c r="G604" s="28"/>
+      <c r="F604" s="22"/>
+      <c r="G604" s="22"/>
     </row>
     <row r="605" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F605" s="28"/>
-      <c r="G605" s="28"/>
+      <c r="F605" s="22"/>
+      <c r="G605" s="22"/>
     </row>
     <row r="606" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F606" s="28"/>
-      <c r="G606" s="28"/>
+      <c r="F606" s="22"/>
+      <c r="G606" s="22"/>
     </row>
     <row r="607" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F607" s="28"/>
-      <c r="G607" s="28"/>
+      <c r="F607" s="22"/>
+      <c r="G607" s="22"/>
     </row>
     <row r="608" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F608" s="28"/>
-      <c r="G608" s="28"/>
+      <c r="F608" s="22"/>
+      <c r="G608" s="22"/>
     </row>
     <row r="609" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F609" s="28"/>
-      <c r="G609" s="28"/>
+      <c r="F609" s="22"/>
+      <c r="G609" s="22"/>
     </row>
     <row r="610" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F610" s="28"/>
-      <c r="G610" s="28"/>
+      <c r="F610" s="22"/>
+      <c r="G610" s="22"/>
     </row>
     <row r="611" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F611" s="28"/>
-      <c r="G611" s="28"/>
+      <c r="F611" s="22"/>
+      <c r="G611" s="22"/>
     </row>
     <row r="612" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F612" s="28"/>
-      <c r="G612" s="28"/>
+      <c r="F612" s="22"/>
+      <c r="G612" s="22"/>
     </row>
     <row r="613" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F613" s="28"/>
-      <c r="G613" s="28"/>
+      <c r="F613" s="22"/>
+      <c r="G613" s="22"/>
     </row>
     <row r="614" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F614" s="28"/>
-      <c r="G614" s="28"/>
+      <c r="F614" s="22"/>
+      <c r="G614" s="22"/>
     </row>
     <row r="615" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F615" s="28"/>
-      <c r="G615" s="28"/>
+      <c r="F615" s="22"/>
+      <c r="G615" s="22"/>
     </row>
     <row r="616" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F616" s="28"/>
-      <c r="G616" s="28"/>
+      <c r="F616" s="22"/>
+      <c r="G616" s="22"/>
     </row>
     <row r="617" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F617" s="28"/>
-      <c r="G617" s="28"/>
+      <c r="F617" s="22"/>
+      <c r="G617" s="22"/>
     </row>
     <row r="618" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F618" s="28"/>
-      <c r="G618" s="28"/>
+      <c r="F618" s="22"/>
+      <c r="G618" s="22"/>
     </row>
     <row r="619" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F619" s="28"/>
-      <c r="G619" s="28"/>
+      <c r="F619" s="22"/>
+      <c r="G619" s="22"/>
     </row>
     <row r="620" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F620" s="28"/>
-      <c r="G620" s="28"/>
+      <c r="F620" s="22"/>
+      <c r="G620" s="22"/>
     </row>
     <row r="621" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F621" s="28"/>
-      <c r="G621" s="28"/>
+      <c r="F621" s="22"/>
+      <c r="G621" s="22"/>
     </row>
     <row r="622" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F622" s="28"/>
-      <c r="G622" s="28"/>
+      <c r="F622" s="22"/>
+      <c r="G622" s="22"/>
     </row>
     <row r="623" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F623" s="28"/>
-      <c r="G623" s="28"/>
+      <c r="F623" s="22"/>
+      <c r="G623" s="22"/>
     </row>
     <row r="624" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F624" s="28"/>
-      <c r="G624" s="28"/>
+      <c r="F624" s="22"/>
+      <c r="G624" s="22"/>
     </row>
     <row r="625" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F625" s="28"/>
-      <c r="G625" s="28"/>
+      <c r="F625" s="22"/>
+      <c r="G625" s="22"/>
     </row>
     <row r="626" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F626" s="28"/>
-      <c r="G626" s="28"/>
+      <c r="F626" s="22"/>
+      <c r="G626" s="22"/>
     </row>
     <row r="627" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F627" s="28"/>
-      <c r="G627" s="28"/>
+      <c r="F627" s="22"/>
+      <c r="G627" s="22"/>
     </row>
     <row r="628" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F628" s="28"/>
-      <c r="G628" s="28"/>
+      <c r="F628" s="22"/>
+      <c r="G628" s="22"/>
     </row>
     <row r="629" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F629" s="28"/>
-      <c r="G629" s="28"/>
+      <c r="F629" s="22"/>
+      <c r="G629" s="22"/>
     </row>
     <row r="630" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F630" s="28"/>
-      <c r="G630" s="28"/>
+      <c r="F630" s="22"/>
+      <c r="G630" s="22"/>
     </row>
     <row r="631" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F631" s="28"/>
-      <c r="G631" s="28"/>
+      <c r="F631" s="22"/>
+      <c r="G631" s="22"/>
     </row>
     <row r="632" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F632" s="28"/>
-      <c r="G632" s="28"/>
+      <c r="F632" s="22"/>
+      <c r="G632" s="22"/>
     </row>
     <row r="633" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F633" s="28"/>
-      <c r="G633" s="28"/>
+      <c r="F633" s="22"/>
+      <c r="G633" s="22"/>
     </row>
     <row r="634" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F634" s="28"/>
-      <c r="G634" s="28"/>
+      <c r="F634" s="22"/>
+      <c r="G634" s="22"/>
     </row>
     <row r="635" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F635" s="28"/>
-      <c r="G635" s="28"/>
+      <c r="F635" s="22"/>
+      <c r="G635" s="22"/>
     </row>
     <row r="636" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F636" s="28"/>
-      <c r="G636" s="28"/>
+      <c r="F636" s="22"/>
+      <c r="G636" s="22"/>
     </row>
     <row r="637" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F637" s="28"/>
-      <c r="G637" s="28"/>
+      <c r="F637" s="22"/>
+      <c r="G637" s="22"/>
     </row>
     <row r="638" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F638" s="28"/>
-      <c r="G638" s="28"/>
+      <c r="F638" s="22"/>
+      <c r="G638" s="22"/>
     </row>
     <row r="639" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F639" s="28"/>
-      <c r="G639" s="28"/>
+      <c r="F639" s="22"/>
+      <c r="G639" s="22"/>
     </row>
     <row r="640" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F640" s="28"/>
-      <c r="G640" s="28"/>
+      <c r="F640" s="22"/>
+      <c r="G640" s="22"/>
     </row>
     <row r="641" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F641" s="28"/>
-      <c r="G641" s="28"/>
+      <c r="F641" s="22"/>
+      <c r="G641" s="22"/>
     </row>
     <row r="642" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F642" s="28"/>
-      <c r="G642" s="28"/>
+      <c r="F642" s="22"/>
+      <c r="G642" s="22"/>
     </row>
     <row r="643" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F643" s="28"/>
-      <c r="G643" s="28"/>
+      <c r="F643" s="22"/>
+      <c r="G643" s="22"/>
     </row>
     <row r="644" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F644" s="28"/>
-      <c r="G644" s="28"/>
+      <c r="F644" s="22"/>
+      <c r="G644" s="22"/>
     </row>
     <row r="645" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F645" s="28"/>
-      <c r="G645" s="28"/>
+      <c r="F645" s="22"/>
+      <c r="G645" s="22"/>
     </row>
     <row r="646" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F646" s="28"/>
-      <c r="G646" s="28"/>
+      <c r="F646" s="22"/>
+      <c r="G646" s="22"/>
     </row>
     <row r="647" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F647" s="28"/>
-      <c r="G647" s="28"/>
+      <c r="F647" s="22"/>
+      <c r="G647" s="22"/>
     </row>
     <row r="648" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F648" s="28"/>
-      <c r="G648" s="28"/>
+      <c r="F648" s="22"/>
+      <c r="G648" s="22"/>
     </row>
     <row r="649" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F649" s="28"/>
-      <c r="G649" s="28"/>
+      <c r="F649" s="22"/>
+      <c r="G649" s="22"/>
     </row>
     <row r="650" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F650" s="28"/>
-      <c r="G650" s="28"/>
+      <c r="F650" s="22"/>
+      <c r="G650" s="22"/>
     </row>
     <row r="651" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F651" s="28"/>
-      <c r="G651" s="28"/>
+      <c r="F651" s="22"/>
+      <c r="G651" s="22"/>
     </row>
     <row r="652" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F652" s="28"/>
-      <c r="G652" s="28"/>
+      <c r="F652" s="22"/>
+      <c r="G652" s="22"/>
     </row>
     <row r="653" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F653" s="28"/>
-      <c r="G653" s="28"/>
+      <c r="F653" s="22"/>
+      <c r="G653" s="22"/>
     </row>
     <row r="654" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F654" s="28"/>
-      <c r="G654" s="28"/>
+      <c r="F654" s="22"/>
+      <c r="G654" s="22"/>
     </row>
     <row r="655" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F655" s="28"/>
-      <c r="G655" s="28"/>
+      <c r="F655" s="22"/>
+      <c r="G655" s="22"/>
     </row>
     <row r="656" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F656" s="28"/>
-      <c r="G656" s="28"/>
+      <c r="F656" s="22"/>
+      <c r="G656" s="22"/>
     </row>
     <row r="657" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F657" s="28"/>
-      <c r="G657" s="28"/>
+      <c r="F657" s="22"/>
+      <c r="G657" s="22"/>
     </row>
     <row r="658" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F658" s="28"/>
-      <c r="G658" s="28"/>
+      <c r="F658" s="22"/>
+      <c r="G658" s="22"/>
     </row>
     <row r="659" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F659" s="28"/>
-      <c r="G659" s="28"/>
+      <c r="F659" s="22"/>
+      <c r="G659" s="22"/>
     </row>
     <row r="660" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F660" s="28"/>
-      <c r="G660" s="28"/>
+      <c r="F660" s="22"/>
+      <c r="G660" s="22"/>
     </row>
     <row r="661" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F661" s="28"/>
-      <c r="G661" s="28"/>
+      <c r="F661" s="22"/>
+      <c r="G661" s="22"/>
     </row>
     <row r="662" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F662" s="28"/>
-      <c r="G662" s="28"/>
+      <c r="F662" s="22"/>
+      <c r="G662" s="22"/>
     </row>
     <row r="663" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F663" s="28"/>
-      <c r="G663" s="28"/>
+      <c r="F663" s="22"/>
+      <c r="G663" s="22"/>
     </row>
     <row r="664" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F664" s="28"/>
-      <c r="G664" s="28"/>
+      <c r="F664" s="22"/>
+      <c r="G664" s="22"/>
     </row>
     <row r="665" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F665" s="28"/>
-      <c r="G665" s="28"/>
+      <c r="F665" s="22"/>
+      <c r="G665" s="22"/>
     </row>
     <row r="666" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F666" s="28"/>
-      <c r="G666" s="28"/>
+      <c r="F666" s="22"/>
+      <c r="G666" s="22"/>
     </row>
     <row r="667" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F667" s="28"/>
-      <c r="G667" s="28"/>
+      <c r="F667" s="22"/>
+      <c r="G667" s="22"/>
     </row>
     <row r="668" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F668" s="28"/>
-      <c r="G668" s="28"/>
+      <c r="F668" s="22"/>
+      <c r="G668" s="22"/>
     </row>
     <row r="669" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F669" s="28"/>
-      <c r="G669" s="28"/>
+      <c r="F669" s="22"/>
+      <c r="G669" s="22"/>
     </row>
     <row r="670" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F670" s="28"/>
-      <c r="G670" s="28"/>
+      <c r="F670" s="22"/>
+      <c r="G670" s="22"/>
     </row>
     <row r="671" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F671" s="28"/>
-      <c r="G671" s="28"/>
+      <c r="F671" s="22"/>
+      <c r="G671" s="22"/>
     </row>
     <row r="672" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F672" s="28"/>
-      <c r="G672" s="28"/>
+      <c r="F672" s="22"/>
+      <c r="G672" s="22"/>
     </row>
     <row r="673" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F673" s="28"/>
-      <c r="G673" s="28"/>
+      <c r="F673" s="22"/>
+      <c r="G673" s="22"/>
     </row>
     <row r="674" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F674" s="28"/>
-      <c r="G674" s="28"/>
+      <c r="F674" s="22"/>
+      <c r="G674" s="22"/>
     </row>
     <row r="675" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F675" s="28"/>
-      <c r="G675" s="28"/>
+      <c r="F675" s="22"/>
+      <c r="G675" s="22"/>
     </row>
     <row r="676" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F676" s="28"/>
-      <c r="G676" s="28"/>
+      <c r="F676" s="22"/>
+      <c r="G676" s="22"/>
     </row>
     <row r="677" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F677" s="28"/>
-      <c r="G677" s="28"/>
+      <c r="F677" s="22"/>
+      <c r="G677" s="22"/>
     </row>
     <row r="678" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F678" s="28"/>
-      <c r="G678" s="28"/>
+      <c r="F678" s="22"/>
+      <c r="G678" s="22"/>
     </row>
     <row r="679" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F679" s="28"/>
-      <c r="G679" s="28"/>
+      <c r="F679" s="22"/>
+      <c r="G679" s="22"/>
     </row>
     <row r="680" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F680" s="28"/>
-      <c r="G680" s="28"/>
+      <c r="F680" s="22"/>
+      <c r="G680" s="22"/>
     </row>
     <row r="681" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F681" s="28"/>
-      <c r="G681" s="28"/>
+      <c r="F681" s="22"/>
+      <c r="G681" s="22"/>
     </row>
     <row r="682" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F682" s="28"/>
-      <c r="G682" s="28"/>
+      <c r="F682" s="22"/>
+      <c r="G682" s="22"/>
     </row>
     <row r="683" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F683" s="28"/>
-      <c r="G683" s="28"/>
+      <c r="F683" s="22"/>
+      <c r="G683" s="22"/>
     </row>
     <row r="684" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F684" s="28"/>
-      <c r="G684" s="28"/>
+      <c r="F684" s="22"/>
+      <c r="G684" s="22"/>
     </row>
     <row r="685" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F685" s="28"/>
-      <c r="G685" s="28"/>
+      <c r="F685" s="22"/>
+      <c r="G685" s="22"/>
     </row>
     <row r="686" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F686" s="28"/>
-      <c r="G686" s="28"/>
+      <c r="F686" s="22"/>
+      <c r="G686" s="22"/>
     </row>
     <row r="687" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F687" s="28"/>
-      <c r="G687" s="28"/>
+      <c r="F687" s="22"/>
+      <c r="G687" s="22"/>
     </row>
     <row r="688" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F688" s="28"/>
-      <c r="G688" s="28"/>
+      <c r="F688" s="22"/>
+      <c r="G688" s="22"/>
     </row>
     <row r="689" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F689" s="28"/>
-      <c r="G689" s="28"/>
+      <c r="F689" s="22"/>
+      <c r="G689" s="22"/>
     </row>
     <row r="690" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F690" s="28"/>
-      <c r="G690" s="28"/>
+      <c r="F690" s="22"/>
+      <c r="G690" s="22"/>
     </row>
     <row r="691" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F691" s="28"/>
-      <c r="G691" s="28"/>
+      <c r="F691" s="22"/>
+      <c r="G691" s="22"/>
     </row>
     <row r="692" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F692" s="28"/>
-      <c r="G692" s="28"/>
+      <c r="F692" s="22"/>
+      <c r="G692" s="22"/>
     </row>
     <row r="693" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F693" s="28"/>
-      <c r="G693" s="28"/>
+      <c r="F693" s="22"/>
+      <c r="G693" s="22"/>
     </row>
     <row r="694" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F694" s="28"/>
-      <c r="G694" s="28"/>
+      <c r="F694" s="22"/>
+      <c r="G694" s="22"/>
     </row>
     <row r="695" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F695" s="28"/>
-      <c r="G695" s="28"/>
+      <c r="F695" s="22"/>
+      <c r="G695" s="22"/>
     </row>
     <row r="696" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F696" s="28"/>
-      <c r="G696" s="28"/>
+      <c r="F696" s="22"/>
+      <c r="G696" s="22"/>
     </row>
     <row r="697" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F697" s="28"/>
-      <c r="G697" s="28"/>
+      <c r="F697" s="22"/>
+      <c r="G697" s="22"/>
     </row>
     <row r="698" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F698" s="28"/>
-      <c r="G698" s="28"/>
+      <c r="F698" s="22"/>
+      <c r="G698" s="22"/>
     </row>
     <row r="699" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F699" s="28"/>
-      <c r="G699" s="28"/>
+      <c r="F699" s="22"/>
+      <c r="G699" s="22"/>
     </row>
     <row r="700" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F700" s="28"/>
-      <c r="G700" s="28"/>
+      <c r="F700" s="22"/>
+      <c r="G700" s="22"/>
     </row>
     <row r="701" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F701" s="28"/>
-      <c r="G701" s="28"/>
+      <c r="F701" s="22"/>
+      <c r="G701" s="22"/>
     </row>
     <row r="702" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F702" s="28"/>
-      <c r="G702" s="28"/>
+      <c r="F702" s="22"/>
+      <c r="G702" s="22"/>
     </row>
     <row r="703" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F703" s="28"/>
-      <c r="G703" s="28"/>
+      <c r="F703" s="22"/>
+      <c r="G703" s="22"/>
     </row>
     <row r="704" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F704" s="28"/>
-      <c r="G704" s="28"/>
+      <c r="F704" s="22"/>
+      <c r="G704" s="22"/>
     </row>
     <row r="705" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F705" s="28"/>
-      <c r="G705" s="28"/>
+      <c r="F705" s="22"/>
+      <c r="G705" s="22"/>
     </row>
     <row r="706" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F706" s="28"/>
-      <c r="G706" s="28"/>
+      <c r="F706" s="22"/>
+      <c r="G706" s="22"/>
     </row>
     <row r="707" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F707" s="28"/>
-      <c r="G707" s="28"/>
+      <c r="F707" s="22"/>
+      <c r="G707" s="22"/>
     </row>
     <row r="708" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F708" s="28"/>
-      <c r="G708" s="28"/>
+      <c r="F708" s="22"/>
+      <c r="G708" s="22"/>
     </row>
     <row r="709" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F709" s="28"/>
-      <c r="G709" s="28"/>
+      <c r="F709" s="22"/>
+      <c r="G709" s="22"/>
     </row>
     <row r="710" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F710" s="28"/>
-      <c r="G710" s="28"/>
+      <c r="F710" s="22"/>
+      <c r="G710" s="22"/>
     </row>
     <row r="711" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F711" s="28"/>
-      <c r="G711" s="28"/>
+      <c r="F711" s="22"/>
+      <c r="G711" s="22"/>
     </row>
     <row r="712" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F712" s="28"/>
-      <c r="G712" s="28"/>
+      <c r="F712" s="22"/>
+      <c r="G712" s="22"/>
     </row>
     <row r="713" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F713" s="28"/>
-      <c r="G713" s="28"/>
+      <c r="F713" s="22"/>
+      <c r="G713" s="22"/>
     </row>
     <row r="714" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F714" s="28"/>
-      <c r="G714" s="28"/>
+      <c r="F714" s="22"/>
+      <c r="G714" s="22"/>
     </row>
     <row r="715" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F715" s="28"/>
-      <c r="G715" s="28"/>
+      <c r="F715" s="22"/>
+      <c r="G715" s="22"/>
     </row>
     <row r="716" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F716" s="28"/>
-      <c r="G716" s="28"/>
+      <c r="F716" s="22"/>
+      <c r="G716" s="22"/>
     </row>
     <row r="717" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F717" s="28"/>
-      <c r="G717" s="28"/>
+      <c r="F717" s="22"/>
+      <c r="G717" s="22"/>
     </row>
     <row r="718" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F718" s="28"/>
-      <c r="G718" s="28"/>
+      <c r="F718" s="22"/>
+      <c r="G718" s="22"/>
     </row>
     <row r="719" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F719" s="28"/>
-      <c r="G719" s="28"/>
+      <c r="F719" s="22"/>
+      <c r="G719" s="22"/>
     </row>
     <row r="720" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F720" s="28"/>
-      <c r="G720" s="28"/>
+      <c r="F720" s="22"/>
+      <c r="G720" s="22"/>
     </row>
     <row r="721" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F721" s="28"/>
-      <c r="G721" s="28"/>
+      <c r="F721" s="22"/>
+      <c r="G721" s="22"/>
     </row>
     <row r="722" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F722" s="28"/>
-      <c r="G722" s="28"/>
+      <c r="F722" s="22"/>
+      <c r="G722" s="22"/>
     </row>
     <row r="723" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F723" s="28"/>
-      <c r="G723" s="28"/>
+      <c r="F723" s="22"/>
+      <c r="G723" s="22"/>
     </row>
     <row r="724" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F724" s="28"/>
-      <c r="G724" s="28"/>
+      <c r="F724" s="22"/>
+      <c r="G724" s="22"/>
     </row>
     <row r="725" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F725" s="28"/>
-      <c r="G725" s="28"/>
+      <c r="F725" s="22"/>
+      <c r="G725" s="22"/>
     </row>
     <row r="726" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F726" s="28"/>
-      <c r="G726" s="28"/>
+      <c r="F726" s="22"/>
+      <c r="G726" s="22"/>
     </row>
     <row r="727" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F727" s="28"/>
-      <c r="G727" s="28"/>
+      <c r="F727" s="22"/>
+      <c r="G727" s="22"/>
     </row>
     <row r="728" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F728" s="28"/>
-      <c r="G728" s="28"/>
+      <c r="F728" s="22"/>
+      <c r="G728" s="22"/>
     </row>
     <row r="729" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F729" s="28"/>
-      <c r="G729" s="28"/>
+      <c r="F729" s="22"/>
+      <c r="G729" s="22"/>
     </row>
     <row r="730" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F730" s="28"/>
-      <c r="G730" s="28"/>
+      <c r="F730" s="22"/>
+      <c r="G730" s="22"/>
     </row>
     <row r="731" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F731" s="28"/>
-      <c r="G731" s="28"/>
+      <c r="F731" s="22"/>
+      <c r="G731" s="22"/>
     </row>
     <row r="732" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F732" s="28"/>
-      <c r="G732" s="28"/>
+      <c r="F732" s="22"/>
+      <c r="G732" s="22"/>
     </row>
     <row r="733" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F733" s="28"/>
-      <c r="G733" s="28"/>
+      <c r="F733" s="22"/>
+      <c r="G733" s="22"/>
     </row>
     <row r="734" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F734" s="28"/>
-      <c r="G734" s="28"/>
+      <c r="F734" s="22"/>
+      <c r="G734" s="22"/>
     </row>
     <row r="735" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F735" s="28"/>
-      <c r="G735" s="28"/>
+      <c r="F735" s="22"/>
+      <c r="G735" s="22"/>
     </row>
     <row r="736" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F736" s="28"/>
-      <c r="G736" s="28"/>
+      <c r="F736" s="22"/>
+      <c r="G736" s="22"/>
     </row>
     <row r="737" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F737" s="28"/>
-      <c r="G737" s="28"/>
+      <c r="F737" s="22"/>
+      <c r="G737" s="22"/>
     </row>
     <row r="738" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F738" s="28"/>
-      <c r="G738" s="28"/>
+      <c r="F738" s="22"/>
+      <c r="G738" s="22"/>
     </row>
     <row r="739" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F739" s="28"/>
-      <c r="G739" s="28"/>
+      <c r="F739" s="22"/>
+      <c r="G739" s="22"/>
     </row>
     <row r="740" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F740" s="28"/>
-      <c r="G740" s="28"/>
+      <c r="F740" s="22"/>
+      <c r="G740" s="22"/>
     </row>
     <row r="741" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F741" s="28"/>
-      <c r="G741" s="28"/>
+      <c r="F741" s="22"/>
+      <c r="G741" s="22"/>
     </row>
     <row r="742" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F742" s="28"/>
-      <c r="G742" s="28"/>
+      <c r="F742" s="22"/>
+      <c r="G742" s="22"/>
     </row>
     <row r="743" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F743" s="28"/>
-      <c r="G743" s="28"/>
+      <c r="F743" s="22"/>
+      <c r="G743" s="22"/>
     </row>
     <row r="744" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F744" s="28"/>
-      <c r="G744" s="28"/>
+      <c r="F744" s="22"/>
+      <c r="G744" s="22"/>
     </row>
     <row r="745" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F745" s="28"/>
-      <c r="G745" s="28"/>
+      <c r="F745" s="22"/>
+      <c r="G745" s="22"/>
     </row>
     <row r="746" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F746" s="28"/>
-      <c r="G746" s="28"/>
+      <c r="F746" s="22"/>
+      <c r="G746" s="22"/>
     </row>
     <row r="747" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F747" s="28"/>
-      <c r="G747" s="28"/>
+      <c r="F747" s="22"/>
+      <c r="G747" s="22"/>
     </row>
     <row r="748" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F748" s="28"/>
-      <c r="G748" s="28"/>
+      <c r="F748" s="22"/>
+      <c r="G748" s="22"/>
     </row>
     <row r="749" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F749" s="28"/>
-      <c r="G749" s="28"/>
+      <c r="F749" s="22"/>
+      <c r="G749" s="22"/>
     </row>
     <row r="750" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F750" s="28"/>
-      <c r="G750" s="28"/>
+      <c r="F750" s="22"/>
+      <c r="G750" s="22"/>
     </row>
     <row r="751" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F751" s="28"/>
-      <c r="G751" s="28"/>
+      <c r="F751" s="22"/>
+      <c r="G751" s="22"/>
     </row>
     <row r="752" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F752" s="28"/>
-      <c r="G752" s="28"/>
+      <c r="F752" s="22"/>
+      <c r="G752" s="22"/>
     </row>
     <row r="753" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F753" s="28"/>
-      <c r="G753" s="28"/>
+      <c r="F753" s="22"/>
+      <c r="G753" s="22"/>
     </row>
     <row r="754" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F754" s="28"/>
-      <c r="G754" s="28"/>
+      <c r="F754" s="22"/>
+      <c r="G754" s="22"/>
     </row>
     <row r="755" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F755" s="28"/>
-      <c r="G755" s="28"/>
+      <c r="F755" s="22"/>
+      <c r="G755" s="22"/>
     </row>
     <row r="756" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F756" s="28"/>
-      <c r="G756" s="28"/>
+      <c r="F756" s="22"/>
+      <c r="G756" s="22"/>
     </row>
     <row r="757" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F757" s="28"/>
-      <c r="G757" s="28"/>
+      <c r="F757" s="22"/>
+      <c r="G757" s="22"/>
     </row>
     <row r="758" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F758" s="28"/>
-      <c r="G758" s="28"/>
+      <c r="F758" s="22"/>
+      <c r="G758" s="22"/>
     </row>
     <row r="759" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F759" s="28"/>
-      <c r="G759" s="28"/>
+      <c r="F759" s="22"/>
+      <c r="G759" s="22"/>
     </row>
     <row r="760" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F760" s="28"/>
-      <c r="G760" s="28"/>
+      <c r="F760" s="22"/>
+      <c r="G760" s="22"/>
     </row>
     <row r="761" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F761" s="28"/>
-      <c r="G761" s="28"/>
+      <c r="F761" s="22"/>
+      <c r="G761" s="22"/>
     </row>
     <row r="762" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F762" s="28"/>
-      <c r="G762" s="28"/>
+      <c r="F762" s="22"/>
+      <c r="G762" s="22"/>
     </row>
     <row r="763" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F763" s="28"/>
-      <c r="G763" s="28"/>
+      <c r="F763" s="22"/>
+      <c r="G763" s="22"/>
     </row>
     <row r="764" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F764" s="28"/>
-      <c r="G764" s="28"/>
+      <c r="F764" s="22"/>
+      <c r="G764" s="22"/>
     </row>
     <row r="765" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F765" s="28"/>
-      <c r="G765" s="28"/>
+      <c r="F765" s="22"/>
+      <c r="G765" s="22"/>
     </row>
     <row r="766" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F766" s="28"/>
-      <c r="G766" s="28"/>
+      <c r="F766" s="22"/>
+      <c r="G766" s="22"/>
     </row>
     <row r="767" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F767" s="28"/>
-      <c r="G767" s="28"/>
+      <c r="F767" s="22"/>
+      <c r="G767" s="22"/>
     </row>
     <row r="768" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F768" s="28"/>
-      <c r="G768" s="28"/>
+      <c r="F768" s="22"/>
+      <c r="G768" s="22"/>
     </row>
     <row r="769" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F769" s="28"/>
-      <c r="G769" s="28"/>
+      <c r="F769" s="22"/>
+      <c r="G769" s="22"/>
     </row>
     <row r="770" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F770" s="28"/>
-      <c r="G770" s="28"/>
+      <c r="F770" s="22"/>
+      <c r="G770" s="22"/>
     </row>
     <row r="771" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F771" s="28"/>
-      <c r="G771" s="28"/>
+      <c r="F771" s="22"/>
+      <c r="G771" s="22"/>
     </row>
     <row r="772" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F772" s="28"/>
-      <c r="G772" s="28"/>
+      <c r="F772" s="22"/>
+      <c r="G772" s="22"/>
     </row>
     <row r="773" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F773" s="28"/>
-      <c r="G773" s="28"/>
+      <c r="F773" s="22"/>
+      <c r="G773" s="22"/>
     </row>
     <row r="774" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F774" s="28"/>
-      <c r="G774" s="28"/>
+      <c r="F774" s="22"/>
+      <c r="G774" s="22"/>
     </row>
     <row r="775" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F775" s="28"/>
-      <c r="G775" s="28"/>
+      <c r="F775" s="22"/>
+      <c r="G775" s="22"/>
     </row>
     <row r="776" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F776" s="28"/>
-      <c r="G776" s="28"/>
+      <c r="F776" s="22"/>
+      <c r="G776" s="22"/>
     </row>
     <row r="777" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F777" s="28"/>
-      <c r="G777" s="28"/>
+      <c r="F777" s="22"/>
+      <c r="G777" s="22"/>
     </row>
     <row r="778" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F778" s="28"/>
-      <c r="G778" s="28"/>
+      <c r="F778" s="22"/>
+      <c r="G778" s="22"/>
     </row>
     <row r="779" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F779" s="28"/>
-      <c r="G779" s="28"/>
+      <c r="F779" s="22"/>
+      <c r="G779" s="22"/>
     </row>
     <row r="780" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F780" s="28"/>
-      <c r="G780" s="28"/>
+      <c r="F780" s="22"/>
+      <c r="G780" s="22"/>
     </row>
     <row r="781" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F781" s="28"/>
-      <c r="G781" s="28"/>
+      <c r="F781" s="22"/>
+      <c r="G781" s="22"/>
     </row>
     <row r="782" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F782" s="28"/>
-      <c r="G782" s="28"/>
+      <c r="F782" s="22"/>
+      <c r="G782" s="22"/>
     </row>
     <row r="783" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F783" s="28"/>
-      <c r="G783" s="28"/>
+      <c r="F783" s="22"/>
+      <c r="G783" s="22"/>
     </row>
     <row r="784" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F784" s="28"/>
-      <c r="G784" s="28"/>
+      <c r="F784" s="22"/>
+      <c r="G784" s="22"/>
     </row>
     <row r="785" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F785" s="28"/>
-      <c r="G785" s="28"/>
+      <c r="F785" s="22"/>
+      <c r="G785" s="22"/>
     </row>
     <row r="786" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F786" s="28"/>
-      <c r="G786" s="28"/>
+      <c r="F786" s="22"/>
+      <c r="G786" s="22"/>
     </row>
     <row r="787" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F787" s="28"/>
-      <c r="G787" s="28"/>
+      <c r="F787" s="22"/>
+      <c r="G787" s="22"/>
     </row>
     <row r="788" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F788" s="28"/>
-      <c r="G788" s="28"/>
+      <c r="F788" s="22"/>
+      <c r="G788" s="22"/>
     </row>
     <row r="789" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F789" s="28"/>
-      <c r="G789" s="28"/>
+      <c r="F789" s="22"/>
+      <c r="G789" s="22"/>
     </row>
     <row r="790" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F790" s="28"/>
-      <c r="G790" s="28"/>
+      <c r="F790" s="22"/>
+      <c r="G790" s="22"/>
     </row>
     <row r="791" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F791" s="28"/>
-      <c r="G791" s="28"/>
+      <c r="F791" s="22"/>
+      <c r="G791" s="22"/>
     </row>
     <row r="792" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F792" s="28"/>
-      <c r="G792" s="28"/>
+      <c r="F792" s="22"/>
+      <c r="G792" s="22"/>
     </row>
     <row r="793" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F793" s="28"/>
-      <c r="G793" s="28"/>
+      <c r="F793" s="22"/>
+      <c r="G793" s="22"/>
     </row>
     <row r="794" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F794" s="28"/>
-      <c r="G794" s="28"/>
+      <c r="F794" s="22"/>
+      <c r="G794" s="22"/>
     </row>
     <row r="795" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F795" s="28"/>
-      <c r="G795" s="28"/>
+      <c r="F795" s="22"/>
+      <c r="G795" s="22"/>
     </row>
     <row r="796" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F796" s="28"/>
-      <c r="G796" s="28"/>
+      <c r="F796" s="22"/>
+      <c r="G796" s="22"/>
     </row>
     <row r="797" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F797" s="28"/>
-      <c r="G797" s="28"/>
+      <c r="F797" s="22"/>
+      <c r="G797" s="22"/>
     </row>
     <row r="798" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F798" s="28"/>
-      <c r="G798" s="28"/>
+      <c r="F798" s="22"/>
+      <c r="G798" s="22"/>
     </row>
     <row r="799" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F799" s="28"/>
-      <c r="G799" s="28"/>
+      <c r="F799" s="22"/>
+      <c r="G799" s="22"/>
     </row>
     <row r="800" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F800" s="28"/>
-      <c r="G800" s="28"/>
+      <c r="F800" s="22"/>
+      <c r="G800" s="22"/>
     </row>
     <row r="801" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F801" s="28"/>
-      <c r="G801" s="28"/>
+      <c r="F801" s="22"/>
+      <c r="G801" s="22"/>
     </row>
     <row r="802" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F802" s="28"/>
-      <c r="G802" s="28"/>
+      <c r="F802" s="22"/>
+      <c r="G802" s="22"/>
     </row>
     <row r="803" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F803" s="28"/>
-      <c r="G803" s="28"/>
+      <c r="F803" s="22"/>
+      <c r="G803" s="22"/>
     </row>
     <row r="804" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F804" s="28"/>
-      <c r="G804" s="28"/>
+      <c r="F804" s="22"/>
+      <c r="G804" s="22"/>
     </row>
     <row r="805" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F805" s="28"/>
-      <c r="G805" s="28"/>
+      <c r="F805" s="22"/>
+      <c r="G805" s="22"/>
     </row>
     <row r="806" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F806" s="28"/>
-      <c r="G806" s="28"/>
+      <c r="F806" s="22"/>
+      <c r="G806" s="22"/>
     </row>
     <row r="807" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F807" s="28"/>
-      <c r="G807" s="28"/>
+      <c r="F807" s="22"/>
+      <c r="G807" s="22"/>
     </row>
     <row r="808" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F808" s="28"/>
-      <c r="G808" s="28"/>
+      <c r="F808" s="22"/>
+      <c r="G808" s="22"/>
     </row>
     <row r="809" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F809" s="28"/>
-      <c r="G809" s="28"/>
+      <c r="F809" s="22"/>
+      <c r="G809" s="22"/>
     </row>
     <row r="810" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F810" s="28"/>
-      <c r="G810" s="28"/>
+      <c r="F810" s="22"/>
+      <c r="G810" s="22"/>
     </row>
     <row r="811" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F811" s="28"/>
-      <c r="G811" s="28"/>
+      <c r="F811" s="22"/>
+      <c r="G811" s="22"/>
     </row>
     <row r="812" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F812" s="28"/>
-      <c r="G812" s="28"/>
+      <c r="F812" s="22"/>
+      <c r="G812" s="22"/>
     </row>
     <row r="813" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F813" s="28"/>
-      <c r="G813" s="28"/>
+      <c r="F813" s="22"/>
+      <c r="G813" s="22"/>
     </row>
     <row r="814" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F814" s="28"/>
-      <c r="G814" s="28"/>
+      <c r="F814" s="22"/>
+      <c r="G814" s="22"/>
     </row>
     <row r="815" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F815" s="28"/>
-      <c r="G815" s="28"/>
+      <c r="F815" s="22"/>
+      <c r="G815" s="22"/>
     </row>
     <row r="816" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F816" s="28"/>
-      <c r="G816" s="28"/>
+      <c r="F816" s="22"/>
+      <c r="G816" s="22"/>
     </row>
     <row r="817" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F817" s="28"/>
-      <c r="G817" s="28"/>
+      <c r="F817" s="22"/>
+      <c r="G817" s="22"/>
     </row>
     <row r="818" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F818" s="28"/>
-      <c r="G818" s="28"/>
+      <c r="F818" s="22"/>
+      <c r="G818" s="22"/>
     </row>
     <row r="819" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F819" s="28"/>
-      <c r="G819" s="28"/>
+      <c r="F819" s="22"/>
+      <c r="G819" s="22"/>
     </row>
     <row r="820" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F820" s="28"/>
-      <c r="G820" s="28"/>
+      <c r="F820" s="22"/>
+      <c r="G820" s="22"/>
     </row>
     <row r="821" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F821" s="28"/>
-      <c r="G821" s="28"/>
+      <c r="F821" s="22"/>
+      <c r="G821" s="22"/>
     </row>
     <row r="822" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F822" s="28"/>
-      <c r="G822" s="28"/>
+      <c r="F822" s="22"/>
+      <c r="G822" s="22"/>
     </row>
     <row r="823" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F823" s="28"/>
-      <c r="G823" s="28"/>
+      <c r="F823" s="22"/>
+      <c r="G823" s="22"/>
     </row>
     <row r="824" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F824" s="28"/>
-      <c r="G824" s="28"/>
+      <c r="F824" s="22"/>
+      <c r="G824" s="22"/>
     </row>
     <row r="825" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F825" s="28"/>
-      <c r="G825" s="28"/>
+      <c r="F825" s="22"/>
+      <c r="G825" s="22"/>
     </row>
     <row r="826" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F826" s="28"/>
-      <c r="G826" s="28"/>
+      <c r="F826" s="22"/>
+      <c r="G826" s="22"/>
     </row>
     <row r="827" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F827" s="28"/>
-      <c r="G827" s="28"/>
+      <c r="F827" s="22"/>
+      <c r="G827" s="22"/>
     </row>
     <row r="828" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F828" s="28"/>
-      <c r="G828" s="28"/>
+      <c r="F828" s="22"/>
+      <c r="G828" s="22"/>
     </row>
     <row r="829" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F829" s="28"/>
-      <c r="G829" s="28"/>
+      <c r="F829" s="22"/>
+      <c r="G829" s="22"/>
     </row>
     <row r="830" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F830" s="28"/>
-      <c r="G830" s="28"/>
+      <c r="F830" s="22"/>
+      <c r="G830" s="22"/>
     </row>
     <row r="831" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F831" s="28"/>
-      <c r="G831" s="28"/>
+      <c r="F831" s="22"/>
+      <c r="G831" s="22"/>
     </row>
     <row r="832" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F832" s="28"/>
-      <c r="G832" s="28"/>
+      <c r="F832" s="22"/>
+      <c r="G832" s="22"/>
     </row>
     <row r="833" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F833" s="28"/>
-      <c r="G833" s="28"/>
+      <c r="F833" s="22"/>
+      <c r="G833" s="22"/>
     </row>
     <row r="834" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F834" s="28"/>
-      <c r="G834" s="28"/>
+      <c r="F834" s="22"/>
+      <c r="G834" s="22"/>
     </row>
     <row r="835" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F835" s="28"/>
-      <c r="G835" s="28"/>
+      <c r="F835" s="22"/>
+      <c r="G835" s="22"/>
     </row>
     <row r="836" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F836" s="28"/>
-      <c r="G836" s="28"/>
+      <c r="F836" s="22"/>
+      <c r="G836" s="22"/>
     </row>
     <row r="837" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F837" s="28"/>
-      <c r="G837" s="28"/>
+      <c r="F837" s="22"/>
+      <c r="G837" s="22"/>
     </row>
     <row r="838" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F838" s="28"/>
-      <c r="G838" s="28"/>
+      <c r="F838" s="22"/>
+      <c r="G838" s="22"/>
     </row>
     <row r="839" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F839" s="28"/>
-      <c r="G839" s="28"/>
+      <c r="F839" s="22"/>
+      <c r="G839" s="22"/>
     </row>
     <row r="840" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F840" s="28"/>
-      <c r="G840" s="28"/>
+      <c r="F840" s="22"/>
+      <c r="G840" s="22"/>
     </row>
     <row r="841" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F841" s="28"/>
-      <c r="G841" s="28"/>
+      <c r="F841" s="22"/>
+      <c r="G841" s="22"/>
     </row>
     <row r="842" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F842" s="28"/>
-      <c r="G842" s="28"/>
+      <c r="F842" s="22"/>
+      <c r="G842" s="22"/>
     </row>
     <row r="843" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F843" s="28"/>
-      <c r="G843" s="28"/>
+      <c r="F843" s="22"/>
+      <c r="G843" s="22"/>
     </row>
     <row r="844" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F844" s="28"/>
-      <c r="G844" s="28"/>
+      <c r="F844" s="22"/>
+      <c r="G844" s="22"/>
     </row>
     <row r="845" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F845" s="28"/>
-      <c r="G845" s="28"/>
+      <c r="F845" s="22"/>
+      <c r="G845" s="22"/>
     </row>
     <row r="846" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F846" s="28"/>
-      <c r="G846" s="28"/>
+      <c r="F846" s="22"/>
+      <c r="G846" s="22"/>
     </row>
     <row r="847" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F847" s="28"/>
-      <c r="G847" s="28"/>
+      <c r="F847" s="22"/>
+      <c r="G847" s="22"/>
     </row>
     <row r="848" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F848" s="28"/>
-      <c r="G848" s="28"/>
+      <c r="F848" s="22"/>
+      <c r="G848" s="22"/>
     </row>
     <row r="849" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F849" s="28"/>
-      <c r="G849" s="28"/>
+      <c r="F849" s="22"/>
+      <c r="G849" s="22"/>
     </row>
     <row r="850" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F850" s="28"/>
-      <c r="G850" s="28"/>
+      <c r="F850" s="22"/>
+      <c r="G850" s="22"/>
     </row>
     <row r="851" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F851" s="28"/>
-      <c r="G851" s="28"/>
+      <c r="F851" s="22"/>
+      <c r="G851" s="22"/>
     </row>
     <row r="852" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F852" s="28"/>
-      <c r="G852" s="28"/>
+      <c r="F852" s="22"/>
+      <c r="G852" s="22"/>
     </row>
     <row r="853" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F853" s="28"/>
-      <c r="G853" s="28"/>
+      <c r="F853" s="22"/>
+      <c r="G853" s="22"/>
     </row>
     <row r="854" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F854" s="28"/>
-      <c r="G854" s="28"/>
+      <c r="F854" s="22"/>
+      <c r="G854" s="22"/>
     </row>
     <row r="855" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F855" s="28"/>
-      <c r="G855" s="28"/>
+      <c r="F855" s="22"/>
+      <c r="G855" s="22"/>
     </row>
     <row r="856" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F856" s="28"/>
-      <c r="G856" s="28"/>
+      <c r="F856" s="22"/>
+      <c r="G856" s="22"/>
     </row>
     <row r="857" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F857" s="28"/>
-      <c r="G857" s="28"/>
+      <c r="F857" s="22"/>
+      <c r="G857" s="22"/>
     </row>
     <row r="858" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F858" s="28"/>
-      <c r="G858" s="28"/>
+      <c r="F858" s="22"/>
+      <c r="G858" s="22"/>
     </row>
     <row r="859" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F859" s="28"/>
-      <c r="G859" s="28"/>
+      <c r="F859" s="22"/>
+      <c r="G859" s="22"/>
     </row>
     <row r="860" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F860" s="28"/>
-      <c r="G860" s="28"/>
+      <c r="F860" s="22"/>
+      <c r="G860" s="22"/>
     </row>
     <row r="861" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F861" s="28"/>
-      <c r="G861" s="28"/>
+      <c r="F861" s="22"/>
+      <c r="G861" s="22"/>
     </row>
     <row r="862" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F862" s="28"/>
-      <c r="G862" s="28"/>
+      <c r="F862" s="22"/>
+      <c r="G862" s="22"/>
     </row>
     <row r="863" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F863" s="28"/>
-      <c r="G863" s="28"/>
+      <c r="F863" s="22"/>
+      <c r="G863" s="22"/>
     </row>
     <row r="864" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F864" s="28"/>
-      <c r="G864" s="28"/>
+      <c r="F864" s="22"/>
+      <c r="G864" s="22"/>
     </row>
     <row r="865" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F865" s="28"/>
-      <c r="G865" s="28"/>
+      <c r="F865" s="22"/>
+      <c r="G865" s="22"/>
     </row>
     <row r="866" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F866" s="28"/>
-      <c r="G866" s="28"/>
+      <c r="F866" s="22"/>
+      <c r="G866" s="22"/>
     </row>
     <row r="867" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F867" s="28"/>
-      <c r="G867" s="28"/>
+      <c r="F867" s="22"/>
+      <c r="G867" s="22"/>
     </row>
     <row r="868" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F868" s="28"/>
-      <c r="G868" s="28"/>
+      <c r="F868" s="22"/>
+      <c r="G868" s="22"/>
     </row>
     <row r="869" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F869" s="28"/>
-      <c r="G869" s="28"/>
+      <c r="F869" s="22"/>
+      <c r="G869" s="22"/>
     </row>
     <row r="870" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F870" s="28"/>
-      <c r="G870" s="28"/>
+      <c r="F870" s="22"/>
+      <c r="G870" s="22"/>
     </row>
     <row r="871" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F871" s="28"/>
-      <c r="G871" s="28"/>
+      <c r="F871" s="22"/>
+      <c r="G871" s="22"/>
     </row>
     <row r="872" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F872" s="28"/>
-      <c r="G872" s="28"/>
+      <c r="F872" s="22"/>
+      <c r="G872" s="22"/>
     </row>
     <row r="873" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F873" s="28"/>
-      <c r="G873" s="28"/>
+      <c r="F873" s="22"/>
+      <c r="G873" s="22"/>
     </row>
     <row r="874" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F874" s="28"/>
-      <c r="G874" s="28"/>
+      <c r="F874" s="22"/>
+      <c r="G874" s="22"/>
     </row>
     <row r="875" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F875" s="28"/>
-      <c r="G875" s="28"/>
+      <c r="F875" s="22"/>
+      <c r="G875" s="22"/>
     </row>
     <row r="876" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F876" s="28"/>
-      <c r="G876" s="28"/>
+      <c r="F876" s="22"/>
+      <c r="G876" s="22"/>
     </row>
     <row r="877" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F877" s="28"/>
-      <c r="G877" s="28"/>
+      <c r="F877" s="22"/>
+      <c r="G877" s="22"/>
     </row>
     <row r="878" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F878" s="28"/>
-      <c r="G878" s="28"/>
+      <c r="F878" s="22"/>
+      <c r="G878" s="22"/>
     </row>
     <row r="879" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F879" s="28"/>
-      <c r="G879" s="28"/>
+      <c r="F879" s="22"/>
+      <c r="G879" s="22"/>
     </row>
     <row r="880" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F880" s="28"/>
-      <c r="G880" s="28"/>
+      <c r="F880" s="22"/>
+      <c r="G880" s="22"/>
     </row>
     <row r="881" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F881" s="28"/>
-      <c r="G881" s="28"/>
+      <c r="F881" s="22"/>
+      <c r="G881" s="22"/>
     </row>
     <row r="882" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F882" s="28"/>
-      <c r="G882" s="28"/>
+      <c r="F882" s="22"/>
+      <c r="G882" s="22"/>
     </row>
     <row r="883" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F883" s="28"/>
-      <c r="G883" s="28"/>
+      <c r="F883" s="22"/>
+      <c r="G883" s="22"/>
     </row>
     <row r="884" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F884" s="28"/>
-      <c r="G884" s="28"/>
+      <c r="F884" s="22"/>
+      <c r="G884" s="22"/>
     </row>
     <row r="885" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F885" s="28"/>
-      <c r="G885" s="28"/>
+      <c r="F885" s="22"/>
+      <c r="G885" s="22"/>
     </row>
     <row r="886" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F886" s="28"/>
-      <c r="G886" s="28"/>
+      <c r="F886" s="22"/>
+      <c r="G886" s="22"/>
     </row>
     <row r="887" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F887" s="28"/>
-      <c r="G887" s="28"/>
+      <c r="F887" s="22"/>
+      <c r="G887" s="22"/>
     </row>
     <row r="888" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F888" s="28"/>
-      <c r="G888" s="28"/>
+      <c r="F888" s="22"/>
+      <c r="G888" s="22"/>
     </row>
     <row r="889" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F889" s="28"/>
-      <c r="G889" s="28"/>
+      <c r="F889" s="22"/>
+      <c r="G889" s="22"/>
     </row>
     <row r="890" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F890" s="28"/>
-      <c r="G890" s="28"/>
+      <c r="F890" s="22"/>
+      <c r="G890" s="22"/>
     </row>
     <row r="891" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F891" s="28"/>
-      <c r="G891" s="28"/>
+      <c r="F891" s="22"/>
+      <c r="G891" s="22"/>
     </row>
     <row r="892" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F892" s="28"/>
-      <c r="G892" s="28"/>
+      <c r="F892" s="22"/>
+      <c r="G892" s="22"/>
     </row>
     <row r="893" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F893" s="28"/>
-      <c r="G893" s="28"/>
+      <c r="F893" s="22"/>
+      <c r="G893" s="22"/>
     </row>
     <row r="894" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F894" s="28"/>
-      <c r="G894" s="28"/>
+      <c r="F894" s="22"/>
+      <c r="G894" s="22"/>
     </row>
     <row r="895" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F895" s="28"/>
-      <c r="G895" s="28"/>
+      <c r="F895" s="22"/>
+      <c r="G895" s="22"/>
     </row>
     <row r="896" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F896" s="28"/>
-      <c r="G896" s="28"/>
+      <c r="F896" s="22"/>
+      <c r="G896" s="22"/>
     </row>
     <row r="897" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F897" s="28"/>
-      <c r="G897" s="28"/>
+      <c r="F897" s="22"/>
+      <c r="G897" s="22"/>
     </row>
     <row r="898" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F898" s="28"/>
-      <c r="G898" s="28"/>
+      <c r="F898" s="22"/>
+      <c r="G898" s="22"/>
     </row>
     <row r="899" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F899" s="28"/>
-      <c r="G899" s="28"/>
+      <c r="F899" s="22"/>
+      <c r="G899" s="22"/>
     </row>
     <row r="900" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F900" s="28"/>
-      <c r="G900" s="28"/>
+      <c r="F900" s="22"/>
+      <c r="G900" s="22"/>
     </row>
     <row r="901" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F901" s="28"/>
-      <c r="G901" s="28"/>
+      <c r="F901" s="22"/>
+      <c r="G901" s="22"/>
     </row>
     <row r="902" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F902" s="28"/>
-      <c r="G902" s="28"/>
+      <c r="F902" s="22"/>
+      <c r="G902" s="22"/>
     </row>
     <row r="903" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F903" s="28"/>
-      <c r="G903" s="28"/>
+      <c r="F903" s="22"/>
+      <c r="G903" s="22"/>
     </row>
     <row r="904" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F904" s="28"/>
-      <c r="G904" s="28"/>
+      <c r="F904" s="22"/>
+      <c r="G904" s="22"/>
     </row>
     <row r="905" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F905" s="28"/>
-      <c r="G905" s="28"/>
+      <c r="F905" s="22"/>
+      <c r="G905" s="22"/>
     </row>
     <row r="906" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F906" s="28"/>
-      <c r="G906" s="28"/>
+      <c r="F906" s="22"/>
+      <c r="G906" s="22"/>
     </row>
     <row r="907" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F907" s="28"/>
-      <c r="G907" s="28"/>
+      <c r="F907" s="22"/>
+      <c r="G907" s="22"/>
     </row>
     <row r="908" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F908" s="28"/>
-      <c r="G908" s="28"/>
+      <c r="F908" s="22"/>
+      <c r="G908" s="22"/>
     </row>
     <row r="909" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F909" s="28"/>
-      <c r="G909" s="28"/>
+      <c r="F909" s="22"/>
+      <c r="G909" s="22"/>
     </row>
     <row r="910" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F910" s="28"/>
-      <c r="G910" s="28"/>
+      <c r="F910" s="22"/>
+      <c r="G910" s="22"/>
     </row>
     <row r="911" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F911" s="28"/>
-      <c r="G911" s="28"/>
+      <c r="F911" s="22"/>
+      <c r="G911" s="22"/>
     </row>
     <row r="912" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F912" s="28"/>
-      <c r="G912" s="28"/>
+      <c r="F912" s="22"/>
+      <c r="G912" s="22"/>
     </row>
     <row r="913" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F913" s="28"/>
-      <c r="G913" s="28"/>
+      <c r="F913" s="22"/>
+      <c r="G913" s="22"/>
     </row>
     <row r="914" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F914" s="28"/>
-      <c r="G914" s="28"/>
+      <c r="F914" s="22"/>
+      <c r="G914" s="22"/>
     </row>
     <row r="915" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F915" s="28"/>
-      <c r="G915" s="28"/>
+      <c r="F915" s="22"/>
+      <c r="G915" s="22"/>
     </row>
     <row r="916" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F916" s="28"/>
-      <c r="G916" s="28"/>
+      <c r="F916" s="22"/>
+      <c r="G916" s="22"/>
     </row>
     <row r="917" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F917" s="28"/>
-      <c r="G917" s="28"/>
+      <c r="F917" s="22"/>
+      <c r="G917" s="22"/>
     </row>
     <row r="918" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F918" s="28"/>
-      <c r="G918" s="28"/>
+      <c r="F918" s="22"/>
+      <c r="G918" s="22"/>
     </row>
     <row r="919" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F919" s="28"/>
-      <c r="G919" s="28"/>
+      <c r="F919" s="22"/>
+      <c r="G919" s="22"/>
     </row>
     <row r="920" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F920" s="28"/>
-      <c r="G920" s="28"/>
+      <c r="F920" s="22"/>
+      <c r="G920" s="22"/>
     </row>
     <row r="921" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F921" s="28"/>
-      <c r="G921" s="28"/>
+      <c r="F921" s="22"/>
+      <c r="G921" s="22"/>
     </row>
     <row r="922" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F922" s="28"/>
-      <c r="G922" s="28"/>
+      <c r="F922" s="22"/>
+      <c r="G922" s="22"/>
     </row>
     <row r="923" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F923" s="28"/>
-      <c r="G923" s="28"/>
+      <c r="F923" s="22"/>
+      <c r="G923" s="22"/>
     </row>
     <row r="924" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F924" s="28"/>
-      <c r="G924" s="28"/>
+      <c r="F924" s="22"/>
+      <c r="G924" s="22"/>
     </row>
     <row r="925" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F925" s="28"/>
-      <c r="G925" s="28"/>
+      <c r="F925" s="22"/>
+      <c r="G925" s="22"/>
     </row>
     <row r="926" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F926" s="28"/>
-      <c r="G926" s="28"/>
+      <c r="F926" s="22"/>
+      <c r="G926" s="22"/>
     </row>
     <row r="927" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F927" s="28"/>
-      <c r="G927" s="28"/>
+      <c r="F927" s="22"/>
+      <c r="G927" s="22"/>
     </row>
     <row r="928" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F928" s="28"/>
-      <c r="G928" s="28"/>
+      <c r="F928" s="22"/>
+      <c r="G928" s="22"/>
     </row>
     <row r="929" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F929" s="28"/>
-      <c r="G929" s="28"/>
+      <c r="F929" s="22"/>
+      <c r="G929" s="22"/>
     </row>
     <row r="930" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F930" s="28"/>
-      <c r="G930" s="28"/>
+      <c r="F930" s="22"/>
+      <c r="G930" s="22"/>
     </row>
     <row r="931" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F931" s="28"/>
-      <c r="G931" s="28"/>
+      <c r="F931" s="22"/>
+      <c r="G931" s="22"/>
     </row>
     <row r="932" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F932" s="28"/>
-      <c r="G932" s="28"/>
+      <c r="F932" s="22"/>
+      <c r="G932" s="22"/>
     </row>
     <row r="933" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F933" s="28"/>
-      <c r="G933" s="28"/>
+      <c r="F933" s="22"/>
+      <c r="G933" s="22"/>
     </row>
     <row r="934" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F934" s="28"/>
-      <c r="G934" s="28"/>
+      <c r="F934" s="22"/>
+      <c r="G934" s="22"/>
     </row>
     <row r="935" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F935" s="28"/>
-      <c r="G935" s="28"/>
+      <c r="F935" s="22"/>
+      <c r="G935" s="22"/>
     </row>
     <row r="936" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F936" s="28"/>
-      <c r="G936" s="28"/>
+      <c r="F936" s="22"/>
+      <c r="G936" s="22"/>
     </row>
     <row r="937" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F937" s="28"/>
-      <c r="G937" s="28"/>
+      <c r="F937" s="22"/>
+      <c r="G937" s="22"/>
     </row>
     <row r="938" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F938" s="28"/>
-      <c r="G938" s="28"/>
+      <c r="F938" s="22"/>
+      <c r="G938" s="22"/>
     </row>
     <row r="939" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F939" s="28"/>
-      <c r="G939" s="28"/>
+      <c r="F939" s="22"/>
+      <c r="G939" s="22"/>
     </row>
     <row r="940" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F940" s="28"/>
-      <c r="G940" s="28"/>
+      <c r="F940" s="22"/>
+      <c r="G940" s="22"/>
     </row>
     <row r="941" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F941" s="28"/>
-      <c r="G941" s="28"/>
+      <c r="F941" s="22"/>
+      <c r="G941" s="22"/>
     </row>
     <row r="942" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F942" s="28"/>
-      <c r="G942" s="28"/>
+      <c r="F942" s="22"/>
+      <c r="G942" s="22"/>
     </row>
     <row r="943" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F943" s="28"/>
-      <c r="G943" s="28"/>
+      <c r="F943" s="22"/>
+      <c r="G943" s="22"/>
     </row>
     <row r="944" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F944" s="28"/>
-      <c r="G944" s="28"/>
+      <c r="F944" s="22"/>
+      <c r="G944" s="22"/>
     </row>
     <row r="945" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F945" s="28"/>
-      <c r="G945" s="28"/>
+      <c r="F945" s="22"/>
+      <c r="G945" s="22"/>
     </row>
     <row r="946" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F946" s="28"/>
-      <c r="G946" s="28"/>
+      <c r="F946" s="22"/>
+      <c r="G946" s="22"/>
     </row>
     <row r="947" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F947" s="28"/>
-      <c r="G947" s="28"/>
+      <c r="F947" s="22"/>
+      <c r="G947" s="22"/>
     </row>
     <row r="948" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F948" s="28"/>
-      <c r="G948" s="28"/>
+      <c r="F948" s="22"/>
+      <c r="G948" s="22"/>
     </row>
     <row r="949" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F949" s="28"/>
-      <c r="G949" s="28"/>
+      <c r="F949" s="22"/>
+      <c r="G949" s="22"/>
     </row>
     <row r="950" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F950" s="28"/>
-      <c r="G950" s="28"/>
+      <c r="F950" s="22"/>
+      <c r="G950" s="22"/>
     </row>
     <row r="951" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F951" s="28"/>
-      <c r="G951" s="28"/>
+      <c r="F951" s="22"/>
+      <c r="G951" s="22"/>
     </row>
     <row r="952" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F952" s="28"/>
-      <c r="G952" s="28"/>
+      <c r="F952" s="22"/>
+      <c r="G952" s="22"/>
     </row>
     <row r="953" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F953" s="28"/>
-      <c r="G953" s="28"/>
+      <c r="F953" s="22"/>
+      <c r="G953" s="22"/>
     </row>
     <row r="954" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F954" s="28"/>
-      <c r="G954" s="28"/>
+      <c r="F954" s="22"/>
+      <c r="G954" s="22"/>
     </row>
     <row r="955" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F955" s="28"/>
-      <c r="G955" s="28"/>
+      <c r="F955" s="22"/>
+      <c r="G955" s="22"/>
     </row>
     <row r="956" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F956" s="28"/>
-      <c r="G956" s="28"/>
+      <c r="F956" s="22"/>
+      <c r="G956" s="22"/>
     </row>
     <row r="957" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F957" s="28"/>
-      <c r="G957" s="28"/>
+      <c r="F957" s="22"/>
+      <c r="G957" s="22"/>
     </row>
     <row r="958" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F958" s="28"/>
-      <c r="G958" s="28"/>
+      <c r="F958" s="22"/>
+      <c r="G958" s="22"/>
     </row>
     <row r="959" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F959" s="28"/>
-      <c r="G959" s="28"/>
+      <c r="F959" s="22"/>
+      <c r="G959" s="22"/>
     </row>
     <row r="960" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F960" s="28"/>
-      <c r="G960" s="28"/>
+      <c r="F960" s="22"/>
+      <c r="G960" s="22"/>
     </row>
     <row r="961" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F961" s="28"/>
-      <c r="G961" s="28"/>
+      <c r="F961" s="22"/>
+      <c r="G961" s="22"/>
     </row>
     <row r="962" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F962" s="28"/>
-      <c r="G962" s="28"/>
+      <c r="F962" s="22"/>
+      <c r="G962" s="22"/>
     </row>
     <row r="963" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F963" s="28"/>
-      <c r="G963" s="28"/>
+      <c r="F963" s="22"/>
+      <c r="G963" s="22"/>
     </row>
     <row r="964" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F964" s="28"/>
-      <c r="G964" s="28"/>
+      <c r="F964" s="22"/>
+      <c r="G964" s="22"/>
     </row>
     <row r="965" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F965" s="28"/>
-      <c r="G965" s="28"/>
+      <c r="F965" s="22"/>
+      <c r="G965" s="22"/>
     </row>
     <row r="966" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F966" s="28"/>
-      <c r="G966" s="28"/>
+      <c r="F966" s="22"/>
+      <c r="G966" s="22"/>
     </row>
     <row r="967" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F967" s="28"/>
-      <c r="G967" s="28"/>
+      <c r="F967" s="22"/>
+      <c r="G967" s="22"/>
     </row>
     <row r="968" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F968" s="28"/>
-      <c r="G968" s="28"/>
+      <c r="F968" s="22"/>
+      <c r="G968" s="22"/>
     </row>
     <row r="969" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F969" s="28"/>
-      <c r="G969" s="28"/>
+      <c r="F969" s="22"/>
+      <c r="G969" s="22"/>
     </row>
     <row r="970" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F970" s="28"/>
-      <c r="G970" s="28"/>
+      <c r="F970" s="22"/>
+      <c r="G970" s="22"/>
     </row>
     <row r="971" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F971" s="28"/>
-      <c r="G971" s="28"/>
+      <c r="F971" s="22"/>
+      <c r="G971" s="22"/>
     </row>
     <row r="972" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F972" s="28"/>
-      <c r="G972" s="28"/>
+      <c r="F972" s="22"/>
+      <c r="G972" s="22"/>
     </row>
     <row r="973" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F973" s="28"/>
-      <c r="G973" s="28"/>
+      <c r="F973" s="22"/>
+      <c r="G973" s="22"/>
     </row>
     <row r="974" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F974" s="28"/>
-      <c r="G974" s="28"/>
+      <c r="F974" s="22"/>
+      <c r="G974" s="22"/>
     </row>
     <row r="975" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F975" s="28"/>
-      <c r="G975" s="28"/>
+      <c r="F975" s="22"/>
+      <c r="G975" s="22"/>
     </row>
     <row r="976" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F976" s="28"/>
-      <c r="G976" s="28"/>
+      <c r="F976" s="22"/>
+      <c r="G976" s="22"/>
     </row>
     <row r="977" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F977" s="28"/>
-      <c r="G977" s="28"/>
+      <c r="F977" s="22"/>
+      <c r="G977" s="22"/>
     </row>
     <row r="978" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F978" s="28"/>
-      <c r="G978" s="28"/>
+      <c r="F978" s="22"/>
+      <c r="G978" s="22"/>
     </row>
     <row r="979" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F979" s="28"/>
-      <c r="G979" s="28"/>
+      <c r="F979" s="22"/>
+      <c r="G979" s="22"/>
     </row>
     <row r="980" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F980" s="28"/>
-      <c r="G980" s="28"/>
+      <c r="F980" s="22"/>
+      <c r="G980" s="22"/>
     </row>
     <row r="981" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F981" s="28"/>
-      <c r="G981" s="28"/>
+      <c r="F981" s="22"/>
+      <c r="G981" s="22"/>
     </row>
     <row r="982" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F982" s="28"/>
-      <c r="G982" s="28"/>
+      <c r="F982" s="22"/>
+      <c r="G982" s="22"/>
     </row>
     <row r="983" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F983" s="28"/>
-      <c r="G983" s="28"/>
+      <c r="F983" s="22"/>
+      <c r="G983" s="22"/>
     </row>
     <row r="984" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F984" s="28"/>
-      <c r="G984" s="28"/>
+      <c r="F984" s="22"/>
+      <c r="G984" s="22"/>
     </row>
     <row r="985" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F985" s="28"/>
-      <c r="G985" s="28"/>
+      <c r="F985" s="22"/>
+      <c r="G985" s="22"/>
     </row>
     <row r="986" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F986" s="28"/>
-      <c r="G986" s="28"/>
+      <c r="F986" s="22"/>
+      <c r="G986" s="22"/>
     </row>
     <row r="987" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F987" s="28"/>
-      <c r="G987" s="28"/>
+      <c r="F987" s="22"/>
+      <c r="G987" s="22"/>
     </row>
     <row r="988" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F988" s="28"/>
-      <c r="G988" s="28"/>
+      <c r="F988" s="22"/>
+      <c r="G988" s="22"/>
     </row>
     <row r="989" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F989" s="28"/>
-      <c r="G989" s="28"/>
+      <c r="F989" s="22"/>
+      <c r="G989" s="22"/>
     </row>
     <row r="990" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F990" s="28"/>
-      <c r="G990" s="28"/>
+      <c r="F990" s="22"/>
+      <c r="G990" s="22"/>
     </row>
     <row r="991" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F991" s="28"/>
-      <c r="G991" s="28"/>
+      <c r="F991" s="22"/>
+      <c r="G991" s="22"/>
     </row>
     <row r="992" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F992" s="28"/>
-      <c r="G992" s="28"/>
+      <c r="F992" s="22"/>
+      <c r="G992" s="22"/>
     </row>
     <row r="993" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F993" s="28"/>
-      <c r="G993" s="28"/>
+      <c r="F993" s="22"/>
+      <c r="G993" s="22"/>
     </row>
     <row r="994" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F994" s="28"/>
-      <c r="G994" s="28"/>
+      <c r="F994" s="22"/>
+      <c r="G994" s="22"/>
     </row>
     <row r="995" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F995" s="28"/>
-      <c r="G995" s="28"/>
+      <c r="F995" s="22"/>
+      <c r="G995" s="22"/>
     </row>
     <row r="996" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F996" s="28"/>
-      <c r="G996" s="28"/>
+      <c r="F996" s="22"/>
+      <c r="G996" s="22"/>
     </row>
     <row r="997" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F997" s="28"/>
-      <c r="G997" s="28"/>
+      <c r="F997" s="22"/>
+      <c r="G997" s="22"/>
     </row>
     <row r="998" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F998" s="28"/>
-      <c r="G998" s="28"/>
+      <c r="F998" s="22"/>
+      <c r="G998" s="22"/>
     </row>
     <row r="999" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F999" s="28"/>
-      <c r="G999" s="28"/>
+      <c r="F999" s="22"/>
+      <c r="G999" s="22"/>
     </row>
     <row r="1000" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1000" s="28"/>
-      <c r="G1000" s="28"/>
+      <c r="F1000" s="22"/>
+      <c r="G1000" s="22"/>
     </row>
     <row r="1001" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1001" s="28"/>
-      <c r="G1001" s="28"/>
+      <c r="F1001" s="22"/>
+      <c r="G1001" s="22"/>
     </row>
     <row r="1002" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1002" s="28"/>
-      <c r="G1002" s="28"/>
+      <c r="F1002" s="22"/>
+      <c r="G1002" s="22"/>
     </row>
     <row r="1003" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1003" s="28"/>
-      <c r="G1003" s="28"/>
+      <c r="F1003" s="22"/>
+      <c r="G1003" s="22"/>
     </row>
     <row r="1004" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1004" s="28"/>
-      <c r="G1004" s="28"/>
+      <c r="F1004" s="22"/>
+      <c r="G1004" s="22"/>
     </row>
     <row r="1005" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1005" s="28"/>
-      <c r="G1005" s="28"/>
+      <c r="F1005" s="22"/>
+      <c r="G1005" s="22"/>
     </row>
     <row r="1006" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1006" s="28"/>
-      <c r="G1006" s="28"/>
+      <c r="F1006" s="22"/>
+      <c r="G1006" s="22"/>
     </row>
     <row r="1007" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1007" s="28"/>
-      <c r="G1007" s="28"/>
+      <c r="F1007" s="22"/>
+      <c r="G1007" s="22"/>
     </row>
     <row r="1008" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1008" s="28"/>
-      <c r="G1008" s="28"/>
+      <c r="F1008" s="22"/>
+      <c r="G1008" s="22"/>
     </row>
     <row r="1009" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1009" s="28"/>
-      <c r="G1009" s="28"/>
+      <c r="F1009" s="22"/>
+      <c r="G1009" s="22"/>
     </row>
     <row r="1010" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1010" s="28"/>
-      <c r="G1010" s="28"/>
+      <c r="F1010" s="22"/>
+      <c r="G1010" s="22"/>
     </row>
     <row r="1011" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1011" s="28"/>
-      <c r="G1011" s="28"/>
+      <c r="F1011" s="22"/>
+      <c r="G1011" s="22"/>
     </row>
     <row r="1012" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1012" s="28"/>
-      <c r="G1012" s="28"/>
-    </row>
-    <row r="1013" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1013" s="28"/>
-      <c r="G1013" s="28"/>
-    </row>
-    <row r="1014" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1014" s="28"/>
-      <c r="G1014" s="28"/>
-    </row>
-    <row r="1015" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1015" s="28"/>
-      <c r="G1015" s="28"/>
-    </row>
-    <row r="1016" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1016" s="28"/>
-      <c r="G1016" s="28"/>
-    </row>
-    <row r="1017" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1017" s="28"/>
-      <c r="G1017" s="28"/>
-    </row>
-    <row r="1018" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1018" s="28"/>
-      <c r="G1018" s="28"/>
-    </row>
-    <row r="1019" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F1019" s="28"/>
-      <c r="G1019" s="28"/>
+      <c r="F1012" s="22"/>
+      <c r="G1012" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A56:B59"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F51:G54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F1:G1"/>
@@ -5735,56 +6031,9 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A56:B59"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F51:G54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="F57:G59"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A44:A49"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F1:F21 F44:F49 F61:G1019 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F44:F49 F1:F21 F23:F42 F61:G1012" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5801,7 +6050,9 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5812,82 +6063,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="26">
+        <v>15</v>
+      </c>
+      <c r="C2" s="26">
+        <f>WP!D9 + WP!D11 + WP!D18 + WP!D20 + WP!D30 + WP!D32 + WP!D39 + WP!D41 + WP!D47 + WP!D51</f>
+        <v>15</v>
+      </c>
+      <c r="D2" s="26">
+        <f>WP!E9 + WP!E11 + WP!E18 + WP!E20 + WP!E30 + WP!E32 + WP!E39 + WP!E41 + WP!E47 + WP!E51</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B3" s="26">
+        <v>12</v>
+      </c>
+      <c r="C3" s="26">
+        <f>WP!D8 + WP!D10 + WP!D14 + WP!D16 + WP!D29 + WP!D31 + WP!D35 + WP!D37</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="26">
+        <f>WP!E8 + WP!E10 + WP!E14 + WP!E16 + WP!E29 + WP!E31 + WP!E35 + WP!E37</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="26">
+        <v>14</v>
+      </c>
+      <c r="C4" s="26">
+        <f>WP!D2 + WP!D3 + WP!D15 + WP!D17 + WP!D23 + WP!D24 + WP!D36 + WP!D38 + WP!D44</f>
+        <v>16</v>
+      </c>
+      <c r="D4" s="26">
+        <f>WP!E2 + WP!E3 + WP!E15 + WP!E17 + WP!E23 + WP!E24 + WP!E36 + WP!E38 + WP!E44</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="26">
+        <v>10</v>
+      </c>
+      <c r="C5" s="26">
+        <f>WP!D4 + WP!D6 + WP!D19 + WP!D21 + WP!D25 + WP!D27 + WP!D40 + WP!D42</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="26">
+        <f>WP!E4 + WP!E6 + WP!E19 + WP!E21 + WP!E25 + WP!E27 + WP!E40 + WP!E42</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="B6" s="26">
+        <v>10</v>
+      </c>
+      <c r="C6" s="26">
+        <f>WP!D5 + WP!D7 + WP!D12 + WP!D13 + WP!D26 + WP!D28 + WP!D33 + WP!D34 + WP!D45 + WP!D46</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="26">
+        <f>WP!E5 + WP!E7 + WP!E12 + WP!E13 + WP!E26 + WP!E28 + WP!E33 + WP!E34 + WP!E45 + WP!E46</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="32">
-        <v>15</v>
-      </c>
-      <c r="C2" s="32">
-        <v>15</v>
-      </c>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="32">
-        <v>10</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="32">
-        <v>10</v>
-      </c>
-      <c r="C4" s="32">
-        <v>20</v>
-      </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="32">
-        <v>10</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="32">
-        <v>10</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="34">
-        <v>55</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="27">
+        <f>B2+B3+B4+B5+B6</f>
+        <v>61</v>
+      </c>
+      <c r="C7" s="27">
+        <f>C2+C3+C4+C5+C6</f>
+        <v>63</v>
+      </c>
+      <c r="D7" s="27">
+        <f>D2+D3+D4+D5+D6</f>
+        <v>57.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Release Planning/Release3_ planning.xlsx
+++ b/Release Planning/Release3_ planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Release Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D881CC-5B92-45A9-A28C-70208BE4B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F40C44-889B-42F1-BE60-458B566AE54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="74">
   <si>
     <t>WP</t>
   </si>
@@ -387,7 +387,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,12 +458,6 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -714,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -780,76 +774,49 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -870,37 +837,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,8 +1108,8 @@
   </sheetPr>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1153,10 +1138,10 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
@@ -1165,7 +1150,7 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7">
@@ -1174,13 +1159,13 @@
       <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1193,13 +1178,13 @@
       <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1212,13 +1197,13 @@
       <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1231,13 +1216,13 @@
       <c r="E5" s="8">
         <v>0.75</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1250,13 +1235,13 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1269,13 +1254,13 @@
       <c r="E7" s="8">
         <v>0.75</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1288,13 +1273,13 @@
       <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1307,13 +1292,13 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1326,13 +1311,13 @@
       <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1345,13 +1330,13 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1364,13 +1349,13 @@
       <c r="E12" s="8">
         <v>0.5</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1383,13 +1368,13 @@
       <c r="E13" s="8">
         <v>0.5</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1402,13 +1387,13 @@
       <c r="E14" s="8">
         <v>0.5</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1421,13 +1406,13 @@
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1440,13 +1425,13 @@
       <c r="E16" s="8">
         <v>0.5</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1459,13 +1444,13 @@
       <c r="E17" s="8">
         <v>3</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1478,13 +1463,13 @@
       <c r="E18" s="8">
         <v>0.5</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="32"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1497,13 +1482,13 @@
       <c r="E19" s="8">
         <v>0.5</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1516,13 +1501,13 @@
       <c r="E20" s="8">
         <v>0.5</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1535,10 +1520,10 @@
       <c r="E21" s="8">
         <v>0.5</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1546,11 +1531,11 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1565,13 +1550,13 @@
       <c r="E23" s="8">
         <v>4</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="32"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
@@ -1584,13 +1569,13 @@
       <c r="E24" s="8">
         <v>6</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="59"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
@@ -1600,14 +1585,16 @@
       <c r="D25" s="7">
         <v>2.5</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="68"/>
+      <c r="E25" s="8">
+        <v>3</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
@@ -1620,13 +1607,13 @@
       <c r="E26" s="8">
         <v>2</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="32"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
@@ -1636,14 +1623,16 @@
       <c r="D27" s="7">
         <v>2.5</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="68"/>
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
@@ -1656,13 +1645,13 @@
       <c r="E28" s="8">
         <v>2</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="32"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
@@ -1675,13 +1664,13 @@
       <c r="E29" s="8">
         <v>3</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="32"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
@@ -1694,13 +1683,13 @@
       <c r="E30" s="8">
         <v>3</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="32"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
@@ -1713,13 +1702,13 @@
       <c r="E31" s="8">
         <v>3</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="32"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
@@ -1732,13 +1721,13 @@
       <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="32"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
@@ -1751,13 +1740,13 @@
       <c r="E33" s="8">
         <v>0.5</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="32"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
@@ -1770,13 +1759,13 @@
       <c r="E34" s="8">
         <v>0.5</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="32"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1786,14 +1775,16 @@
       <c r="D35" s="7">
         <v>0.5</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="60"/>
+      <c r="E35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1806,13 +1797,13 @@
       <c r="E36" s="8">
         <v>1</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="32"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="5" t="s">
         <v>48</v>
       </c>
@@ -1822,14 +1813,16 @@
       <c r="D37" s="7">
         <v>0.5</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="60"/>
+      <c r="E37" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1842,13 +1835,13 @@
       <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="32"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="5" t="s">
         <v>50</v>
       </c>
@@ -1861,13 +1854,13 @@
       <c r="E39" s="8">
         <v>1</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="32"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="5" t="s">
         <v>51</v>
       </c>
@@ -1880,13 +1873,13 @@
       <c r="E40" s="8">
         <v>1</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="32"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="36"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="5" t="s">
         <v>52</v>
       </c>
@@ -1899,13 +1892,13 @@
       <c r="E41" s="8">
         <v>1</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="32"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="5" t="s">
         <v>53</v>
       </c>
@@ -1918,10 +1911,10 @@
       <c r="E42" s="8">
         <v>1</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
@@ -1929,11 +1922,11 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="30"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="70"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="60" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -1948,13 +1941,13 @@
       <c r="E44" s="28">
         <v>2</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="32"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="19" t="s">
         <v>56</v>
       </c>
@@ -1967,13 +1960,13 @@
       <c r="E45" s="28">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="32"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="19" t="s">
         <v>57</v>
       </c>
@@ -1986,13 +1979,13 @@
       <c r="E46" s="28">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="32"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="19" t="s">
         <v>58</v>
       </c>
@@ -2005,28 +1998,28 @@
       <c r="E47" s="28">
         <v>1</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="43"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70"/>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="70"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
@@ -2034,129 +2027,133 @@
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="30"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="70"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38" t="s">
+      <c r="B51" s="64"/>
+      <c r="C51" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="66">
         <v>3</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="51"/>
+      <c r="E51" s="76">
+        <v>3</v>
+      </c>
+      <c r="F51" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="73"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="75"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="75"/>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="69"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="40"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="63"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="79" t="s">
+      <c r="B56" s="38"/>
+      <c r="C56" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="79">
+      <c r="D56" s="35">
         <v>45</v>
       </c>
-      <c r="E56" s="74" t="s">
+      <c r="E56" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="48"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="76" t="s">
+      <c r="A57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="76">
-        <v>2</v>
-      </c>
-      <c r="E57" s="75">
+      <c r="D57" s="32">
+        <v>0</v>
+      </c>
+      <c r="E57" s="31">
         <f>(D57/D56)</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="F57" s="61">
+        <v>0</v>
+      </c>
+      <c r="F57" s="50">
         <f>'Time Sheet'!D2 + 'Time Sheet'!D3 + 'Time Sheet'!D4 + 'Time Sheet'!D5 + 'Time Sheet'!D6</f>
-        <v>57.8</v>
-      </c>
-      <c r="G57" s="62"/>
+        <v>67.8</v>
+      </c>
+      <c r="G57" s="51"/>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="77" t="s">
+      <c r="A58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="77">
-        <v>3</v>
-      </c>
-      <c r="E58" s="75">
+      <c r="D58" s="33">
+        <v>0</v>
+      </c>
+      <c r="E58" s="31">
         <f>D58/D56</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="78" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="78">
-        <v>40</v>
-      </c>
-      <c r="E59" s="75">
+      <c r="D59" s="34">
+        <v>45</v>
+      </c>
+      <c r="E59" s="31">
         <f>D59/D56</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="66"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="54"/>
+      <c r="G59" s="55"/>
     </row>
     <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="22"/>
@@ -5968,6 +5965,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F17:G17"/>
@@ -5984,56 +6028,9 @@
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A49"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F44:F49 F1:F21 F23:F42 F61:G1012" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51 F44:F49 F1:F21 F61:G1012 F23:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>" Doing,Done,To do"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6050,7 +6047,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6089,7 +6086,7 @@
       </c>
       <c r="D2" s="26">
         <f>WP!E9 + WP!E11 + WP!E18 + WP!E20 + WP!E30 + WP!E32 + WP!E39 + WP!E41 + WP!E47 + WP!E51</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6105,7 +6102,7 @@
       </c>
       <c r="D3" s="26">
         <f>WP!E8 + WP!E10 + WP!E14 + WP!E16 + WP!E29 + WP!E31 + WP!E35 + WP!E37</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6137,7 +6134,7 @@
       </c>
       <c r="D5" s="26">
         <f>WP!E4 + WP!E6 + WP!E19 + WP!E21 + WP!E25 + WP!E27 + WP!E40 + WP!E42</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6157,7 +6154,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="27">
@@ -6170,7 +6167,7 @@
       </c>
       <c r="D7" s="27">
         <f>D2+D3+D4+D5+D6</f>
-        <v>57.8</v>
+        <v>67.8</v>
       </c>
     </row>
   </sheetData>
